--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel10/field_16ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel10/field_16ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
@@ -7312,28 +7312,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>133.9250942235299</v>
+        <v>170.4266447185433</v>
       </c>
       <c r="AB2" t="n">
-        <v>183.242222274719</v>
+        <v>233.1852539967275</v>
       </c>
       <c r="AC2" t="n">
-        <v>165.7538417629455</v>
+        <v>210.9303806329066</v>
       </c>
       <c r="AD2" t="n">
-        <v>133925.0942235299</v>
+        <v>170426.6447185433</v>
       </c>
       <c r="AE2" t="n">
-        <v>183242.222274719</v>
+        <v>233185.2539967275</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.467454194563629e-06</v>
+        <v>4.565436275054464e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.158854166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>165753.8417629455</v>
+        <v>210930.3806329066</v>
       </c>
     </row>
     <row r="3">
@@ -7418,28 +7418,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>115.3994923504232</v>
+        <v>151.9862941914572</v>
       </c>
       <c r="AB3" t="n">
-        <v>157.8946765000741</v>
+        <v>207.9543528747318</v>
       </c>
       <c r="AC3" t="n">
-        <v>142.8254301815207</v>
+        <v>188.1074813021941</v>
       </c>
       <c r="AD3" t="n">
-        <v>115399.4923504232</v>
+        <v>151986.2941914572</v>
       </c>
       <c r="AE3" t="n">
-        <v>157894.6765000741</v>
+        <v>207954.3528747318</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.6695449742983e-06</v>
+        <v>4.939357127845768e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.690104166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>142825.4301815207</v>
+        <v>188107.4813021941</v>
       </c>
     </row>
     <row r="4">
@@ -7524,28 +7524,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>111.138178633721</v>
+        <v>147.5543882741629</v>
       </c>
       <c r="AB4" t="n">
-        <v>152.064159076992</v>
+        <v>201.8904236768029</v>
       </c>
       <c r="AC4" t="n">
-        <v>137.5513691581131</v>
+        <v>182.6222849961354</v>
       </c>
       <c r="AD4" t="n">
-        <v>111138.178633721</v>
+        <v>147554.3882741629</v>
       </c>
       <c r="AE4" t="n">
-        <v>152064.159076992</v>
+        <v>201890.4236768029</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.828407280474574e-06</v>
+        <v>5.233293986715902e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.37109375</v>
       </c>
       <c r="AH4" t="n">
-        <v>137551.3691581131</v>
+        <v>182622.2849961355</v>
       </c>
     </row>
     <row r="5">
@@ -7630,28 +7630,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>108.4884006909339</v>
+        <v>132.879691426841</v>
       </c>
       <c r="AB5" t="n">
-        <v>148.4386159957201</v>
+        <v>181.8118560483736</v>
       </c>
       <c r="AC5" t="n">
-        <v>134.2718428200349</v>
+        <v>164.4599876817104</v>
       </c>
       <c r="AD5" t="n">
-        <v>108488.4006909339</v>
+        <v>132879.691426841</v>
       </c>
       <c r="AE5" t="n">
-        <v>148438.6159957201</v>
+        <v>181811.8560483736</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.935007949341315e-06</v>
+        <v>5.430533133712654e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.17578125</v>
       </c>
       <c r="AH5" t="n">
-        <v>134271.8428200349</v>
+        <v>164459.9876817104</v>
       </c>
     </row>
     <row r="6">
@@ -7736,28 +7736,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>105.9656056542767</v>
+        <v>130.3568963901838</v>
       </c>
       <c r="AB6" t="n">
-        <v>144.9868165287054</v>
+        <v>178.360056581359</v>
       </c>
       <c r="AC6" t="n">
-        <v>131.1494782495201</v>
+        <v>161.3376231111956</v>
       </c>
       <c r="AD6" t="n">
-        <v>105965.6056542767</v>
+        <v>130356.8963901838</v>
       </c>
       <c r="AE6" t="n">
-        <v>144986.8165287054</v>
+        <v>178360.056581359</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.035866607141444e-06</v>
+        <v>5.617148056894823e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.006510416666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>131149.4782495201</v>
+        <v>161337.6231111956</v>
       </c>
     </row>
     <row r="7">
@@ -7842,28 +7842,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>93.50282610710464</v>
+        <v>130.0042870935671</v>
       </c>
       <c r="AB7" t="n">
-        <v>127.9346917332438</v>
+        <v>177.8776009857039</v>
       </c>
       <c r="AC7" t="n">
-        <v>115.7247843117244</v>
+        <v>160.901212400459</v>
       </c>
       <c r="AD7" t="n">
-        <v>93502.82610710464</v>
+        <v>130004.2870935671</v>
       </c>
       <c r="AE7" t="n">
-        <v>127934.6917332438</v>
+        <v>177877.6009857039</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.046743750056246e-06</v>
+        <v>5.637273619080173e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.986979166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>115724.7843117244</v>
+        <v>160901.212400459</v>
       </c>
     </row>
     <row r="8">
@@ -7948,28 +7948,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>91.58454705752737</v>
+        <v>128.0860080439898</v>
       </c>
       <c r="AB8" t="n">
-        <v>125.3100177091146</v>
+        <v>175.2529269615747</v>
       </c>
       <c r="AC8" t="n">
-        <v>113.3506054927042</v>
+        <v>158.5270335814387</v>
       </c>
       <c r="AD8" t="n">
-        <v>91584.54705752738</v>
+        <v>128086.0080439898</v>
       </c>
       <c r="AE8" t="n">
-        <v>125310.0177091146</v>
+        <v>175252.9269615747</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.113593830116318e-06</v>
+        <v>5.760963769506864e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.8828125</v>
       </c>
       <c r="AH8" t="n">
-        <v>113350.6054927042</v>
+        <v>158527.0335814387</v>
       </c>
     </row>
     <row r="9">
@@ -8054,28 +8054,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>90.11989149546909</v>
+        <v>126.6213524819315</v>
       </c>
       <c r="AB9" t="n">
-        <v>123.3060113530644</v>
+        <v>173.2489206055245</v>
       </c>
       <c r="AC9" t="n">
-        <v>111.5378586906342</v>
+        <v>156.7142867793688</v>
       </c>
       <c r="AD9" t="n">
-        <v>90119.89149546908</v>
+        <v>126621.3524819315</v>
       </c>
       <c r="AE9" t="n">
-        <v>123306.0113530644</v>
+        <v>173248.9206055245</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.16639232211907e-06</v>
+        <v>5.858654803119006e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.798177083333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>111537.8586906342</v>
+        <v>156714.2867793688</v>
       </c>
     </row>
     <row r="10">
@@ -8160,28 +8160,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>88.67486787975793</v>
+        <v>125.1763288662203</v>
       </c>
       <c r="AB10" t="n">
-        <v>121.3288662921067</v>
+        <v>171.2717755445668</v>
       </c>
       <c r="AC10" t="n">
-        <v>109.7494095793531</v>
+        <v>154.9258376680877</v>
       </c>
       <c r="AD10" t="n">
-        <v>88674.86787975792</v>
+        <v>125176.3288662203</v>
       </c>
       <c r="AE10" t="n">
-        <v>121328.8662921067</v>
+        <v>171271.7755445668</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.22371906675159e-06</v>
+        <v>5.964724289658097e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.713541666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>109749.4095793531</v>
+        <v>154925.8376680877</v>
       </c>
     </row>
     <row r="11">
@@ -8266,28 +8266,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>88.03082466518143</v>
+        <v>124.5322856516438</v>
       </c>
       <c r="AB11" t="n">
-        <v>120.4476579527423</v>
+        <v>170.3905672052024</v>
       </c>
       <c r="AC11" t="n">
-        <v>108.9523025271137</v>
+        <v>154.1287306158482</v>
       </c>
       <c r="AD11" t="n">
-        <v>88030.82466518143</v>
+        <v>124532.2856516438</v>
       </c>
       <c r="AE11" t="n">
-        <v>120447.6579527423</v>
+        <v>170390.5672052024</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.243255909283112e-06</v>
+        <v>6.000872563368692e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.6875</v>
       </c>
       <c r="AH11" t="n">
-        <v>108952.3025271137</v>
+        <v>154128.7306158482</v>
       </c>
     </row>
     <row r="12">
@@ -8372,28 +8372,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>88.00056933917074</v>
+        <v>124.5020303256332</v>
       </c>
       <c r="AB12" t="n">
-        <v>120.4062612809237</v>
+        <v>170.3491705333838</v>
       </c>
       <c r="AC12" t="n">
-        <v>108.9148566955529</v>
+        <v>154.0912847842874</v>
       </c>
       <c r="AD12" t="n">
-        <v>88000.56933917073</v>
+        <v>124502.0303256332</v>
       </c>
       <c r="AE12" t="n">
-        <v>120406.2612809237</v>
+        <v>170349.1705333838</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.244633058278763e-06</v>
+        <v>6.003420649568124e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.680989583333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>108914.8566955529</v>
+        <v>154091.2847842874</v>
       </c>
     </row>
   </sheetData>
@@ -8669,28 +8669,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>206.8315000620431</v>
+        <v>259.0947887129968</v>
       </c>
       <c r="AB2" t="n">
-        <v>282.9959831465459</v>
+        <v>354.5049203724802</v>
       </c>
       <c r="AC2" t="n">
-        <v>255.9872437024797</v>
+        <v>320.6714683229105</v>
       </c>
       <c r="AD2" t="n">
-        <v>206831.5000620431</v>
+        <v>259094.7887129968</v>
       </c>
       <c r="AE2" t="n">
-        <v>282995.9831465459</v>
+        <v>354504.9203724802</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.755523665694629e-06</v>
+        <v>3.07958999043075e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.098958333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>255987.2437024797</v>
+        <v>320671.4683229105</v>
       </c>
     </row>
     <row r="3">
@@ -8775,28 +8775,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>178.1332851330141</v>
+        <v>217.3947796392933</v>
       </c>
       <c r="AB3" t="n">
-        <v>243.7298194047807</v>
+        <v>297.4491282831375</v>
       </c>
       <c r="AC3" t="n">
-        <v>220.4685875178091</v>
+        <v>269.0610009523562</v>
       </c>
       <c r="AD3" t="n">
-        <v>178133.2851330141</v>
+        <v>217394.7796392933</v>
       </c>
       <c r="AE3" t="n">
-        <v>243729.8194047807</v>
+        <v>297449.1282831375</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.975067857608993e-06</v>
+        <v>3.464720711872298e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.200520833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>220468.5875178091</v>
+        <v>269061.0009523561</v>
       </c>
     </row>
     <row r="4">
@@ -8881,28 +8881,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>156.0937896682881</v>
+        <v>208.3569888106875</v>
       </c>
       <c r="AB4" t="n">
-        <v>213.5744093960404</v>
+        <v>285.083224152254</v>
       </c>
       <c r="AC4" t="n">
-        <v>193.1911675169095</v>
+        <v>257.8752813560648</v>
       </c>
       <c r="AD4" t="n">
-        <v>156093.7896682881</v>
+        <v>208356.9888106875</v>
       </c>
       <c r="AE4" t="n">
-        <v>213574.4093960404</v>
+        <v>285083.2241522541</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.138311947389146e-06</v>
+        <v>3.751088178576324e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.647135416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>193191.1675169095</v>
+        <v>257875.2813560648</v>
       </c>
     </row>
     <row r="5">
@@ -8987,28 +8987,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>150.8567758745267</v>
+        <v>190.0329295262344</v>
       </c>
       <c r="AB5" t="n">
-        <v>206.408896082677</v>
+        <v>260.0114378388363</v>
       </c>
       <c r="AC5" t="n">
-        <v>186.7095207373103</v>
+        <v>235.1963111399186</v>
       </c>
       <c r="AD5" t="n">
-        <v>150856.7758745267</v>
+        <v>190032.9295262344</v>
       </c>
       <c r="AE5" t="n">
-        <v>206408.896082677</v>
+        <v>260011.4378388363</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.254187952790281e-06</v>
+        <v>3.954361192399944e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.30859375</v>
       </c>
       <c r="AH5" t="n">
-        <v>186709.5207373103</v>
+        <v>235196.3111399186</v>
       </c>
     </row>
     <row r="6">
@@ -9093,28 +9093,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>146.8083748089605</v>
+        <v>185.9845284606681</v>
       </c>
       <c r="AB6" t="n">
-        <v>200.8696951419222</v>
+        <v>254.4722368980814</v>
       </c>
       <c r="AC6" t="n">
-        <v>181.6989733600219</v>
+        <v>230.1857637626302</v>
       </c>
       <c r="AD6" t="n">
-        <v>146808.3748089604</v>
+        <v>185984.5284606681</v>
       </c>
       <c r="AE6" t="n">
-        <v>200869.6951419222</v>
+        <v>254472.2368980814</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.349863184539693e-06</v>
+        <v>4.122197429407347e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.048177083333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>181698.9733600219</v>
+        <v>230185.7637626302</v>
       </c>
     </row>
     <row r="7">
@@ -9199,28 +9199,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>130.5238850534746</v>
+        <v>169.7852900512029</v>
       </c>
       <c r="AB7" t="n">
-        <v>178.5885378374932</v>
+        <v>232.3077242463017</v>
       </c>
       <c r="AC7" t="n">
-        <v>161.5442984369199</v>
+        <v>210.1366010902405</v>
       </c>
       <c r="AD7" t="n">
-        <v>130523.8850534746</v>
+        <v>169785.2900512029</v>
       </c>
       <c r="AE7" t="n">
-        <v>178588.5378374932</v>
+        <v>232307.7242463017</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.430644440472373e-06</v>
+        <v>4.263906226643227e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.846354166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>161544.2984369199</v>
+        <v>210136.6010902405</v>
       </c>
     </row>
     <row r="8">
@@ -9305,28 +9305,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>128.2445931955621</v>
+        <v>167.5059981932903</v>
       </c>
       <c r="AB8" t="n">
-        <v>175.4699101622389</v>
+        <v>229.1890965710473</v>
       </c>
       <c r="AC8" t="n">
-        <v>158.7233082099694</v>
+        <v>207.31561086329</v>
       </c>
       <c r="AD8" t="n">
-        <v>128244.593195562</v>
+        <v>167505.9981932903</v>
       </c>
       <c r="AE8" t="n">
-        <v>175469.9101622389</v>
+        <v>229189.0965710473</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.494020273053243e-06</v>
+        <v>4.375081930773672e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.703125</v>
       </c>
       <c r="AH8" t="n">
-        <v>158723.3082099694</v>
+        <v>207315.61086329</v>
       </c>
     </row>
     <row r="9">
@@ -9411,28 +9411,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>125.5774150300769</v>
+        <v>164.8388200278051</v>
       </c>
       <c r="AB9" t="n">
-        <v>171.8205593286278</v>
+        <v>225.5397457374362</v>
       </c>
       <c r="AC9" t="n">
-        <v>155.422246298021</v>
+        <v>204.0145489513415</v>
       </c>
       <c r="AD9" t="n">
-        <v>125577.4150300769</v>
+        <v>164838.8200278051</v>
       </c>
       <c r="AE9" t="n">
-        <v>171820.5593286278</v>
+        <v>225539.7457374363</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.567834991910355e-06</v>
+        <v>4.50456982876158e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.533854166666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>155422.246298021</v>
+        <v>204014.5489513415</v>
       </c>
     </row>
     <row r="10">
@@ -9517,28 +9517,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>123.6380054072201</v>
+        <v>162.7288182043562</v>
       </c>
       <c r="AB10" t="n">
-        <v>169.1669735219225</v>
+        <v>222.6527481558842</v>
       </c>
       <c r="AC10" t="n">
-        <v>153.0219149963757</v>
+        <v>201.4030823670452</v>
       </c>
       <c r="AD10" t="n">
-        <v>123638.0054072201</v>
+        <v>162728.8182043562</v>
       </c>
       <c r="AE10" t="n">
-        <v>169166.9735219225</v>
+        <v>222652.7481558842</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.621252389047781e-06</v>
+        <v>4.598276159672355e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.423177083333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>153021.9149963757</v>
+        <v>201403.0823670452</v>
       </c>
     </row>
     <row r="11">
@@ -9623,28 +9623,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>123.6888556584844</v>
+        <v>162.7796684556205</v>
       </c>
       <c r="AB11" t="n">
-        <v>169.2365490790571</v>
+        <v>222.7223237130187</v>
       </c>
       <c r="AC11" t="n">
-        <v>153.0848503599873</v>
+        <v>201.4660177306568</v>
       </c>
       <c r="AD11" t="n">
-        <v>123688.8556584844</v>
+        <v>162779.6684556205</v>
       </c>
       <c r="AE11" t="n">
-        <v>169236.5490790571</v>
+        <v>222722.3237130187</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.625969542678886e-06</v>
+        <v>4.606551125934305e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.416666666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>153084.8503599873</v>
+        <v>201466.0177306568</v>
       </c>
     </row>
     <row r="12">
@@ -9729,28 +9729,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>122.9152753113974</v>
+        <v>162.0060881085334</v>
       </c>
       <c r="AB12" t="n">
-        <v>168.1781023202168</v>
+        <v>221.6638769541784</v>
       </c>
       <c r="AC12" t="n">
-        <v>152.1274202742711</v>
+        <v>200.5085876449405</v>
       </c>
       <c r="AD12" t="n">
-        <v>122915.2753113974</v>
+        <v>162006.0881085334</v>
       </c>
       <c r="AE12" t="n">
-        <v>168178.1023202168</v>
+        <v>221663.8769541784</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.647917410268057e-06</v>
+        <v>4.645052705069763e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.37109375</v>
       </c>
       <c r="AH12" t="n">
-        <v>152127.420274271</v>
+        <v>200508.5876449405</v>
       </c>
     </row>
     <row r="13">
@@ -9835,28 +9835,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>121.7482776213537</v>
+        <v>160.8390904184898</v>
       </c>
       <c r="AB13" t="n">
-        <v>166.5813645963954</v>
+        <v>220.067139230357</v>
       </c>
       <c r="AC13" t="n">
-        <v>150.6830729577752</v>
+        <v>199.0642403284446</v>
       </c>
       <c r="AD13" t="n">
-        <v>121748.2776213537</v>
+        <v>160839.0904184898</v>
       </c>
       <c r="AE13" t="n">
-        <v>166581.3645963954</v>
+        <v>220067.139230357</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.676220332054689e-06</v>
+        <v>4.694702502641457e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>5.3125</v>
       </c>
       <c r="AH13" t="n">
-        <v>150683.0729577751</v>
+        <v>199064.2403284446</v>
       </c>
     </row>
     <row r="14">
@@ -9941,28 +9941,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>120.1309306139347</v>
+        <v>146.3052901209713</v>
       </c>
       <c r="AB14" t="n">
-        <v>164.3684390685316</v>
+        <v>200.1813524772857</v>
       </c>
       <c r="AC14" t="n">
-        <v>148.6813459364296</v>
+        <v>181.0763251532032</v>
       </c>
       <c r="AD14" t="n">
-        <v>120130.9306139347</v>
+        <v>146305.2901209713</v>
       </c>
       <c r="AE14" t="n">
-        <v>164368.4390685316</v>
+        <v>200181.3524772857</v>
       </c>
       <c r="AF14" t="n">
-        <v>2.729069923662444e-06</v>
+        <v>4.78741277279848e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>5.208333333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>148681.3459364295</v>
+        <v>181076.3251532032</v>
       </c>
     </row>
     <row r="15">
@@ -10047,28 +10047,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>119.8580990050263</v>
+        <v>146.0324585120628</v>
       </c>
       <c r="AB15" t="n">
-        <v>163.9951388247422</v>
+        <v>199.8080522334962</v>
       </c>
       <c r="AC15" t="n">
-        <v>148.343672943977</v>
+        <v>180.7386521607506</v>
       </c>
       <c r="AD15" t="n">
-        <v>119858.0990050263</v>
+        <v>146032.4585120628</v>
       </c>
       <c r="AE15" t="n">
-        <v>163995.1388247422</v>
+        <v>199808.0522334962</v>
       </c>
       <c r="AF15" t="n">
-        <v>2.729266471730407e-06</v>
+        <v>4.787757563059394e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>6</v>
+        <v>5.208333333333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>148343.672943977</v>
+        <v>180738.6521607506</v>
       </c>
     </row>
     <row r="16">
@@ -10153,28 +10153,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>119.0241636262378</v>
+        <v>145.1985231332743</v>
       </c>
       <c r="AB16" t="n">
-        <v>162.854111648852</v>
+        <v>198.6670250576061</v>
       </c>
       <c r="AC16" t="n">
-        <v>147.3115438003117</v>
+        <v>179.7065230170854</v>
       </c>
       <c r="AD16" t="n">
-        <v>119024.1636262378</v>
+        <v>145198.5231332743</v>
       </c>
       <c r="AE16" t="n">
-        <v>162854.111648852</v>
+        <v>198667.025057606</v>
       </c>
       <c r="AF16" t="n">
-        <v>2.754228076361673e-06</v>
+        <v>4.831545926195542e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>6</v>
+        <v>5.162760416666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>147311.5438003117</v>
+        <v>179706.5230170854</v>
       </c>
     </row>
     <row r="17">
@@ -10259,28 +10259,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>117.9088616733902</v>
+        <v>144.0832211804267</v>
       </c>
       <c r="AB17" t="n">
-        <v>161.3281063133171</v>
+        <v>197.1410197220711</v>
       </c>
       <c r="AC17" t="n">
-        <v>145.9311782722379</v>
+        <v>178.3261574890115</v>
       </c>
       <c r="AD17" t="n">
-        <v>117908.8616733902</v>
+        <v>144083.2211804267</v>
       </c>
       <c r="AE17" t="n">
-        <v>161328.1063133171</v>
+        <v>197141.0197220712</v>
       </c>
       <c r="AF17" t="n">
-        <v>2.78475854291855e-06</v>
+        <v>4.885103346724267e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>6</v>
+        <v>5.104166666666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>145931.1782722379</v>
+        <v>178326.1574890115</v>
       </c>
     </row>
     <row r="18">
@@ -10365,28 +10365,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>116.7364146638272</v>
+        <v>142.9107741708638</v>
       </c>
       <c r="AB18" t="n">
-        <v>159.7239125901224</v>
+        <v>195.5368259988765</v>
       </c>
       <c r="AC18" t="n">
-        <v>144.4800865464844</v>
+        <v>176.875065763258</v>
       </c>
       <c r="AD18" t="n">
-        <v>116736.4146638273</v>
+        <v>142910.7741708638</v>
       </c>
       <c r="AE18" t="n">
-        <v>159723.9125901224</v>
+        <v>195536.8259988764</v>
       </c>
       <c r="AF18" t="n">
-        <v>2.818193553146431e-06</v>
+        <v>4.943756001108731e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>6</v>
+        <v>5.045572916666667</v>
       </c>
       <c r="AH18" t="n">
-        <v>144480.0865464844</v>
+        <v>176875.065763258</v>
       </c>
     </row>
     <row r="19">
@@ -10471,28 +10471,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>116.6941660155461</v>
+        <v>142.8685255225826</v>
       </c>
       <c r="AB19" t="n">
-        <v>159.6661061256654</v>
+        <v>195.4790195344194</v>
       </c>
       <c r="AC19" t="n">
-        <v>144.4277970498632</v>
+        <v>176.8227762666368</v>
       </c>
       <c r="AD19" t="n">
-        <v>116694.1660155461</v>
+        <v>142868.5255225826</v>
       </c>
       <c r="AE19" t="n">
-        <v>159666.1061256654</v>
+        <v>195479.0195344194</v>
       </c>
       <c r="AF19" t="n">
-        <v>2.808737407210003e-06</v>
+        <v>4.927167758555843e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>6</v>
+        <v>5.065104166666667</v>
       </c>
       <c r="AH19" t="n">
-        <v>144427.7970498632</v>
+        <v>176822.7762666368</v>
       </c>
     </row>
     <row r="20">
@@ -10577,28 +10577,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>115.62001974458</v>
+        <v>141.7943792516165</v>
       </c>
       <c r="AB20" t="n">
-        <v>158.1964118097413</v>
+        <v>194.0093252184953</v>
       </c>
       <c r="AC20" t="n">
-        <v>143.0983682967215</v>
+        <v>175.4933475134951</v>
       </c>
       <c r="AD20" t="n">
-        <v>115620.01974458</v>
+        <v>141794.3792516165</v>
       </c>
       <c r="AE20" t="n">
-        <v>158196.4118097413</v>
+        <v>194009.3252184953</v>
       </c>
       <c r="AF20" t="n">
-        <v>2.836712748883364e-06</v>
+        <v>4.97624290569268e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>6</v>
+        <v>5.013020833333333</v>
       </c>
       <c r="AH20" t="n">
-        <v>143098.3682967215</v>
+        <v>175493.3475134951</v>
       </c>
     </row>
     <row r="21">
@@ -10683,28 +10683,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>115.4905618822548</v>
+        <v>141.6649213892914</v>
       </c>
       <c r="AB21" t="n">
-        <v>158.0192818512302</v>
+        <v>193.8321952599843</v>
       </c>
       <c r="AC21" t="n">
-        <v>142.9381433728472</v>
+        <v>175.3331225896208</v>
       </c>
       <c r="AD21" t="n">
-        <v>115490.5618822548</v>
+        <v>141664.9213892914</v>
       </c>
       <c r="AE21" t="n">
-        <v>158019.2818512302</v>
+        <v>193832.1952599843</v>
       </c>
       <c r="AF21" t="n">
-        <v>2.837018490322417e-06</v>
+        <v>4.976779246098546e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>6</v>
+        <v>5.013020833333333</v>
       </c>
       <c r="AH21" t="n">
-        <v>142938.1433728472</v>
+        <v>175333.1225896208</v>
       </c>
     </row>
     <row r="22">
@@ -10789,28 +10789,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>101.2016367165729</v>
+        <v>140.3777008597295</v>
       </c>
       <c r="AB22" t="n">
-        <v>138.4685440566659</v>
+        <v>192.0709633432768</v>
       </c>
       <c r="AC22" t="n">
-        <v>125.2533005537571</v>
+        <v>173.7399801751388</v>
       </c>
       <c r="AD22" t="n">
-        <v>101201.6367165729</v>
+        <v>140377.7008597295</v>
       </c>
       <c r="AE22" t="n">
-        <v>138468.5440566659</v>
+        <v>192070.9633432768</v>
       </c>
       <c r="AF22" t="n">
-        <v>2.864513381162981e-06</v>
+        <v>5.025011572597593e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>5</v>
+        <v>4.9609375</v>
       </c>
       <c r="AH22" t="n">
-        <v>125253.3005537571</v>
+        <v>173739.9801751388</v>
       </c>
     </row>
     <row r="23">
@@ -10895,28 +10895,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>101.1969757753696</v>
+        <v>140.3730399185262</v>
       </c>
       <c r="AB23" t="n">
-        <v>138.4621667512854</v>
+        <v>192.0645860378962</v>
       </c>
       <c r="AC23" t="n">
-        <v>125.2475318894515</v>
+        <v>173.7342115108332</v>
       </c>
       <c r="AD23" t="n">
-        <v>101196.9757753696</v>
+        <v>140373.0399185262</v>
       </c>
       <c r="AE23" t="n">
-        <v>138462.1667512854</v>
+        <v>192064.5860378963</v>
       </c>
       <c r="AF23" t="n">
-        <v>2.862307675066955e-06</v>
+        <v>5.021142259669552e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>5</v>
+        <v>4.967447916666667</v>
       </c>
       <c r="AH23" t="n">
-        <v>125247.5318894514</v>
+        <v>173734.2115108332</v>
       </c>
     </row>
     <row r="24">
@@ -11001,28 +11001,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>101.0949481432083</v>
+        <v>140.2710122863649</v>
       </c>
       <c r="AB24" t="n">
-        <v>138.3225680438209</v>
+        <v>191.9249873304318</v>
       </c>
       <c r="AC24" t="n">
-        <v>125.1212562866993</v>
+        <v>173.6079359080811</v>
       </c>
       <c r="AD24" t="n">
-        <v>101094.9481432083</v>
+        <v>140271.0122863649</v>
       </c>
       <c r="AE24" t="n">
-        <v>138322.5680438209</v>
+        <v>191924.9873304318</v>
       </c>
       <c r="AF24" t="n">
-        <v>2.861805385559938e-06</v>
+        <v>5.02026112900277e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>5</v>
+        <v>4.967447916666667</v>
       </c>
       <c r="AH24" t="n">
-        <v>125121.2562866994</v>
+        <v>173607.9359080811</v>
       </c>
     </row>
     <row r="25">
@@ -11107,28 +11107,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>101.1361937654167</v>
+        <v>140.3122579085734</v>
       </c>
       <c r="AB25" t="n">
-        <v>138.3790021237549</v>
+        <v>191.9814214103658</v>
       </c>
       <c r="AC25" t="n">
-        <v>125.1723043772502</v>
+        <v>173.6589839986319</v>
       </c>
       <c r="AD25" t="n">
-        <v>101136.1937654167</v>
+        <v>140312.2579085734</v>
       </c>
       <c r="AE25" t="n">
-        <v>138379.0021237549</v>
+        <v>191981.4214103658</v>
       </c>
       <c r="AF25" t="n">
-        <v>2.861477805446667e-06</v>
+        <v>5.019686478567913e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>5</v>
+        <v>4.967447916666667</v>
       </c>
       <c r="AH25" t="n">
-        <v>125172.3043772502</v>
+        <v>173658.9839986319</v>
       </c>
     </row>
   </sheetData>
@@ -11404,28 +11404,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>71.13888916114664</v>
+        <v>98.61946805084644</v>
       </c>
       <c r="AB2" t="n">
-        <v>97.33536657653397</v>
+        <v>134.9355069709791</v>
       </c>
       <c r="AC2" t="n">
-        <v>88.04581580153868</v>
+        <v>122.0574515688784</v>
       </c>
       <c r="AD2" t="n">
-        <v>71138.88916114664</v>
+        <v>98619.46805084644</v>
       </c>
       <c r="AE2" t="n">
-        <v>97335.36657653397</v>
+        <v>134935.5069709791</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.436183398314658e-06</v>
+        <v>8.593633908836144e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.774739583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>88045.81580153869</v>
+        <v>122057.4515688784</v>
       </c>
     </row>
   </sheetData>
@@ -11701,28 +11701,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>73.87780793751134</v>
+        <v>95.59104274076849</v>
       </c>
       <c r="AB2" t="n">
-        <v>101.0828760789228</v>
+        <v>130.7918818570372</v>
       </c>
       <c r="AC2" t="n">
-        <v>91.43566825668327</v>
+        <v>118.3092882201955</v>
       </c>
       <c r="AD2" t="n">
-        <v>73877.80793751133</v>
+        <v>95591.04274076849</v>
       </c>
       <c r="AE2" t="n">
-        <v>101082.8760789228</v>
+        <v>130791.8818570372</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.734939503962464e-06</v>
+        <v>7.691299137585706e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.557291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>91435.66825668328</v>
+        <v>118309.2882201954</v>
       </c>
     </row>
     <row r="3">
@@ -11807,28 +11807,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>73.66064519685135</v>
+        <v>95.3738800001085</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.785744436608</v>
+        <v>130.4947502147224</v>
       </c>
       <c r="AC3" t="n">
-        <v>91.166894441284</v>
+        <v>118.0405144047962</v>
       </c>
       <c r="AD3" t="n">
-        <v>73660.64519685134</v>
+        <v>95373.8800001085</v>
       </c>
       <c r="AE3" t="n">
-        <v>100785.744436608</v>
+        <v>130494.7502147224</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.744162673540903e-06</v>
+        <v>7.710292258130014e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.544270833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>91166.89444128401</v>
+        <v>118040.5144047962</v>
       </c>
     </row>
   </sheetData>
@@ -12104,28 +12104,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>137.644678614689</v>
+        <v>174.4454004395112</v>
       </c>
       <c r="AB2" t="n">
-        <v>188.3315217351824</v>
+        <v>238.6838928691425</v>
       </c>
       <c r="AC2" t="n">
-        <v>170.3574256257805</v>
+        <v>215.9042371287283</v>
       </c>
       <c r="AD2" t="n">
-        <v>137644.678614689</v>
+        <v>174445.4004395112</v>
       </c>
       <c r="AE2" t="n">
-        <v>188331.5217351824</v>
+        <v>238683.8928691425</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.38652882758545e-06</v>
+        <v>4.387208972238466e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.321614583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>170357.4256257805</v>
+        <v>215904.2371287282</v>
       </c>
     </row>
     <row r="3">
@@ -12210,28 +12210,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>118.0492488565562</v>
+        <v>154.935222027399</v>
       </c>
       <c r="AB3" t="n">
-        <v>161.5201902507702</v>
+        <v>211.9892060373796</v>
       </c>
       <c r="AC3" t="n">
-        <v>146.104929988292</v>
+        <v>191.757253741952</v>
       </c>
       <c r="AD3" t="n">
-        <v>118049.2488565562</v>
+        <v>154935.222027399</v>
       </c>
       <c r="AE3" t="n">
-        <v>161520.1902507702</v>
+        <v>211989.2060373796</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.602687915811589e-06</v>
+        <v>4.784579027162997e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.794270833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>146104.929988292</v>
+        <v>191757.253741952</v>
       </c>
     </row>
     <row r="4">
@@ -12316,28 +12316,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>113.7919916197283</v>
+        <v>150.5073725899788</v>
       </c>
       <c r="AB4" t="n">
-        <v>155.6952230824113</v>
+        <v>205.9308270941738</v>
       </c>
       <c r="AC4" t="n">
-        <v>140.8358895110867</v>
+        <v>186.2770779820956</v>
       </c>
       <c r="AD4" t="n">
-        <v>113791.9916197282</v>
+        <v>150507.3725899788</v>
       </c>
       <c r="AE4" t="n">
-        <v>155695.2230824113</v>
+        <v>205930.8270941738</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.754615418991535e-06</v>
+        <v>5.063870732076199e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.475260416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>140835.8895110867</v>
+        <v>186277.0779820956</v>
       </c>
     </row>
     <row r="5">
@@ -12422,28 +12422,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>111.1254218259635</v>
+        <v>135.7161601150764</v>
       </c>
       <c r="AB5" t="n">
-        <v>152.0467046498275</v>
+        <v>185.6928376437822</v>
       </c>
       <c r="AC5" t="n">
-        <v>137.5355805569798</v>
+        <v>167.9705738406463</v>
       </c>
       <c r="AD5" t="n">
-        <v>111125.4218259635</v>
+        <v>135716.1601150764</v>
       </c>
       <c r="AE5" t="n">
-        <v>152046.7046498276</v>
+        <v>185692.8376437822</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.857691709455135e-06</v>
+        <v>5.253358167182731e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.279947916666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>137535.5805569798</v>
+        <v>167970.5738406463</v>
       </c>
     </row>
     <row r="6">
@@ -12528,28 +12528,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>108.6706785248036</v>
+        <v>133.2614168139165</v>
       </c>
       <c r="AB6" t="n">
-        <v>148.688016569551</v>
+        <v>182.3341495635056</v>
       </c>
       <c r="AC6" t="n">
-        <v>134.4974409531354</v>
+        <v>164.932434236802</v>
       </c>
       <c r="AD6" t="n">
-        <v>108670.6785248036</v>
+        <v>133261.4168139165</v>
       </c>
       <c r="AE6" t="n">
-        <v>148688.016569551</v>
+        <v>182334.1495635056</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.952290264568247e-06</v>
+        <v>5.427260793019827e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.110677083333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>134497.4409531354</v>
+        <v>164932.434236802</v>
       </c>
     </row>
     <row r="7">
@@ -12634,28 +12634,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>94.1900423927322</v>
+        <v>130.9906747090033</v>
       </c>
       <c r="AB7" t="n">
-        <v>128.8749713730817</v>
+        <v>179.2272200374935</v>
       </c>
       <c r="AC7" t="n">
-        <v>116.5753249824273</v>
+        <v>162.1220257041485</v>
       </c>
       <c r="AD7" t="n">
-        <v>94190.0423927322</v>
+        <v>130990.6747090033</v>
       </c>
       <c r="AE7" t="n">
-        <v>128874.9713730817</v>
+        <v>179227.2200374935</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.032157017269033e-06</v>
+        <v>5.574081619142823e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.973958333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>116575.3249824273</v>
+        <v>162122.0257041485</v>
       </c>
     </row>
     <row r="8">
@@ -12740,28 +12740,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>93.56129531678994</v>
+        <v>130.3619276330611</v>
       </c>
       <c r="AB8" t="n">
-        <v>128.0146918854147</v>
+        <v>178.3669405498264</v>
       </c>
       <c r="AC8" t="n">
-        <v>115.7971493616531</v>
+        <v>161.3438500833742</v>
       </c>
       <c r="AD8" t="n">
-        <v>93561.29531678994</v>
+        <v>130361.9276330611</v>
       </c>
       <c r="AE8" t="n">
-        <v>128014.6918854146</v>
+        <v>178366.9405498264</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.060995215387501e-06</v>
+        <v>5.627095519526561e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.928385416666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>115797.149361653</v>
+        <v>161343.8500833742</v>
       </c>
     </row>
     <row r="9">
@@ -12846,28 +12846,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>92.52071726808968</v>
+        <v>129.3213495843608</v>
       </c>
       <c r="AB9" t="n">
-        <v>126.5909270921201</v>
+        <v>176.9431757565319</v>
       </c>
       <c r="AC9" t="n">
-        <v>114.5092666819637</v>
+        <v>160.0559674036848</v>
       </c>
       <c r="AD9" t="n">
-        <v>92520.71726808968</v>
+        <v>129321.3495843608</v>
       </c>
       <c r="AE9" t="n">
-        <v>126590.9270921201</v>
+        <v>176943.1757565319</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.086938012088452e-06</v>
+        <v>5.674786739148878e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.8828125</v>
       </c>
       <c r="AH9" t="n">
-        <v>114509.2666819637</v>
+        <v>160055.9674036848</v>
       </c>
     </row>
     <row r="10">
@@ -12952,28 +12952,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>91.27097702019738</v>
+        <v>128.0716093364685</v>
       </c>
       <c r="AB10" t="n">
-        <v>124.8809773503062</v>
+        <v>175.233226014718</v>
       </c>
       <c r="AC10" t="n">
-        <v>112.9625121435784</v>
+        <v>158.5092128652995</v>
       </c>
       <c r="AD10" t="n">
-        <v>91270.97702019737</v>
+        <v>128071.6093364685</v>
       </c>
       <c r="AE10" t="n">
-        <v>124880.9773503062</v>
+        <v>175233.226014718</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.138290851629531e-06</v>
+        <v>5.769189805133414e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.8046875</v>
       </c>
       <c r="AH10" t="n">
-        <v>112962.5121435784</v>
+        <v>158509.2128652995</v>
       </c>
     </row>
     <row r="11">
@@ -13058,28 +13058,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>90.24252962979546</v>
+        <v>127.0431619460666</v>
       </c>
       <c r="AB11" t="n">
-        <v>123.4738102588623</v>
+        <v>173.8260589232741</v>
       </c>
       <c r="AC11" t="n">
-        <v>111.68964310437</v>
+        <v>157.2363438260912</v>
       </c>
       <c r="AD11" t="n">
-        <v>90242.52962979546</v>
+        <v>127043.1619460666</v>
       </c>
       <c r="AE11" t="n">
-        <v>123473.8102588623</v>
+        <v>173826.0589232741</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.164256811541822e-06</v>
+        <v>5.816923606201824e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.765625</v>
       </c>
       <c r="AH11" t="n">
-        <v>111689.64310437</v>
+        <v>157236.3438260912</v>
       </c>
     </row>
     <row r="12">
@@ -13164,28 +13164,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>89.47800819206191</v>
+        <v>126.278640508333</v>
       </c>
       <c r="AB12" t="n">
-        <v>122.4277582994504</v>
+        <v>172.7800069638622</v>
       </c>
       <c r="AC12" t="n">
-        <v>110.7434248758209</v>
+        <v>156.2901255975421</v>
       </c>
       <c r="AD12" t="n">
-        <v>89478.00819206191</v>
+        <v>126278.640508333</v>
       </c>
       <c r="AE12" t="n">
-        <v>122427.7582994504</v>
+        <v>172780.0069638622</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.186979921866495e-06</v>
+        <v>5.858696004817444e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.733072916666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>110743.4248758209</v>
+        <v>156290.1255975421</v>
       </c>
     </row>
     <row r="13">
@@ -13270,28 +13270,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>89.42758242799552</v>
+        <v>126.2282147442667</v>
       </c>
       <c r="AB13" t="n">
-        <v>122.3587635444271</v>
+        <v>172.7110122088388</v>
       </c>
       <c r="AC13" t="n">
-        <v>110.6810148833822</v>
+        <v>156.2277156051034</v>
       </c>
       <c r="AD13" t="n">
-        <v>89427.58242799551</v>
+        <v>126228.2147442666</v>
       </c>
       <c r="AE13" t="n">
-        <v>122358.7635444271</v>
+        <v>172711.0122088388</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.185891250933508e-06</v>
+        <v>5.856694676851149e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.733072916666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>110681.0148833822</v>
+        <v>156227.7156051034</v>
       </c>
     </row>
   </sheetData>
@@ -13567,28 +13567,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>83.22000563136966</v>
+        <v>116.9185867631182</v>
       </c>
       <c r="AB2" t="n">
-        <v>113.8652831123276</v>
+        <v>159.973168493238</v>
       </c>
       <c r="AC2" t="n">
-        <v>102.998140303045</v>
+        <v>144.7055538160396</v>
       </c>
       <c r="AD2" t="n">
-        <v>83220.00563136966</v>
+        <v>116918.5867631182</v>
       </c>
       <c r="AE2" t="n">
-        <v>113865.2831123276</v>
+        <v>159973.168493238</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.299587769448874e-06</v>
+        <v>6.537090864265047e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.9609375</v>
       </c>
       <c r="AH2" t="n">
-        <v>102998.140303045</v>
+        <v>144705.5538160396</v>
       </c>
     </row>
     <row r="3">
@@ -13673,28 +13673,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>79.89494582340539</v>
+        <v>113.593526955154</v>
       </c>
       <c r="AB3" t="n">
-        <v>109.3157895917874</v>
+        <v>155.4236749726978</v>
       </c>
       <c r="AC3" t="n">
-        <v>98.88284405884941</v>
+        <v>140.590257571844</v>
       </c>
       <c r="AD3" t="n">
-        <v>79894.94582340539</v>
+        <v>113593.526955154</v>
       </c>
       <c r="AE3" t="n">
-        <v>109315.7895917874</v>
+        <v>155423.6749726978</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.49328607637635e-06</v>
+        <v>6.920842872428997e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.6875</v>
       </c>
       <c r="AH3" t="n">
-        <v>98882.84405884941</v>
+        <v>140590.257571844</v>
       </c>
     </row>
     <row r="4">
@@ -13779,28 +13779,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>77.6084338569817</v>
+        <v>100.2163893691001</v>
       </c>
       <c r="AB4" t="n">
-        <v>106.1872830455394</v>
+        <v>137.1204851698091</v>
       </c>
       <c r="AC4" t="n">
-        <v>96.05291778648784</v>
+        <v>124.0338985150489</v>
       </c>
       <c r="AD4" t="n">
-        <v>77608.4338569817</v>
+        <v>100216.3893691001</v>
       </c>
       <c r="AE4" t="n">
-        <v>106187.2830455394</v>
+        <v>137120.4851698091</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.626032305682363e-06</v>
+        <v>7.18383759282915e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.518229166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>96052.91778648784</v>
+        <v>124033.8985150489</v>
       </c>
     </row>
     <row r="5">
@@ -13885,28 +13885,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>77.86342279538336</v>
+        <v>100.4713783075018</v>
       </c>
       <c r="AB5" t="n">
-        <v>106.5361701603784</v>
+        <v>137.4693722846481</v>
       </c>
       <c r="AC5" t="n">
-        <v>96.36850760475286</v>
+        <v>124.3494883333139</v>
       </c>
       <c r="AD5" t="n">
-        <v>77863.42279538336</v>
+        <v>100471.3783075018</v>
       </c>
       <c r="AE5" t="n">
-        <v>106536.1701603784</v>
+        <v>137469.3722846481</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.595946179047913e-06</v>
+        <v>7.124231436755892e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.557291666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>96368.50760475287</v>
+        <v>124349.4883333139</v>
       </c>
     </row>
   </sheetData>
@@ -14182,28 +14182,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>177.1518572909961</v>
+        <v>228.346343333406</v>
       </c>
       <c r="AB2" t="n">
-        <v>242.3869865337918</v>
+        <v>312.4335408783062</v>
       </c>
       <c r="AC2" t="n">
-        <v>219.2539127313492</v>
+        <v>282.6153222402019</v>
       </c>
       <c r="AD2" t="n">
-        <v>177151.8572909961</v>
+        <v>228346.343333406</v>
       </c>
       <c r="AE2" t="n">
-        <v>242386.9865337918</v>
+        <v>312433.5408783062</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.943870362629075e-06</v>
+        <v>3.457127852299188e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.447916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>219253.9127313492</v>
+        <v>282615.3222402019</v>
       </c>
     </row>
     <row r="3">
@@ -14288,28 +14288,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>152.4521678071196</v>
+        <v>203.7319051955501</v>
       </c>
       <c r="AB3" t="n">
-        <v>208.5917817085742</v>
+        <v>278.7549807057378</v>
       </c>
       <c r="AC3" t="n">
-        <v>188.6840748227717</v>
+        <v>252.1509965823366</v>
       </c>
       <c r="AD3" t="n">
-        <v>152452.1678071196</v>
+        <v>203731.9051955501</v>
       </c>
       <c r="AE3" t="n">
-        <v>208591.7817085742</v>
+        <v>278754.9807057378</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.159579275567738e-06</v>
+        <v>3.840761095156408e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.705729166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>188684.0748227717</v>
+        <v>252150.9965823366</v>
       </c>
     </row>
     <row r="4">
@@ -14394,28 +14394,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>145.3284076602036</v>
+        <v>183.7669649964346</v>
       </c>
       <c r="AB4" t="n">
-        <v>198.8447387974515</v>
+        <v>251.4380687343231</v>
       </c>
       <c r="AC4" t="n">
-        <v>179.8672760070228</v>
+        <v>227.4411723499383</v>
       </c>
       <c r="AD4" t="n">
-        <v>145328.4076602036</v>
+        <v>183766.9649964345</v>
       </c>
       <c r="AE4" t="n">
-        <v>198844.7387974515</v>
+        <v>251438.0687343231</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.322239181469537e-06</v>
+        <v>4.130047923103576e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.23046875</v>
       </c>
       <c r="AH4" t="n">
-        <v>179867.2760070228</v>
+        <v>227441.1723499383</v>
       </c>
     </row>
     <row r="5">
@@ -14500,28 +14500,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>128.2421635956046</v>
+        <v>179.4365601294634</v>
       </c>
       <c r="AB5" t="n">
-        <v>175.4665858763907</v>
+        <v>245.5130177513566</v>
       </c>
       <c r="AC5" t="n">
-        <v>158.7203011892969</v>
+        <v>222.081599916923</v>
       </c>
       <c r="AD5" t="n">
-        <v>128242.1635956046</v>
+        <v>179436.5601294634</v>
       </c>
       <c r="AE5" t="n">
-        <v>175466.5858763907</v>
+        <v>245513.0177513566</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.430916275516557e-06</v>
+        <v>4.323327586171611e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.95703125</v>
       </c>
       <c r="AH5" t="n">
-        <v>158720.3011892969</v>
+        <v>222081.599916923</v>
       </c>
     </row>
     <row r="6">
@@ -14606,28 +14606,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>124.7765004908756</v>
+        <v>163.3003091731272</v>
       </c>
       <c r="AB6" t="n">
-        <v>170.7247127222375</v>
+        <v>223.4346873117584</v>
       </c>
       <c r="AC6" t="n">
-        <v>154.4309857537138</v>
+        <v>202.1103943473416</v>
       </c>
       <c r="AD6" t="n">
-        <v>124776.5004908757</v>
+        <v>163300.3091731272</v>
       </c>
       <c r="AE6" t="n">
-        <v>170724.7127222375</v>
+        <v>223434.6873117584</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.531233593098421e-06</v>
+        <v>4.501739582849799e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.716145833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>154430.9857537138</v>
+        <v>202110.3943473416</v>
       </c>
     </row>
     <row r="7">
@@ -14712,28 +14712,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>121.9726175085321</v>
+        <v>160.4964261907837</v>
       </c>
       <c r="AB7" t="n">
-        <v>166.88831632721</v>
+        <v>219.5982909167309</v>
       </c>
       <c r="AC7" t="n">
-        <v>150.9607296462104</v>
+        <v>198.6401382398382</v>
       </c>
       <c r="AD7" t="n">
-        <v>121972.6175085321</v>
+        <v>160496.4261907837</v>
       </c>
       <c r="AE7" t="n">
-        <v>166888.3163272101</v>
+        <v>219598.2909167309</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.618099674612681e-06</v>
+        <v>4.656228871640064e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.52734375</v>
       </c>
       <c r="AH7" t="n">
-        <v>150960.7296462104</v>
+        <v>198640.1382398382</v>
       </c>
     </row>
     <row r="8">
@@ -14818,28 +14818,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>120.2384622642993</v>
+        <v>158.5916787459587</v>
       </c>
       <c r="AB8" t="n">
-        <v>164.515568616522</v>
+        <v>216.9921314311961</v>
       </c>
       <c r="AC8" t="n">
-        <v>148.8144336468574</v>
+        <v>196.2827069578341</v>
       </c>
       <c r="AD8" t="n">
-        <v>120238.4622642993</v>
+        <v>158591.6787459587</v>
       </c>
       <c r="AE8" t="n">
-        <v>164515.568616522</v>
+        <v>216992.1314311961</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.666857626176739e-06</v>
+        <v>4.74294374502554e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.4296875</v>
       </c>
       <c r="AH8" t="n">
-        <v>148814.4336468574</v>
+        <v>196282.7069578341</v>
       </c>
     </row>
     <row r="9">
@@ -14924,28 +14924,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>117.9145763296687</v>
+        <v>143.5972049597208</v>
       </c>
       <c r="AB9" t="n">
-        <v>161.3359253581503</v>
+        <v>196.4760308873793</v>
       </c>
       <c r="AC9" t="n">
-        <v>145.9382510784063</v>
+        <v>177.7246342553847</v>
       </c>
       <c r="AD9" t="n">
-        <v>117914.5763296687</v>
+        <v>143597.2049597208</v>
       </c>
       <c r="AE9" t="n">
-        <v>161335.9253581503</v>
+        <v>196476.0308873793</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.743185053317373e-06</v>
+        <v>4.878690284164773e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.2734375</v>
       </c>
       <c r="AH9" t="n">
-        <v>145938.2510784063</v>
+        <v>177724.6342553847</v>
       </c>
     </row>
     <row r="10">
@@ -15030,28 +15030,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>118.0994933352277</v>
+        <v>143.7821219652797</v>
       </c>
       <c r="AB10" t="n">
-        <v>161.5889369631184</v>
+        <v>196.7290424923474</v>
       </c>
       <c r="AC10" t="n">
-        <v>146.1671156109004</v>
+        <v>177.9534987878788</v>
       </c>
       <c r="AD10" t="n">
-        <v>118099.4933352277</v>
+        <v>143782.1219652797</v>
       </c>
       <c r="AE10" t="n">
-        <v>161588.9369631184</v>
+        <v>196729.0424923474</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.74345185469392e-06</v>
+        <v>4.879164784155938e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.2734375</v>
       </c>
       <c r="AH10" t="n">
-        <v>146167.1156109004</v>
+        <v>177953.4987878788</v>
       </c>
     </row>
     <row r="11">
@@ -15136,28 +15136,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>116.3305047307491</v>
+        <v>142.0131333608012</v>
       </c>
       <c r="AB11" t="n">
-        <v>159.1685287122028</v>
+        <v>194.3086342414318</v>
       </c>
       <c r="AC11" t="n">
-        <v>143.977707726387</v>
+        <v>175.7640909033655</v>
       </c>
       <c r="AD11" t="n">
-        <v>116330.5047307491</v>
+        <v>142013.1333608012</v>
       </c>
       <c r="AE11" t="n">
-        <v>159168.5287122028</v>
+        <v>194308.6342414318</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.800191614106358e-06</v>
+        <v>4.980075115610444e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.169270833333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>143977.707726387</v>
+        <v>175764.0909033655</v>
       </c>
     </row>
     <row r="12">
@@ -15242,28 +15242,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>115.4280481413258</v>
+        <v>141.1106767713779</v>
       </c>
       <c r="AB12" t="n">
-        <v>157.9337477929796</v>
+        <v>193.0738533222086</v>
       </c>
       <c r="AC12" t="n">
-        <v>142.8607725650682</v>
+        <v>174.6471557420467</v>
       </c>
       <c r="AD12" t="n">
-        <v>115428.0481413258</v>
+        <v>141110.6767713779</v>
       </c>
       <c r="AE12" t="n">
-        <v>157933.7477929796</v>
+        <v>193073.8533222086</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.826493783144333e-06</v>
+        <v>5.026852906406166e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.123697916666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>142860.7725650682</v>
+        <v>174647.1557420467</v>
       </c>
     </row>
     <row r="13">
@@ -15348,28 +15348,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>114.558122701506</v>
+        <v>140.2407513315581</v>
       </c>
       <c r="AB13" t="n">
-        <v>156.743477427817</v>
+        <v>191.883582957046</v>
       </c>
       <c r="AC13" t="n">
-        <v>141.7840999330014</v>
+        <v>173.5704831099798</v>
       </c>
       <c r="AD13" t="n">
-        <v>114558.122701506</v>
+        <v>140240.7513315581</v>
       </c>
       <c r="AE13" t="n">
-        <v>156743.477427817</v>
+        <v>191883.582957046</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.850839408754294e-06</v>
+        <v>5.070151030600008e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>5.078125</v>
       </c>
       <c r="AH13" t="n">
-        <v>141784.0999330014</v>
+        <v>173570.4831099798</v>
       </c>
     </row>
     <row r="14">
@@ -15454,28 +15454,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>113.5376246814679</v>
+        <v>139.22025331152</v>
       </c>
       <c r="AB14" t="n">
-        <v>155.3471870156063</v>
+        <v>190.4872925448353</v>
       </c>
       <c r="AC14" t="n">
-        <v>140.5210695180258</v>
+        <v>172.3074526950042</v>
       </c>
       <c r="AD14" t="n">
-        <v>113537.6246814679</v>
+        <v>139220.25331152</v>
       </c>
       <c r="AE14" t="n">
-        <v>155347.1870156063</v>
+        <v>190487.2925448353</v>
       </c>
       <c r="AF14" t="n">
-        <v>2.879364922596832e-06</v>
+        <v>5.120882987988775e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>5.026041666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>140521.0695180258</v>
+        <v>172307.4526950042</v>
       </c>
     </row>
     <row r="15">
@@ -15560,28 +15560,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>99.56476686492161</v>
+        <v>138.0032346926016</v>
       </c>
       <c r="AB15" t="n">
-        <v>136.2289065120365</v>
+        <v>188.8221139793598</v>
       </c>
       <c r="AC15" t="n">
-        <v>123.2274108730353</v>
+        <v>170.8011964347243</v>
       </c>
       <c r="AD15" t="n">
-        <v>99564.76686492161</v>
+        <v>138003.2346926015</v>
       </c>
       <c r="AE15" t="n">
-        <v>136228.9065120365</v>
+        <v>188822.1139793598</v>
       </c>
       <c r="AF15" t="n">
-        <v>2.909713579179111e-06</v>
+        <v>5.174857361983838e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>5</v>
+        <v>4.973958333333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>123227.4108730353</v>
+        <v>170801.1964347243</v>
       </c>
     </row>
     <row r="16">
@@ -15666,28 +15666,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>98.3245978595333</v>
+        <v>136.7630656872132</v>
       </c>
       <c r="AB16" t="n">
-        <v>134.5320525664699</v>
+        <v>187.1252600337932</v>
       </c>
       <c r="AC16" t="n">
-        <v>121.6925022864836</v>
+        <v>169.2662878481727</v>
       </c>
       <c r="AD16" t="n">
-        <v>98324.5978595333</v>
+        <v>136763.0656872132</v>
       </c>
       <c r="AE16" t="n">
-        <v>134532.0525664699</v>
+        <v>187125.2600337932</v>
       </c>
       <c r="AF16" t="n">
-        <v>2.944931360883382e-06</v>
+        <v>5.23749136081767e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>5</v>
+        <v>4.915364583333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>121692.5022864837</v>
+        <v>169266.2878481727</v>
       </c>
     </row>
     <row r="17">
@@ -15772,28 +15772,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>98.52269224044097</v>
+        <v>136.9611600681209</v>
       </c>
       <c r="AB17" t="n">
-        <v>134.803094037735</v>
+        <v>187.3963015050583</v>
       </c>
       <c r="AC17" t="n">
-        <v>121.9376759401403</v>
+        <v>169.5114615018293</v>
       </c>
       <c r="AD17" t="n">
-        <v>98522.69224044097</v>
+        <v>136961.1600681209</v>
       </c>
       <c r="AE17" t="n">
-        <v>134803.094037735</v>
+        <v>187396.3015050583</v>
       </c>
       <c r="AF17" t="n">
-        <v>2.920652435617559e-06</v>
+        <v>5.19431186162162e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>5</v>
+        <v>4.954427083333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>121937.6759401403</v>
+        <v>169511.4615018293</v>
       </c>
     </row>
     <row r="18">
@@ -15878,28 +15878,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>97.50529957942973</v>
+        <v>135.9437674071097</v>
       </c>
       <c r="AB18" t="n">
-        <v>133.4110525147437</v>
+        <v>186.004259982067</v>
       </c>
       <c r="AC18" t="n">
-        <v>120.6784889063603</v>
+        <v>168.2522744680493</v>
       </c>
       <c r="AD18" t="n">
-        <v>97505.29957942973</v>
+        <v>135943.7674071097</v>
       </c>
       <c r="AE18" t="n">
-        <v>133411.0525147437</v>
+        <v>186004.259982067</v>
       </c>
       <c r="AF18" t="n">
-        <v>2.955381081464827e-06</v>
+        <v>5.256075943804982e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>5</v>
+        <v>4.895833333333333</v>
       </c>
       <c r="AH18" t="n">
-        <v>120678.4889063603</v>
+        <v>168252.2744680493</v>
       </c>
     </row>
     <row r="19">
@@ -15984,28 +15984,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>97.14106115834055</v>
+        <v>135.5795289860205</v>
       </c>
       <c r="AB19" t="n">
-        <v>132.9126854379446</v>
+        <v>185.505892905268</v>
       </c>
       <c r="AC19" t="n">
-        <v>120.2276852839083</v>
+        <v>167.8014708455973</v>
       </c>
       <c r="AD19" t="n">
-        <v>97141.06115834056</v>
+        <v>135579.5289860205</v>
       </c>
       <c r="AE19" t="n">
-        <v>132912.6854379447</v>
+        <v>185505.892905268</v>
       </c>
       <c r="AF19" t="n">
-        <v>2.959516502801313e-06</v>
+        <v>5.263430693668045e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>5</v>
+        <v>4.889322916666667</v>
       </c>
       <c r="AH19" t="n">
-        <v>120227.6852839083</v>
+        <v>167801.4708455973</v>
       </c>
     </row>
     <row r="20">
@@ -16090,28 +16090,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>97.03039478818113</v>
+        <v>135.4688626158611</v>
       </c>
       <c r="AB20" t="n">
-        <v>132.7612668280369</v>
+        <v>185.3544742953602</v>
       </c>
       <c r="AC20" t="n">
-        <v>120.0907178536127</v>
+        <v>167.6645034153017</v>
       </c>
       <c r="AD20" t="n">
-        <v>97030.39478818113</v>
+        <v>135468.8626158611</v>
       </c>
       <c r="AE20" t="n">
-        <v>132761.2668280369</v>
+        <v>185354.4742953602</v>
       </c>
       <c r="AF20" t="n">
-        <v>2.955381081464827e-06</v>
+        <v>5.256075943804982e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>5</v>
+        <v>4.895833333333333</v>
       </c>
       <c r="AH20" t="n">
-        <v>120090.7178536127</v>
+        <v>167664.5034153017</v>
       </c>
     </row>
   </sheetData>
@@ -16387,28 +16387,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>107.2338447289717</v>
+        <v>142.5249811271229</v>
       </c>
       <c r="AB2" t="n">
-        <v>146.7220771814614</v>
+        <v>195.0089669364426</v>
       </c>
       <c r="AC2" t="n">
-        <v>132.7191280610312</v>
+        <v>176.3975848288878</v>
       </c>
       <c r="AD2" t="n">
-        <v>107233.8447289717</v>
+        <v>142524.9811271229</v>
       </c>
       <c r="AE2" t="n">
-        <v>146722.0771814614</v>
+        <v>195008.9669364427</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.857661560063842e-06</v>
+        <v>5.44714396324471e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.501302083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>132719.1280610312</v>
+        <v>176397.5848288878</v>
       </c>
     </row>
     <row r="3">
@@ -16493,28 +16493,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>102.9946326488054</v>
+        <v>126.5221464227906</v>
       </c>
       <c r="AB3" t="n">
-        <v>140.9218001925431</v>
+        <v>173.1131824987456</v>
       </c>
       <c r="AC3" t="n">
-        <v>127.4724213671935</v>
+        <v>156.5915033269912</v>
       </c>
       <c r="AD3" t="n">
-        <v>102994.6326488054</v>
+        <v>126522.1464227906</v>
       </c>
       <c r="AE3" t="n">
-        <v>140921.8001925431</v>
+        <v>173113.1824987456</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.047525205502949e-06</v>
+        <v>5.809053373563461e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.15625</v>
       </c>
       <c r="AH3" t="n">
-        <v>127472.4213671935</v>
+        <v>156591.5033269912</v>
       </c>
     </row>
     <row r="4">
@@ -16599,28 +16599,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>88.45988086068535</v>
+        <v>123.6656764042649</v>
       </c>
       <c r="AB4" t="n">
-        <v>121.0347115680539</v>
+        <v>169.2048342008374</v>
       </c>
       <c r="AC4" t="n">
-        <v>109.483328569315</v>
+        <v>153.0561623052328</v>
       </c>
       <c r="AD4" t="n">
-        <v>88459.88086068534</v>
+        <v>123665.6764042649</v>
       </c>
       <c r="AE4" t="n">
-        <v>121034.7115680539</v>
+        <v>169204.8342008374</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.175767075136307e-06</v>
+        <v>6.053502168959986e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.947916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>109483.3285693151</v>
+        <v>153056.1623052328</v>
       </c>
     </row>
     <row r="5">
@@ -16705,28 +16705,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>85.4911055633672</v>
+        <v>120.6969011069468</v>
       </c>
       <c r="AB5" t="n">
-        <v>116.9727022331427</v>
+        <v>165.1428248659263</v>
       </c>
       <c r="AC5" t="n">
-        <v>105.8089917042606</v>
+        <v>149.3818254401784</v>
       </c>
       <c r="AD5" t="n">
-        <v>85491.10556336719</v>
+        <v>120696.9011069468</v>
       </c>
       <c r="AE5" t="n">
-        <v>116972.7022331427</v>
+        <v>165142.8248659263</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.31719291404472e-06</v>
+        <v>6.323081644508368e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.739583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>105808.9917042606</v>
+        <v>149381.8254401784</v>
       </c>
     </row>
     <row r="6">
@@ -16811,28 +16811,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>85.12845186057183</v>
+        <v>120.3342474041514</v>
       </c>
       <c r="AB6" t="n">
-        <v>116.4765034378261</v>
+        <v>164.6466260706097</v>
       </c>
       <c r="AC6" t="n">
-        <v>105.3601494255495</v>
+        <v>148.9329831614673</v>
       </c>
       <c r="AD6" t="n">
-        <v>85128.45186057183</v>
+        <v>120334.2474041514</v>
       </c>
       <c r="AE6" t="n">
-        <v>116476.5034378261</v>
+        <v>164646.6260706097</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.32431612088747e-06</v>
+        <v>6.336659576092246e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.7265625</v>
       </c>
       <c r="AH6" t="n">
-        <v>105360.1494255495</v>
+        <v>148932.9831614673</v>
       </c>
     </row>
     <row r="7">
@@ -16917,28 +16917,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>83.28104393919189</v>
+        <v>106.8938090591977</v>
       </c>
       <c r="AB7" t="n">
-        <v>113.94879841791</v>
+        <v>146.2568253767618</v>
       </c>
       <c r="AC7" t="n">
-        <v>103.0736850250771</v>
+        <v>132.298279235587</v>
       </c>
       <c r="AD7" t="n">
-        <v>83281.04393919189</v>
+        <v>106893.8090591977</v>
       </c>
       <c r="AE7" t="n">
-        <v>113948.79841791</v>
+        <v>146256.8253767618</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.406776295016244e-06</v>
+        <v>6.493841394258154e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.615885416666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>103073.6850250771</v>
+        <v>132298.279235587</v>
       </c>
     </row>
     <row r="8">
@@ -17023,28 +17023,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>83.09406730023943</v>
+        <v>118.299862843819</v>
       </c>
       <c r="AB8" t="n">
-        <v>113.6929687316682</v>
+        <v>161.8630913644518</v>
       </c>
       <c r="AC8" t="n">
-        <v>102.8422713650309</v>
+        <v>146.4151051009487</v>
       </c>
       <c r="AD8" t="n">
-        <v>83094.06730023943</v>
+        <v>118299.862843819</v>
       </c>
       <c r="AE8" t="n">
-        <v>113692.9687316682</v>
+        <v>161863.0913644518</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.401971148705372e-06</v>
+        <v>6.484682043799877e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.622395833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>102842.2713650309</v>
+        <v>146415.1051009487</v>
       </c>
     </row>
   </sheetData>
@@ -17320,28 +17320,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>145.7090302488849</v>
+        <v>195.5700412436149</v>
       </c>
       <c r="AB2" t="n">
-        <v>199.3655234151686</v>
+        <v>267.5875583706811</v>
       </c>
       <c r="AC2" t="n">
-        <v>180.338357671751</v>
+        <v>242.0493773613584</v>
       </c>
       <c r="AD2" t="n">
-        <v>145709.030248885</v>
+        <v>195570.0412436149</v>
       </c>
       <c r="AE2" t="n">
-        <v>199365.5234151686</v>
+        <v>267587.5583706811</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.230278670960478e-06</v>
+        <v>4.050936668320756e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>180338.357671751</v>
+        <v>242049.3773613584</v>
       </c>
     </row>
     <row r="3">
@@ -17426,28 +17426,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>137.1663043132333</v>
+        <v>174.540816854189</v>
       </c>
       <c r="AB3" t="n">
-        <v>187.6769889115464</v>
+        <v>238.8144458171797</v>
       </c>
       <c r="AC3" t="n">
-        <v>169.7653604961895</v>
+        <v>216.022330286637</v>
       </c>
       <c r="AD3" t="n">
-        <v>137166.3043132333</v>
+        <v>174540.816854189</v>
       </c>
       <c r="AE3" t="n">
-        <v>187676.9889115464</v>
+        <v>238814.4458171797</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.449297807559671e-06</v>
+        <v>4.448749131429474e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.067708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>169765.3604961895</v>
+        <v>216022.330286637</v>
       </c>
     </row>
     <row r="4">
@@ -17532,28 +17532,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>119.7985715978021</v>
+        <v>157.2583354847783</v>
       </c>
       <c r="AB4" t="n">
-        <v>163.9136908000143</v>
+        <v>215.1677923582968</v>
       </c>
       <c r="AC4" t="n">
-        <v>148.2699982044161</v>
+        <v>194.6324802455759</v>
       </c>
       <c r="AD4" t="n">
-        <v>119798.5715978021</v>
+        <v>157258.3354847783</v>
       </c>
       <c r="AE4" t="n">
-        <v>163913.6908000143</v>
+        <v>215167.7923582968</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.594990962633264e-06</v>
+        <v>4.713376934177009e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.729166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>148269.9982044161</v>
+        <v>194632.4802455759</v>
       </c>
     </row>
     <row r="5">
@@ -17638,28 +17638,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>116.3322461201301</v>
+        <v>153.6214178065141</v>
       </c>
       <c r="AB5" t="n">
-        <v>159.1709113579786</v>
+        <v>210.1916011414143</v>
       </c>
       <c r="AC5" t="n">
-        <v>143.979862975794</v>
+        <v>190.1312097343027</v>
       </c>
       <c r="AD5" t="n">
-        <v>116332.2461201301</v>
+        <v>153621.4178065141</v>
       </c>
       <c r="AE5" t="n">
-        <v>159170.9113579786</v>
+        <v>210191.6011414143</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.713677693004247e-06</v>
+        <v>4.928951980633358e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.475260416666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>143979.862975794</v>
+        <v>190131.2097343027</v>
       </c>
     </row>
     <row r="6">
@@ -17744,28 +17744,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>113.8970914137158</v>
+        <v>151.1862631000998</v>
       </c>
       <c r="AB6" t="n">
-        <v>155.8390252572207</v>
+        <v>206.8597150406564</v>
       </c>
       <c r="AC6" t="n">
-        <v>140.9659674081599</v>
+        <v>187.1173141666686</v>
       </c>
       <c r="AD6" t="n">
-        <v>113897.0914137158</v>
+        <v>151186.2631000998</v>
       </c>
       <c r="AE6" t="n">
-        <v>155839.0252572207</v>
+        <v>206859.7150406564</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.801545595523561e-06</v>
+        <v>5.088549663612873e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.305989583333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>140965.9674081599</v>
+        <v>187117.3141666686</v>
       </c>
     </row>
     <row r="7">
@@ -17850,28 +17850,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>111.5490313468576</v>
+        <v>136.5222967800594</v>
       </c>
       <c r="AB7" t="n">
-        <v>152.6263058846476</v>
+        <v>186.7958293930511</v>
       </c>
       <c r="AC7" t="n">
-        <v>138.0598654634243</v>
+        <v>168.968297605424</v>
       </c>
       <c r="AD7" t="n">
-        <v>111549.0313468576</v>
+        <v>136522.2967800594</v>
       </c>
       <c r="AE7" t="n">
-        <v>152626.3058846476</v>
+        <v>186795.8293930511</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.883021444858825e-06</v>
+        <v>5.236537226760154e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.15625</v>
       </c>
       <c r="AH7" t="n">
-        <v>138059.8654634243</v>
+        <v>168968.297605424</v>
       </c>
     </row>
     <row r="8">
@@ -17956,28 +17956,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>111.4270102876582</v>
+        <v>136.4002757208601</v>
       </c>
       <c r="AB8" t="n">
-        <v>152.459351288262</v>
+        <v>186.6288747966654</v>
       </c>
       <c r="AC8" t="n">
-        <v>137.9088447793954</v>
+        <v>168.8172769213951</v>
       </c>
       <c r="AD8" t="n">
-        <v>111427.0102876582</v>
+        <v>136400.2757208601</v>
       </c>
       <c r="AE8" t="n">
-        <v>152459.351288262</v>
+        <v>186628.8747966654</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.896125153886127e-06</v>
+        <v>5.260337972416231e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.130208333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>137908.8447793954</v>
+        <v>168817.2769213951</v>
       </c>
     </row>
     <row r="9">
@@ -18062,28 +18062,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>109.5812883569197</v>
+        <v>134.5545537901215</v>
       </c>
       <c r="AB9" t="n">
-        <v>149.9339531151221</v>
+        <v>184.1034766235255</v>
       </c>
       <c r="AC9" t="n">
-        <v>135.6244670634805</v>
+        <v>166.5328992054802</v>
       </c>
       <c r="AD9" t="n">
-        <v>109581.2883569197</v>
+        <v>134554.5537901215</v>
       </c>
       <c r="AE9" t="n">
-        <v>149933.953115122</v>
+        <v>184103.4766235255</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.957739980828094e-06</v>
+        <v>5.372251234656218e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.026041666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>135624.4670634805</v>
+        <v>166532.8992054802</v>
       </c>
     </row>
     <row r="10">
@@ -18168,28 +18168,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>95.50476743448566</v>
+        <v>132.8791904668902</v>
       </c>
       <c r="AB10" t="n">
-        <v>130.6738361767832</v>
+        <v>181.8111706128682</v>
       </c>
       <c r="AC10" t="n">
-        <v>118.2025086539867</v>
+        <v>164.4593676632076</v>
       </c>
       <c r="AD10" t="n">
-        <v>95504.76743448566</v>
+        <v>132879.1904668902</v>
       </c>
       <c r="AE10" t="n">
-        <v>130673.8361767832</v>
+        <v>181811.1706128682</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.012369206790347e-06</v>
+        <v>5.47147629450812e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.934895833333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>118202.5086539867</v>
+        <v>164459.3676632076</v>
       </c>
     </row>
     <row r="11">
@@ -18274,28 +18274,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>94.70913243674472</v>
+        <v>132.0835554691493</v>
       </c>
       <c r="AB11" t="n">
-        <v>129.5852132719358</v>
+        <v>180.7225477080208</v>
       </c>
       <c r="AC11" t="n">
-        <v>117.2177823912857</v>
+        <v>163.4746414005067</v>
       </c>
       <c r="AD11" t="n">
-        <v>94709.13243674472</v>
+        <v>132083.5554691493</v>
       </c>
       <c r="AE11" t="n">
-        <v>129585.2132719358</v>
+        <v>180722.5477080208</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.035631714628015e-06</v>
+        <v>5.513728837754711e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.895833333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>117217.7823912857</v>
+        <v>163474.6414005067</v>
       </c>
     </row>
     <row r="12">
@@ -18380,28 +18380,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>93.69694418166148</v>
+        <v>131.0713672140661</v>
       </c>
       <c r="AB12" t="n">
-        <v>128.2002926467373</v>
+        <v>179.3376270828223</v>
       </c>
       <c r="AC12" t="n">
-        <v>115.9650366468075</v>
+        <v>162.2218956560284</v>
       </c>
       <c r="AD12" t="n">
-        <v>93696.94418166149</v>
+        <v>131071.3672140661</v>
       </c>
       <c r="AE12" t="n">
-        <v>128200.2926467373</v>
+        <v>179337.6270828223</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.063231687126287e-06</v>
+        <v>5.563859676601744e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.850260416666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>115965.0366468075</v>
+        <v>162221.8956560284</v>
       </c>
     </row>
     <row r="13">
@@ -18486,28 +18486,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>92.51677480166592</v>
+        <v>129.8911978340705</v>
       </c>
       <c r="AB13" t="n">
-        <v>126.5855328356298</v>
+        <v>177.7228672717148</v>
       </c>
       <c r="AC13" t="n">
-        <v>114.5043872457419</v>
+        <v>160.7612462549628</v>
       </c>
       <c r="AD13" t="n">
-        <v>92516.77480166592</v>
+        <v>129891.1978340705</v>
       </c>
       <c r="AE13" t="n">
-        <v>126585.5328356298</v>
+        <v>177722.8672717148</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.094484261444017e-06</v>
+        <v>5.620624869638625e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.8046875</v>
       </c>
       <c r="AH13" t="n">
-        <v>114504.3872457419</v>
+        <v>160761.2462549628</v>
       </c>
     </row>
     <row r="14">
@@ -18592,28 +18592,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>91.47922770191525</v>
+        <v>128.8536507343198</v>
       </c>
       <c r="AB14" t="n">
-        <v>125.1659151204041</v>
+        <v>176.3032495564891</v>
       </c>
       <c r="AC14" t="n">
-        <v>113.2202558528109</v>
+        <v>159.4771148620319</v>
       </c>
       <c r="AD14" t="n">
-        <v>91479.22770191525</v>
+        <v>128853.6507343198</v>
       </c>
       <c r="AE14" t="n">
-        <v>125165.9151204041</v>
+        <v>176303.2495564891</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.135347744299192e-06</v>
+        <v>5.694846707137541e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4.739583333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>113220.2558528109</v>
+        <v>159477.1148620319</v>
       </c>
     </row>
     <row r="15">
@@ -18698,28 +18698,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>91.41780715499944</v>
+        <v>128.792230187404</v>
       </c>
       <c r="AB15" t="n">
-        <v>125.0818768184307</v>
+        <v>176.2192112545156</v>
       </c>
       <c r="AC15" t="n">
-        <v>113.1442380484293</v>
+        <v>159.4010970576502</v>
       </c>
       <c r="AD15" t="n">
-        <v>91417.80715499943</v>
+        <v>128792.230187404</v>
       </c>
       <c r="AE15" t="n">
-        <v>125081.8768184307</v>
+        <v>176219.2112545156</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.132836580548315e-06</v>
+        <v>5.690285588632021e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>5</v>
+        <v>4.74609375</v>
       </c>
       <c r="AH15" t="n">
-        <v>113144.2380484293</v>
+        <v>159401.0970576502</v>
       </c>
     </row>
   </sheetData>
@@ -18995,28 +18995,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>70.62548217428834</v>
+        <v>91.63770801124144</v>
       </c>
       <c r="AB2" t="n">
-        <v>96.63290048719713</v>
+        <v>125.3827548712819</v>
       </c>
       <c r="AC2" t="n">
-        <v>87.41039208985055</v>
+        <v>113.4164007222015</v>
       </c>
       <c r="AD2" t="n">
-        <v>70625.48217428834</v>
+        <v>91637.70801124144</v>
       </c>
       <c r="AE2" t="n">
-        <v>96632.90048719713</v>
+        <v>125382.7548712819</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.830888832261856e-06</v>
+        <v>8.158790657869494e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.576822916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>87410.39208985055</v>
+        <v>113416.4007222015</v>
       </c>
     </row>
   </sheetData>
@@ -19292,28 +19292,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>76.68237362481928</v>
+        <v>109.5124209088482</v>
       </c>
       <c r="AB2" t="n">
-        <v>104.9202065810014</v>
+        <v>149.8397256344533</v>
       </c>
       <c r="AC2" t="n">
-        <v>94.9067693213719</v>
+        <v>135.5392325213177</v>
       </c>
       <c r="AD2" t="n">
-        <v>76682.37362481927</v>
+        <v>109512.4209088482</v>
       </c>
       <c r="AE2" t="n">
-        <v>104920.2065810014</v>
+        <v>149839.7256344534</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.600474537374825e-06</v>
+        <v>7.310208108917606e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.661458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>94906.7693213719</v>
+        <v>135539.2325213177</v>
       </c>
     </row>
     <row r="3">
@@ -19398,28 +19398,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>75.15289662285925</v>
+        <v>97.18182956983129</v>
       </c>
       <c r="AB3" t="n">
-        <v>102.8275086711576</v>
+        <v>132.9684665771216</v>
       </c>
       <c r="AC3" t="n">
-        <v>93.01379556292298</v>
+        <v>120.2781427494515</v>
       </c>
       <c r="AD3" t="n">
-        <v>75152.89662285925</v>
+        <v>97181.82956983129</v>
       </c>
       <c r="AE3" t="n">
-        <v>102827.5086711576</v>
+        <v>132968.4665771216</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.697161846240691e-06</v>
+        <v>7.506516773779326e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.537760416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>93013.79556292298</v>
+        <v>120278.1427494515</v>
       </c>
     </row>
     <row r="4">
@@ -19504,28 +19504,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>75.12359785265211</v>
+        <v>97.15253079962413</v>
       </c>
       <c r="AB4" t="n">
-        <v>102.7874208011897</v>
+        <v>132.9283787071537</v>
       </c>
       <c r="AC4" t="n">
-        <v>92.97753362300112</v>
+        <v>120.2418808095296</v>
       </c>
       <c r="AD4" t="n">
-        <v>75123.59785265211</v>
+        <v>97152.53079962413</v>
       </c>
       <c r="AE4" t="n">
-        <v>102787.4208011897</v>
+        <v>132928.3787071537</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.698476443082108e-06</v>
+        <v>7.509185859865156e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.537760416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>92977.53362300112</v>
+        <v>120241.8808095296</v>
       </c>
     </row>
   </sheetData>
@@ -19801,28 +19801,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>183.2578101618508</v>
+        <v>234.9576401616049</v>
       </c>
       <c r="AB2" t="n">
-        <v>250.7414206273201</v>
+        <v>321.4794088684744</v>
       </c>
       <c r="AC2" t="n">
-        <v>226.8110113605156</v>
+        <v>290.7978652853467</v>
       </c>
       <c r="AD2" t="n">
-        <v>183257.8101618508</v>
+        <v>234957.6401616049</v>
       </c>
       <c r="AE2" t="n">
-        <v>250741.42062732</v>
+        <v>321479.4088684744</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.868452595924593e-06</v>
+        <v>3.307254343815647e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.701822916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>226811.0113605156</v>
+        <v>290797.8652853468</v>
       </c>
     </row>
     <row r="3">
@@ -19907,28 +19907,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>155.7399018001404</v>
+        <v>207.3543909453228</v>
       </c>
       <c r="AB3" t="n">
-        <v>213.09020440241</v>
+        <v>283.7114255213667</v>
       </c>
       <c r="AC3" t="n">
-        <v>192.7531743682851</v>
+        <v>256.6344052611774</v>
       </c>
       <c r="AD3" t="n">
-        <v>155739.9018001404</v>
+        <v>207354.3909453228</v>
       </c>
       <c r="AE3" t="n">
-        <v>213090.20440241</v>
+        <v>283711.4255213666</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.108033496462875e-06</v>
+        <v>3.731324494553619e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.822916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>192753.1743682851</v>
+        <v>256634.4052611774</v>
       </c>
     </row>
     <row r="4">
@@ -20013,28 +20013,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>148.4556988203757</v>
+        <v>187.1453199741707</v>
       </c>
       <c r="AB4" t="n">
-        <v>203.1236365291456</v>
+        <v>256.0604830573621</v>
       </c>
       <c r="AC4" t="n">
-        <v>183.7378017446761</v>
+        <v>231.6224299375872</v>
       </c>
       <c r="AD4" t="n">
-        <v>148455.6988203757</v>
+        <v>187145.3199741707</v>
       </c>
       <c r="AE4" t="n">
-        <v>203123.6365291456</v>
+        <v>256060.4830573621</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.266030493220735e-06</v>
+        <v>4.010987063985135e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.34765625</v>
       </c>
       <c r="AH4" t="n">
-        <v>183737.8017446761</v>
+        <v>231622.4299375872</v>
       </c>
     </row>
     <row r="5">
@@ -20119,28 +20119,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>144.2246899790576</v>
+        <v>182.9143111328525</v>
       </c>
       <c r="AB5" t="n">
-        <v>197.3345835735207</v>
+        <v>250.2714301017372</v>
       </c>
       <c r="AC5" t="n">
-        <v>178.5012478781474</v>
+        <v>226.3858760710584</v>
       </c>
       <c r="AD5" t="n">
-        <v>144224.6899790576</v>
+        <v>182914.3111328525</v>
       </c>
       <c r="AE5" t="n">
-        <v>197334.5835735207</v>
+        <v>250271.4301017372</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.371192410363485e-06</v>
+        <v>4.19712890565291e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.067708333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>178501.2478781473</v>
+        <v>226385.8760710584</v>
       </c>
     </row>
     <row r="6">
@@ -20225,28 +20225,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>127.5547364925806</v>
+        <v>166.3296089923962</v>
       </c>
       <c r="AB6" t="n">
-        <v>174.5260177868904</v>
+        <v>227.5795089677562</v>
       </c>
       <c r="AC6" t="n">
-        <v>157.8694995981627</v>
+        <v>205.859640041786</v>
       </c>
       <c r="AD6" t="n">
-        <v>127554.7364925806</v>
+        <v>166329.6089923962</v>
       </c>
       <c r="AE6" t="n">
-        <v>174526.0177868904</v>
+        <v>227579.5089677562</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.470299617420687e-06</v>
+        <v>4.372553608296316e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.826822916666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>157869.4995981627</v>
+        <v>205859.640041786</v>
       </c>
     </row>
     <row r="7">
@@ -20331,28 +20331,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>124.8226755219274</v>
+        <v>163.597548021743</v>
       </c>
       <c r="AB7" t="n">
-        <v>170.7878914368211</v>
+        <v>223.8413826176868</v>
       </c>
       <c r="AC7" t="n">
-        <v>154.4881347804495</v>
+        <v>202.4782752240728</v>
       </c>
       <c r="AD7" t="n">
-        <v>124822.6755219274</v>
+        <v>163597.548021743</v>
       </c>
       <c r="AE7" t="n">
-        <v>170787.8914368211</v>
+        <v>223841.3826176868</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.553054687750504e-06</v>
+        <v>4.519034212844712e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.638020833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>154488.1347804495</v>
+        <v>202478.2752240728</v>
       </c>
     </row>
     <row r="8">
@@ -20437,28 +20437,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>122.5005154057193</v>
+        <v>161.1047957049426</v>
       </c>
       <c r="AB8" t="n">
-        <v>167.6106095193527</v>
+        <v>220.4306889253715</v>
       </c>
       <c r="AC8" t="n">
-        <v>151.6140881898401</v>
+        <v>199.3930933508123</v>
       </c>
       <c r="AD8" t="n">
-        <v>122500.5154057193</v>
+        <v>161104.7957049426</v>
       </c>
       <c r="AE8" t="n">
-        <v>167610.6095193527</v>
+        <v>220430.6889253715</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.622153514164746e-06</v>
+        <v>4.641342584119166e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.48828125</v>
       </c>
       <c r="AH8" t="n">
-        <v>151614.0881898401</v>
+        <v>199393.0933508123</v>
       </c>
     </row>
     <row r="9">
@@ -20543,28 +20543,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>120.0372809750029</v>
+        <v>158.6415612742262</v>
       </c>
       <c r="AB9" t="n">
-        <v>164.2403035010147</v>
+        <v>217.0603829070336</v>
       </c>
       <c r="AC9" t="n">
-        <v>148.565439447637</v>
+        <v>196.3444446086093</v>
       </c>
       <c r="AD9" t="n">
-        <v>120037.2809750029</v>
+        <v>158641.5612742262</v>
       </c>
       <c r="AE9" t="n">
-        <v>164240.3035010147</v>
+        <v>217060.3829070335</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.688269180500342e-06</v>
+        <v>4.758370613173585e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.3515625</v>
       </c>
       <c r="AH9" t="n">
-        <v>148565.439447637</v>
+        <v>196344.4446086093</v>
       </c>
     </row>
     <row r="10">
@@ -20649,28 +20649,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>120.7823118407302</v>
+        <v>159.3865921399535</v>
       </c>
       <c r="AB10" t="n">
-        <v>165.2596875999443</v>
+        <v>218.0797670059632</v>
       </c>
       <c r="AC10" t="n">
-        <v>149.4875349588797</v>
+        <v>197.266540119852</v>
       </c>
       <c r="AD10" t="n">
-        <v>120782.3118407302</v>
+        <v>159386.5921399535</v>
       </c>
       <c r="AE10" t="n">
-        <v>165259.6875999443</v>
+        <v>218079.7670059632</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.676137662847186e-06</v>
+        <v>4.736897221478774e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.377604166666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>149487.5349588797</v>
+        <v>197266.5401198519</v>
       </c>
     </row>
     <row r="11">
@@ -20755,28 +20755,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>119.029875333575</v>
+        <v>144.8798798420031</v>
       </c>
       <c r="AB11" t="n">
-        <v>162.8619266588135</v>
+        <v>198.2310432489391</v>
       </c>
       <c r="AC11" t="n">
-        <v>147.318612956691</v>
+        <v>179.3121507003331</v>
       </c>
       <c r="AD11" t="n">
-        <v>119029.875333575</v>
+        <v>144879.8798420031</v>
       </c>
       <c r="AE11" t="n">
-        <v>162861.9266588135</v>
+        <v>198231.0432489391</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.730431176278523e-06</v>
+        <v>4.832999449883422e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.266927083333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>147318.612956691</v>
+        <v>179312.1507003331</v>
       </c>
     </row>
     <row r="12">
@@ -20861,28 +20861,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>118.0489983204588</v>
+        <v>143.8990028288868</v>
       </c>
       <c r="AB12" t="n">
-        <v>161.5198474562288</v>
+        <v>196.8889640463544</v>
       </c>
       <c r="AC12" t="n">
-        <v>146.1046199095806</v>
+        <v>178.0981576532227</v>
       </c>
       <c r="AD12" t="n">
-        <v>118048.9983204587</v>
+        <v>143899.0028288868</v>
       </c>
       <c r="AE12" t="n">
-        <v>161519.8474562288</v>
+        <v>196888.9640463544</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.756152645401062e-06</v>
+        <v>4.878527733913952e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.221354166666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>146104.6199095806</v>
+        <v>178098.1576532227</v>
       </c>
     </row>
     <row r="13">
@@ -20967,28 +20967,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>117.0411951630337</v>
+        <v>142.8911996714618</v>
       </c>
       <c r="AB13" t="n">
-        <v>160.1409267151031</v>
+        <v>195.5100433052287</v>
       </c>
       <c r="AC13" t="n">
-        <v>144.8573014286601</v>
+        <v>176.8508391723022</v>
       </c>
       <c r="AD13" t="n">
-        <v>117041.1951630337</v>
+        <v>142891.1996714618</v>
       </c>
       <c r="AE13" t="n">
-        <v>160140.9267151032</v>
+        <v>195510.0433052287</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.782470746539329e-06</v>
+        <v>4.925112086388488e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>5.169270833333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>144857.3014286601</v>
+        <v>176850.8391723022</v>
       </c>
     </row>
     <row r="14">
@@ -21073,28 +21073,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>116.1355610865471</v>
+        <v>141.9855655949752</v>
       </c>
       <c r="AB14" t="n">
-        <v>158.9017982178991</v>
+        <v>194.2709148080247</v>
       </c>
       <c r="AC14" t="n">
-        <v>143.736433616101</v>
+        <v>175.7299713597432</v>
       </c>
       <c r="AD14" t="n">
-        <v>116135.5610865471</v>
+        <v>141985.5655949752</v>
       </c>
       <c r="AE14" t="n">
-        <v>158901.7982178991</v>
+        <v>194270.9148080247</v>
       </c>
       <c r="AF14" t="n">
-        <v>2.809297089765069e-06</v>
+        <v>4.972596052722734e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>5.123697916666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>143736.433616101</v>
+        <v>175729.9713597432</v>
       </c>
     </row>
     <row r="15">
@@ -21179,28 +21179,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>115.2391507178106</v>
+        <v>141.0891552262387</v>
       </c>
       <c r="AB15" t="n">
-        <v>157.67529000456</v>
+        <v>193.0444065946856</v>
       </c>
       <c r="AC15" t="n">
-        <v>142.6269816252276</v>
+        <v>174.6205193688697</v>
       </c>
       <c r="AD15" t="n">
-        <v>115239.1507178106</v>
+        <v>141089.1552262387</v>
       </c>
       <c r="AE15" t="n">
-        <v>157675.29000456</v>
+        <v>193044.4065946856</v>
       </c>
       <c r="AF15" t="n">
-        <v>2.834731291620775e-06</v>
+        <v>5.017615859354298e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>6</v>
+        <v>5.078125</v>
       </c>
       <c r="AH15" t="n">
-        <v>142626.9816252275</v>
+        <v>174620.5193688697</v>
       </c>
     </row>
     <row r="16">
@@ -21285,28 +21285,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>114.1532779660994</v>
+        <v>140.0032824745275</v>
       </c>
       <c r="AB16" t="n">
-        <v>156.1895510003448</v>
+        <v>191.5586675904703</v>
       </c>
       <c r="AC16" t="n">
-        <v>141.2830394663263</v>
+        <v>173.2765772099685</v>
       </c>
       <c r="AD16" t="n">
-        <v>114153.2779660994</v>
+        <v>140003.2824745275</v>
       </c>
       <c r="AE16" t="n">
-        <v>156189.5510003448</v>
+        <v>191558.6675904703</v>
       </c>
       <c r="AF16" t="n">
-        <v>2.865866643849002e-06</v>
+        <v>5.07272698667304e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>6</v>
+        <v>5.01953125</v>
       </c>
       <c r="AH16" t="n">
-        <v>141283.0394663263</v>
+        <v>173276.5772099685</v>
       </c>
     </row>
     <row r="17">
@@ -21391,28 +21391,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>99.67585193935845</v>
+        <v>138.3653835846024</v>
       </c>
       <c r="AB17" t="n">
-        <v>136.3808980116085</v>
+        <v>189.3176220702767</v>
       </c>
       <c r="AC17" t="n">
-        <v>123.3648965172097</v>
+        <v>171.2494139288942</v>
       </c>
       <c r="AD17" t="n">
-        <v>99675.85193935846</v>
+        <v>138365.3835846024</v>
       </c>
       <c r="AE17" t="n">
-        <v>136380.8980116085</v>
+        <v>189317.6220702766</v>
       </c>
       <c r="AF17" t="n">
-        <v>2.906503913364765e-06</v>
+        <v>5.144656981803748e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>5</v>
+        <v>4.947916666666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>123364.8965172097</v>
+        <v>171249.4139288942</v>
       </c>
     </row>
     <row r="18">
@@ -21497,28 +21497,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>99.80402726827036</v>
+        <v>138.4935589135143</v>
       </c>
       <c r="AB18" t="n">
-        <v>136.5562731513221</v>
+        <v>189.4929972099902</v>
       </c>
       <c r="AC18" t="n">
-        <v>123.5235340997296</v>
+        <v>171.4080515114142</v>
       </c>
       <c r="AD18" t="n">
-        <v>99804.02726827037</v>
+        <v>138493.5589135143</v>
       </c>
       <c r="AE18" t="n">
-        <v>136556.2731513221</v>
+        <v>189492.9972099902</v>
       </c>
       <c r="AF18" t="n">
-        <v>2.885422915475674e-06</v>
+        <v>5.107342563448829e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>5</v>
+        <v>4.986979166666667</v>
       </c>
       <c r="AH18" t="n">
-        <v>123523.5340997296</v>
+        <v>171408.0515114141</v>
       </c>
     </row>
     <row r="19">
@@ -21603,28 +21603,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>99.1517216045745</v>
+        <v>137.8412532498184</v>
       </c>
       <c r="AB19" t="n">
-        <v>135.663759764559</v>
+        <v>188.6004838232271</v>
       </c>
       <c r="AC19" t="n">
-        <v>122.7162009379485</v>
+        <v>170.600718349633</v>
       </c>
       <c r="AD19" t="n">
-        <v>99151.7216045745</v>
+        <v>137841.2532498184</v>
       </c>
       <c r="AE19" t="n">
-        <v>135663.759764559</v>
+        <v>188600.4838232271</v>
       </c>
       <c r="AF19" t="n">
-        <v>2.915342906190379e-06</v>
+        <v>5.160302440233482e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>5</v>
+        <v>4.934895833333333</v>
       </c>
       <c r="AH19" t="n">
-        <v>122716.2009379485</v>
+        <v>170600.718349633</v>
       </c>
     </row>
     <row r="20">
@@ -21709,28 +21709,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>98.52061923989551</v>
+        <v>137.2101508851394</v>
       </c>
       <c r="AB20" t="n">
-        <v>134.8002576669343</v>
+        <v>187.7369817256024</v>
       </c>
       <c r="AC20" t="n">
-        <v>121.935110268588</v>
+        <v>169.8196276802726</v>
       </c>
       <c r="AD20" t="n">
-        <v>98520.6192398955</v>
+        <v>137210.1508851394</v>
       </c>
       <c r="AE20" t="n">
-        <v>134800.2576669343</v>
+        <v>187736.9817256024</v>
       </c>
       <c r="AF20" t="n">
-        <v>2.915342906190379e-06</v>
+        <v>5.160302440233482e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>5</v>
+        <v>4.934895833333333</v>
       </c>
       <c r="AH20" t="n">
-        <v>121935.110268588</v>
+        <v>169819.6276802726</v>
       </c>
     </row>
     <row r="21">
@@ -21815,28 +21815,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>97.86153245368315</v>
+        <v>136.5510640989271</v>
       </c>
       <c r="AB21" t="n">
-        <v>133.8984660491822</v>
+        <v>186.8351901078503</v>
       </c>
       <c r="AC21" t="n">
-        <v>121.1193843771614</v>
+        <v>169.0039017888459</v>
       </c>
       <c r="AD21" t="n">
-        <v>97861.53245368315</v>
+        <v>136551.0640989271</v>
       </c>
       <c r="AE21" t="n">
-        <v>133898.4660491822</v>
+        <v>186835.1901078503</v>
       </c>
       <c r="AF21" t="n">
-        <v>2.946213088633838e-06</v>
+        <v>5.214944203799332e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>5</v>
+        <v>4.8828125</v>
       </c>
       <c r="AH21" t="n">
-        <v>121119.3843771614</v>
+        <v>169003.9017888459</v>
       </c>
     </row>
   </sheetData>
@@ -22112,28 +22112,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>67.35502296200676</v>
+        <v>97.4091469984152</v>
       </c>
       <c r="AB2" t="n">
-        <v>92.15811391047819</v>
+        <v>133.2794923114472</v>
       </c>
       <c r="AC2" t="n">
-        <v>83.36267286360984</v>
+        <v>120.5594846242205</v>
       </c>
       <c r="AD2" t="n">
-        <v>67355.02296200675</v>
+        <v>97409.14699841519</v>
       </c>
       <c r="AE2" t="n">
-        <v>92158.11391047819</v>
+        <v>133279.4923114472</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.870627942945985e-06</v>
+        <v>8.619132402249292e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.70703125</v>
       </c>
       <c r="AH2" t="n">
-        <v>83362.67286360984</v>
+        <v>120559.4846242205</v>
       </c>
     </row>
   </sheetData>
@@ -22409,28 +22409,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>111.1104433848829</v>
+        <v>146.7421343676579</v>
       </c>
       <c r="AB2" t="n">
-        <v>152.0262104859389</v>
+        <v>200.7790620478101</v>
       </c>
       <c r="AC2" t="n">
-        <v>137.5170423273289</v>
+        <v>181.6169901612076</v>
       </c>
       <c r="AD2" t="n">
-        <v>111110.4433848829</v>
+        <v>146742.1343676579</v>
       </c>
       <c r="AE2" t="n">
-        <v>152026.2104859389</v>
+        <v>200779.0620478101</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.737493567074801e-06</v>
+        <v>5.175953379713743e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.690104166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>137517.0423273289</v>
+        <v>181616.9901612076</v>
       </c>
     </row>
     <row r="3">
@@ -22515,28 +22515,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>106.0193280628551</v>
+        <v>141.4804268450379</v>
       </c>
       <c r="AB3" t="n">
-        <v>145.0603218981877</v>
+        <v>193.579761685212</v>
       </c>
       <c r="AC3" t="n">
-        <v>131.2159683697044</v>
+        <v>175.1047809209321</v>
       </c>
       <c r="AD3" t="n">
-        <v>106019.3280628551</v>
+        <v>141480.4268450379</v>
       </c>
       <c r="AE3" t="n">
-        <v>145060.3218981877</v>
+        <v>193579.761685212</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.944268877072295e-06</v>
+        <v>5.566916623425227e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.292968750000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>131215.9683697044</v>
+        <v>175104.7809209321</v>
       </c>
     </row>
     <row r="4">
@@ -22621,28 +22621,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>102.8329846703647</v>
+        <v>126.5875348340991</v>
       </c>
       <c r="AB4" t="n">
-        <v>140.7006262970351</v>
+        <v>173.202649807831</v>
       </c>
       <c r="AC4" t="n">
-        <v>127.2723559978532</v>
+        <v>156.6724320016656</v>
       </c>
       <c r="AD4" t="n">
-        <v>102832.9846703647</v>
+        <v>126587.5348340991</v>
       </c>
       <c r="AE4" t="n">
-        <v>140700.6262970351</v>
+        <v>173202.649807831</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.090669912434483e-06</v>
+        <v>5.843726382136819e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.0390625</v>
       </c>
       <c r="AH4" t="n">
-        <v>127272.3559978532</v>
+        <v>156672.4320016656</v>
       </c>
     </row>
     <row r="5">
@@ -22727,28 +22727,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>88.57327068568655</v>
+        <v>124.11962081389</v>
       </c>
       <c r="AB5" t="n">
-        <v>121.1898565290265</v>
+        <v>169.8259409687001</v>
       </c>
       <c r="AC5" t="n">
-        <v>109.6236667129598</v>
+        <v>153.6179915148996</v>
       </c>
       <c r="AD5" t="n">
-        <v>88573.27068568656</v>
+        <v>124119.62081389</v>
       </c>
       <c r="AE5" t="n">
-        <v>121189.8565290265</v>
+        <v>169825.9409687</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.190264732502713e-06</v>
+        <v>6.032036649504855e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.8828125</v>
       </c>
       <c r="AH5" t="n">
-        <v>109623.6667129598</v>
+        <v>153617.9915148997</v>
       </c>
     </row>
     <row r="6">
@@ -22833,28 +22833,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>88.07252349901522</v>
+        <v>123.6188736272186</v>
       </c>
       <c r="AB6" t="n">
-        <v>120.5047121368164</v>
+        <v>169.14079657649</v>
       </c>
       <c r="AC6" t="n">
-        <v>109.0039115399358</v>
+        <v>152.9982363418757</v>
       </c>
       <c r="AD6" t="n">
-        <v>88072.52349901522</v>
+        <v>123618.8736272187</v>
       </c>
       <c r="AE6" t="n">
-        <v>120504.7121368164</v>
+        <v>169140.79657649</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.21381141749722e-06</v>
+        <v>6.076557866008975e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.850260416666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>109003.9115399358</v>
+        <v>152998.2363418757</v>
       </c>
     </row>
     <row r="7">
@@ -22939,28 +22939,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>85.64249677001641</v>
+        <v>121.1888468982198</v>
       </c>
       <c r="AB7" t="n">
-        <v>117.1798423609887</v>
+        <v>165.8159268006623</v>
       </c>
       <c r="AC7" t="n">
-        <v>105.996362669028</v>
+        <v>149.9906874709679</v>
       </c>
       <c r="AD7" t="n">
-        <v>85642.49677001641</v>
+        <v>121188.8468982198</v>
       </c>
       <c r="AE7" t="n">
-        <v>117179.8423609887</v>
+        <v>165815.9268006623</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.31958006350913e-06</v>
+        <v>6.276541379167725e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.694010416666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>105996.3626690281</v>
+        <v>149990.6874709679</v>
       </c>
     </row>
     <row r="8">
@@ -23045,28 +23045,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>84.33152240937333</v>
+        <v>119.8778725375767</v>
       </c>
       <c r="AB8" t="n">
-        <v>115.3861094046508</v>
+        <v>164.0221938443244</v>
       </c>
       <c r="AC8" t="n">
-        <v>104.3738210685225</v>
+        <v>148.3681458704623</v>
       </c>
       <c r="AD8" t="n">
-        <v>84331.52240937334</v>
+        <v>119877.8725375768</v>
       </c>
       <c r="AE8" t="n">
-        <v>115386.1094046508</v>
+        <v>164022.1938443244</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.372081513588346e-06</v>
+        <v>6.375809213527521e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.622395833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>104373.8210685225</v>
+        <v>148368.1458704624</v>
       </c>
     </row>
     <row r="9">
@@ -23151,28 +23151,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>84.46835949126954</v>
+        <v>120.014709619473</v>
       </c>
       <c r="AB9" t="n">
-        <v>115.5733359369271</v>
+        <v>164.2094203766007</v>
       </c>
       <c r="AC9" t="n">
-        <v>104.5431789633325</v>
+        <v>148.5375037652723</v>
       </c>
       <c r="AD9" t="n">
-        <v>84468.35949126954</v>
+        <v>120014.709619473</v>
       </c>
       <c r="AE9" t="n">
-        <v>115573.3359369271</v>
+        <v>164209.4203766008</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.360236382417329e-06</v>
+        <v>6.35341286985929e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.635416666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>104543.1789633325</v>
+        <v>148537.5037652723</v>
       </c>
     </row>
   </sheetData>
@@ -23448,28 +23448,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>65.65122969175805</v>
+        <v>94.96465579158233</v>
       </c>
       <c r="AB2" t="n">
-        <v>89.82690879207097</v>
+        <v>129.9348315989193</v>
       </c>
       <c r="AC2" t="n">
-        <v>81.25395468983574</v>
+        <v>117.5340336358344</v>
       </c>
       <c r="AD2" t="n">
-        <v>65651.22969175805</v>
+        <v>94964.65579158234</v>
       </c>
       <c r="AE2" t="n">
-        <v>89826.90879207097</v>
+        <v>129934.8315989193</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.841710382858078e-06</v>
+        <v>8.807377479894904e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.850260416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>81253.95468983574</v>
+        <v>117534.0336358344</v>
       </c>
     </row>
   </sheetData>
@@ -23745,28 +23745,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>149.7215939469973</v>
+        <v>199.9502766980603</v>
       </c>
       <c r="AB2" t="n">
-        <v>204.8556900887399</v>
+        <v>273.5807897618001</v>
       </c>
       <c r="AC2" t="n">
-        <v>185.3045505434957</v>
+        <v>247.470623160064</v>
       </c>
       <c r="AD2" t="n">
-        <v>149721.5939469973</v>
+        <v>199950.2766980603</v>
       </c>
       <c r="AE2" t="n">
-        <v>204855.6900887399</v>
+        <v>273580.7897618001</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.15993104172022e-06</v>
+        <v>3.901215142818606e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.8359375</v>
       </c>
       <c r="AH2" t="n">
-        <v>185304.5505434957</v>
+        <v>247470.623160064</v>
       </c>
     </row>
     <row r="3">
@@ -23851,28 +23851,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>140.8973611198929</v>
+        <v>178.5476274780983</v>
       </c>
       <c r="AB3" t="n">
-        <v>192.7819854370247</v>
+        <v>244.2967408808188</v>
       </c>
       <c r="AC3" t="n">
-        <v>174.3831433181854</v>
+        <v>220.9814028038536</v>
       </c>
       <c r="AD3" t="n">
-        <v>140897.3611198929</v>
+        <v>178547.6274780983</v>
       </c>
       <c r="AE3" t="n">
-        <v>192781.9854370247</v>
+        <v>244296.7408808187</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.369007088646816e-06</v>
+        <v>4.278843235806745e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.23046875</v>
       </c>
       <c r="AH3" t="n">
-        <v>174383.1433181854</v>
+        <v>220981.4028038536</v>
       </c>
     </row>
     <row r="4">
@@ -23957,28 +23957,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>122.5330654028523</v>
+        <v>160.2685831070783</v>
       </c>
       <c r="AB4" t="n">
-        <v>167.6551458614346</v>
+        <v>219.286545957878</v>
       </c>
       <c r="AC4" t="n">
-        <v>151.6543740459409</v>
+        <v>198.3581457823213</v>
       </c>
       <c r="AD4" t="n">
-        <v>122533.0654028523</v>
+        <v>160268.5831070783</v>
       </c>
       <c r="AE4" t="n">
-        <v>167655.1458614346</v>
+        <v>219286.545957878</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.530291733825283e-06</v>
+        <v>4.570151656270598e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>151654.3740459409</v>
+        <v>198358.1457823213</v>
       </c>
     </row>
     <row r="5">
@@ -24063,28 +24063,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>119.0103930378017</v>
+        <v>156.7459107420276</v>
       </c>
       <c r="AB5" t="n">
-        <v>162.8352701222382</v>
+        <v>214.4666702186816</v>
       </c>
       <c r="AC5" t="n">
-        <v>147.2945004825537</v>
+        <v>193.9982722189341</v>
       </c>
       <c r="AD5" t="n">
-        <v>119010.3930378017</v>
+        <v>156745.9107420276</v>
       </c>
       <c r="AE5" t="n">
-        <v>162835.2701222382</v>
+        <v>214466.6702186816</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.646392193195388e-06</v>
+        <v>4.779849494504415e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.579427083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>147294.5004825537</v>
+        <v>193998.2722189341</v>
       </c>
     </row>
     <row r="6">
@@ -24169,28 +24169,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>116.627229603905</v>
+        <v>154.1921551075388</v>
       </c>
       <c r="AB6" t="n">
-        <v>159.574520774232</v>
+        <v>210.9725090958285</v>
       </c>
       <c r="AC6" t="n">
-        <v>144.3449524758298</v>
+        <v>190.8375889295592</v>
       </c>
       <c r="AD6" t="n">
-        <v>116627.229603905</v>
+        <v>154192.1551075388</v>
       </c>
       <c r="AE6" t="n">
-        <v>159574.520774232</v>
+        <v>210972.5090958285</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.729301660080073e-06</v>
+        <v>4.929598565861781e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.41015625</v>
       </c>
       <c r="AH6" t="n">
-        <v>144344.9524758298</v>
+        <v>190837.5889295592</v>
       </c>
     </row>
     <row r="7">
@@ -24275,28 +24275,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>114.4872450116618</v>
+        <v>139.6443463230301</v>
       </c>
       <c r="AB7" t="n">
-        <v>156.6464994456691</v>
+        <v>191.0675553128465</v>
       </c>
       <c r="AC7" t="n">
-        <v>141.6963773933603</v>
+        <v>172.8323359988404</v>
       </c>
       <c r="AD7" t="n">
-        <v>114487.2450116618</v>
+        <v>139644.3463230301</v>
       </c>
       <c r="AE7" t="n">
-        <v>156646.4994456691</v>
+        <v>191067.5553128464</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.802122334849996e-06</v>
+        <v>5.061125505210937e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.266927083333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>141696.3773933603</v>
+        <v>172832.3359988404</v>
       </c>
     </row>
     <row r="8">
@@ -24381,28 +24381,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>112.2308590328568</v>
+        <v>137.3879603442252</v>
       </c>
       <c r="AB8" t="n">
-        <v>153.5592126047459</v>
+        <v>187.9802684719232</v>
       </c>
       <c r="AC8" t="n">
-        <v>138.9037368754994</v>
+        <v>170.0396954809796</v>
       </c>
       <c r="AD8" t="n">
-        <v>112230.8590328568</v>
+        <v>137387.9603442252</v>
       </c>
       <c r="AE8" t="n">
-        <v>153559.2126047459</v>
+        <v>187980.2684719232</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.87961332686855e-06</v>
+        <v>5.201087858478499e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.123697916666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>138903.7368754995</v>
+        <v>170039.6954809796</v>
       </c>
     </row>
     <row r="9">
@@ -24487,28 +24487,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>112.3616291783901</v>
+        <v>137.5187304897585</v>
       </c>
       <c r="AB9" t="n">
-        <v>153.7381380870361</v>
+        <v>188.1591939542134</v>
       </c>
       <c r="AC9" t="n">
-        <v>139.0655859608835</v>
+        <v>170.2015445663636</v>
       </c>
       <c r="AD9" t="n">
-        <v>112361.6291783901</v>
+        <v>137518.7304897585</v>
       </c>
       <c r="AE9" t="n">
-        <v>153738.1380870361</v>
+        <v>188159.1939542134</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.87820769740537e-06</v>
+        <v>5.198549044580727e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.130208333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>139065.5859608834</v>
+        <v>170201.5445663636</v>
       </c>
     </row>
     <row r="10">
@@ -24593,28 +24593,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>110.6580421440704</v>
+        <v>135.8151434554388</v>
       </c>
       <c r="AB10" t="n">
-        <v>151.4072151497254</v>
+        <v>185.8282710169027</v>
       </c>
       <c r="AC10" t="n">
-        <v>136.9571230372381</v>
+        <v>168.0930816427182</v>
       </c>
       <c r="AD10" t="n">
-        <v>110658.0421440704</v>
+        <v>135815.1434554388</v>
       </c>
       <c r="AE10" t="n">
-        <v>151407.2151497254</v>
+        <v>185828.2710169027</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.936813377442808e-06</v>
+        <v>5.304401204673368e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.026041666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>136957.1230372381</v>
+        <v>168093.0816427182</v>
       </c>
     </row>
     <row r="11">
@@ -24699,28 +24699,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>97.08221499265167</v>
+        <v>134.732391842306</v>
       </c>
       <c r="AB11" t="n">
-        <v>132.8321695179396</v>
+        <v>184.3468024921853</v>
       </c>
       <c r="AC11" t="n">
-        <v>120.1548536903036</v>
+        <v>166.7530023947452</v>
       </c>
       <c r="AD11" t="n">
-        <v>97082.21499265167</v>
+        <v>134732.391842306</v>
       </c>
       <c r="AE11" t="n">
-        <v>132832.1695179396</v>
+        <v>184346.8024921853</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.960459692444374e-06</v>
+        <v>5.347110606211715e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.986979166666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>120154.8536903036</v>
+        <v>166753.0023947452</v>
       </c>
     </row>
     <row r="12">
@@ -24805,28 +24805,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>95.57880636132197</v>
+        <v>133.2289832109763</v>
       </c>
       <c r="AB12" t="n">
-        <v>130.7751395028475</v>
+        <v>182.2897724770932</v>
       </c>
       <c r="AC12" t="n">
-        <v>118.2941437327916</v>
+        <v>164.8922924372332</v>
       </c>
       <c r="AD12" t="n">
-        <v>95578.80636132197</v>
+        <v>133228.9832109763</v>
       </c>
       <c r="AE12" t="n">
-        <v>130775.1395028475</v>
+        <v>182289.7724770932</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.015823356139316e-06</v>
+        <v>5.447107114894977e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.895833333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>118294.1437327916</v>
+        <v>164892.2924372331</v>
       </c>
     </row>
     <row r="13">
@@ -24911,28 +24911,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>94.62771411516216</v>
+        <v>132.2778909648165</v>
       </c>
       <c r="AB13" t="n">
-        <v>129.4738131324238</v>
+        <v>180.9884461066695</v>
       </c>
       <c r="AC13" t="n">
-        <v>117.1170141247376</v>
+        <v>163.7151628291792</v>
       </c>
       <c r="AD13" t="n">
-        <v>94627.71411516216</v>
+        <v>132277.8909648165</v>
       </c>
       <c r="AE13" t="n">
-        <v>129473.8131324238</v>
+        <v>180988.4461066695</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.042802373255196e-06</v>
+        <v>5.495835962287721e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.850260416666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>117117.0141247376</v>
+        <v>163715.1628291792</v>
       </c>
     </row>
     <row r="14">
@@ -25017,28 +25017,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>93.31804648013832</v>
+        <v>130.9682233297926</v>
       </c>
       <c r="AB14" t="n">
-        <v>127.6818680957268</v>
+        <v>179.1965010699725</v>
       </c>
       <c r="AC14" t="n">
-        <v>115.4960898073317</v>
+        <v>162.0942385117733</v>
       </c>
       <c r="AD14" t="n">
-        <v>93318.04648013832</v>
+        <v>130968.2233297926</v>
       </c>
       <c r="AE14" t="n">
-        <v>127681.8680957268</v>
+        <v>179196.5010699725</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.082341369767882e-06</v>
+        <v>5.567250340315408e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4.791666666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>115496.0898073317</v>
+        <v>162094.2385117733</v>
       </c>
     </row>
     <row r="15">
@@ -25123,28 +25123,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>93.29613104545994</v>
+        <v>130.9463078951143</v>
       </c>
       <c r="AB15" t="n">
-        <v>127.6518824311591</v>
+        <v>179.1665154054048</v>
       </c>
       <c r="AC15" t="n">
-        <v>115.4689659325053</v>
+        <v>162.0671146369469</v>
       </c>
       <c r="AD15" t="n">
-        <v>93296.13104545994</v>
+        <v>130946.3078951143</v>
       </c>
       <c r="AE15" t="n">
-        <v>127651.8824311591</v>
+        <v>179166.5154054048</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.065428473323809e-06</v>
+        <v>5.536702676319619e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>5</v>
+        <v>4.817708333333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>115468.9659325053</v>
+        <v>162067.1146369468</v>
       </c>
     </row>
     <row r="16">
@@ -25229,28 +25229,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>93.0014787182152</v>
+        <v>130.6516555678695</v>
       </c>
       <c r="AB16" t="n">
-        <v>127.2487261178798</v>
+        <v>178.7633590921255</v>
       </c>
       <c r="AC16" t="n">
-        <v>115.1042862919318</v>
+        <v>161.7024349963733</v>
       </c>
       <c r="AD16" t="n">
-        <v>93001.47871821519</v>
+        <v>130651.6555678695</v>
       </c>
       <c r="AE16" t="n">
-        <v>127248.7261178798</v>
+        <v>178763.3590921255</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.063818800874038e-06</v>
+        <v>5.533795324920557e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>5</v>
+        <v>4.817708333333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>115104.2862919318</v>
+        <v>161702.4349963733</v>
       </c>
     </row>
   </sheetData>
@@ -25526,28 +25526,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>188.2424345325322</v>
+        <v>240.2699568336184</v>
       </c>
       <c r="AB2" t="n">
-        <v>257.56160359739</v>
+        <v>328.7479549019907</v>
       </c>
       <c r="AC2" t="n">
-        <v>232.9802856401112</v>
+        <v>297.3727114868951</v>
       </c>
       <c r="AD2" t="n">
-        <v>188242.4345325322</v>
+        <v>240269.9568336184</v>
       </c>
       <c r="AE2" t="n">
-        <v>257561.60359739</v>
+        <v>328747.9549019907</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.81157867911763e-06</v>
+        <v>3.191957825697848e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.897135416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>232980.2856401112</v>
+        <v>297372.711486895</v>
       </c>
     </row>
     <row r="3">
@@ -25632,28 +25632,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>173.3775439339985</v>
+        <v>212.3982751683642</v>
       </c>
       <c r="AB3" t="n">
-        <v>237.2228044877967</v>
+        <v>290.6126904357956</v>
       </c>
       <c r="AC3" t="n">
-        <v>214.5825929718472</v>
+        <v>262.8770231381616</v>
       </c>
       <c r="AD3" t="n">
-        <v>173377.5439339985</v>
+        <v>212398.2751683642</v>
       </c>
       <c r="AE3" t="n">
-        <v>237222.8044877967</v>
+        <v>290612.6904357956</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.040178680494791e-06</v>
+        <v>3.594745500206015e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.01171875</v>
       </c>
       <c r="AH3" t="n">
-        <v>214582.5929718472</v>
+        <v>262877.0231381616</v>
       </c>
     </row>
     <row r="4">
@@ -25738,28 +25738,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>152.6298878930982</v>
+        <v>191.7358704734845</v>
       </c>
       <c r="AB4" t="n">
-        <v>208.8349461706668</v>
+        <v>262.3414767713151</v>
       </c>
       <c r="AC4" t="n">
-        <v>188.9040320098858</v>
+        <v>237.3039744269125</v>
       </c>
       <c r="AD4" t="n">
-        <v>152629.8878930982</v>
+        <v>191735.8704734845</v>
       </c>
       <c r="AE4" t="n">
-        <v>208834.9461706668</v>
+        <v>262341.476771315</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.191963633845053e-06</v>
+        <v>3.862186917603098e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.5234375</v>
       </c>
       <c r="AH4" t="n">
-        <v>188904.0320098858</v>
+        <v>237303.9744269125</v>
       </c>
     </row>
     <row r="5">
@@ -25844,28 +25844,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>147.441263764124</v>
+        <v>186.376654143918</v>
       </c>
       <c r="AB5" t="n">
-        <v>201.7356417314666</v>
+        <v>255.0087605572679</v>
       </c>
       <c r="AC5" t="n">
-        <v>182.4822752224241</v>
+        <v>230.6710823567998</v>
       </c>
       <c r="AD5" t="n">
-        <v>147441.263764124</v>
+        <v>186376.654143918</v>
       </c>
       <c r="AE5" t="n">
-        <v>201735.6417314665</v>
+        <v>255008.7605572679</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.313018174787642e-06</v>
+        <v>4.075482091449019e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.184895833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>182482.2752224241</v>
+        <v>230671.0823567998</v>
       </c>
     </row>
     <row r="6">
@@ -25950,28 +25950,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>130.567978780897</v>
+        <v>169.5886205067117</v>
       </c>
       <c r="AB6" t="n">
-        <v>178.6488688206305</v>
+        <v>232.038632299081</v>
       </c>
       <c r="AC6" t="n">
-        <v>161.5988715157016</v>
+        <v>209.8931909007895</v>
       </c>
       <c r="AD6" t="n">
-        <v>130567.978780897</v>
+        <v>169588.6205067117</v>
       </c>
       <c r="AE6" t="n">
-        <v>178648.8688206305</v>
+        <v>232038.632299081</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.408548241664674e-06</v>
+        <v>4.243803759214562e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.9375</v>
       </c>
       <c r="AH6" t="n">
-        <v>161598.8715157016</v>
+        <v>209893.1909007895</v>
       </c>
     </row>
     <row r="7">
@@ -26056,28 +26056,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>127.7538752025323</v>
+        <v>166.7745169283469</v>
       </c>
       <c r="AB7" t="n">
-        <v>174.7984881552259</v>
+        <v>228.1882516336765</v>
       </c>
       <c r="AC7" t="n">
-        <v>158.1159657769589</v>
+        <v>206.4102851620468</v>
       </c>
       <c r="AD7" t="n">
-        <v>127753.8752025323</v>
+        <v>166774.5169283469</v>
       </c>
       <c r="AE7" t="n">
-        <v>174798.4881552259</v>
+        <v>228188.2516336765</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.48889981320668e-06</v>
+        <v>4.385381285240398e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.748697916666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>158115.9657769589</v>
+        <v>206410.2851620468</v>
       </c>
     </row>
     <row r="8">
@@ -26162,28 +26162,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>125.423625462578</v>
+        <v>164.4442671883926</v>
       </c>
       <c r="AB8" t="n">
-        <v>171.610137657659</v>
+        <v>224.9999011361096</v>
       </c>
       <c r="AC8" t="n">
-        <v>155.2319069760007</v>
+        <v>203.5262263610886</v>
       </c>
       <c r="AD8" t="n">
-        <v>125423.625462578</v>
+        <v>164444.2671883926</v>
       </c>
       <c r="AE8" t="n">
-        <v>171610.137657659</v>
+        <v>224999.9011361096</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.555918032117194e-06</v>
+        <v>4.503465766351613e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.592447916666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>155231.9069760007</v>
+        <v>203526.2263610886</v>
       </c>
     </row>
     <row r="9">
@@ -26268,28 +26268,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>123.0377327600662</v>
+        <v>161.8877822852886</v>
       </c>
       <c r="AB9" t="n">
-        <v>168.3456540039267</v>
+        <v>221.5020057075304</v>
       </c>
       <c r="AC9" t="n">
-        <v>152.278981060448</v>
+        <v>200.3621651628848</v>
       </c>
       <c r="AD9" t="n">
-        <v>123037.7327600662</v>
+        <v>161887.7822852886</v>
       </c>
       <c r="AE9" t="n">
-        <v>168345.6540039267</v>
+        <v>221502.0057075304</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.616632013457299e-06</v>
+        <v>4.610442333310447e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.462239583333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>152278.981060448</v>
+        <v>200362.1651628849</v>
       </c>
     </row>
     <row r="10">
@@ -26374,28 +26374,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>122.7644084508556</v>
+        <v>161.6144579760781</v>
       </c>
       <c r="AB10" t="n">
-        <v>167.9716796258475</v>
+        <v>221.1280313294512</v>
       </c>
       <c r="AC10" t="n">
-        <v>151.9406982721362</v>
+        <v>200.023882374573</v>
       </c>
       <c r="AD10" t="n">
-        <v>122764.4084508556</v>
+        <v>161614.4579760781</v>
       </c>
       <c r="AE10" t="n">
-        <v>167971.6796258475</v>
+        <v>221128.0313294512</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.637851154547944e-06</v>
+        <v>4.647829946798953e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.423177083333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>151940.6982721362</v>
+        <v>200023.882374573</v>
       </c>
     </row>
     <row r="11">
@@ -26480,28 +26480,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>121.7674139365752</v>
+        <v>160.6174634617976</v>
       </c>
       <c r="AB11" t="n">
-        <v>166.6075477471159</v>
+        <v>219.7638994507196</v>
       </c>
       <c r="AC11" t="n">
-        <v>150.7067572253392</v>
+        <v>198.7899413277761</v>
       </c>
       <c r="AD11" t="n">
-        <v>121767.4139365751</v>
+        <v>160617.4634617976</v>
       </c>
       <c r="AE11" t="n">
-        <v>166607.547747116</v>
+        <v>219763.8994507196</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.662892376953052e-06</v>
+        <v>4.691951975139427e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.37109375</v>
       </c>
       <c r="AH11" t="n">
-        <v>150706.7572253392</v>
+        <v>198789.9413277761</v>
       </c>
     </row>
     <row r="12">
@@ -26586,28 +26586,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>119.9887692051114</v>
+        <v>146.0026198642056</v>
       </c>
       <c r="AB12" t="n">
-        <v>164.173927557261</v>
+        <v>199.7672256791097</v>
       </c>
       <c r="AC12" t="n">
-        <v>148.5053983307959</v>
+        <v>180.7017220354144</v>
       </c>
       <c r="AD12" t="n">
-        <v>119988.7692051114</v>
+        <v>146002.6198642056</v>
       </c>
       <c r="AE12" t="n">
-        <v>164173.927557261</v>
+        <v>199767.2256791097</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.718554181843003e-06</v>
+        <v>4.790026729362901e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.260416666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>148505.3983307959</v>
+        <v>180701.7220354144</v>
       </c>
     </row>
     <row r="13">
@@ -26692,28 +26692,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>119.0751501793133</v>
+        <v>145.0890008384074</v>
       </c>
       <c r="AB13" t="n">
-        <v>162.9238737001378</v>
+        <v>198.5171718219866</v>
       </c>
       <c r="AC13" t="n">
-        <v>147.3746478593345</v>
+        <v>179.570971563953</v>
       </c>
       <c r="AD13" t="n">
-        <v>119075.1501793133</v>
+        <v>145089.0008384074</v>
       </c>
       <c r="AE13" t="n">
-        <v>162923.8737001378</v>
+        <v>198517.1718219866</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.743265914479623e-06</v>
+        <v>4.833568204698895e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>5.21484375</v>
       </c>
       <c r="AH13" t="n">
-        <v>147374.6478593345</v>
+        <v>179570.971563953</v>
       </c>
     </row>
     <row r="14">
@@ -26798,28 +26798,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>118.2678850574976</v>
+        <v>144.2817357165917</v>
       </c>
       <c r="AB14" t="n">
-        <v>161.8193379464465</v>
+        <v>197.4126360682953</v>
       </c>
       <c r="AC14" t="n">
-        <v>146.3755274477495</v>
+        <v>178.571851152368</v>
       </c>
       <c r="AD14" t="n">
-        <v>118267.8850574976</v>
+        <v>144281.7357165917</v>
       </c>
       <c r="AE14" t="n">
-        <v>161819.3379464465</v>
+        <v>197412.6360682953</v>
       </c>
       <c r="AF14" t="n">
-        <v>2.767560293409491e-06</v>
+        <v>4.87637431289588e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>5.169270833333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>146375.5274477495</v>
+        <v>178571.851152368</v>
       </c>
     </row>
     <row r="15">
@@ -26904,28 +26904,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>117.2380843265482</v>
+        <v>143.2519349856424</v>
       </c>
       <c r="AB15" t="n">
-        <v>160.4103191547604</v>
+        <v>196.0036172766092</v>
       </c>
       <c r="AC15" t="n">
-        <v>145.1009834319712</v>
+        <v>177.2973071365897</v>
       </c>
       <c r="AD15" t="n">
-        <v>117238.0843265482</v>
+        <v>143251.9349856424</v>
       </c>
       <c r="AE15" t="n">
-        <v>160410.3191547604</v>
+        <v>196003.6172766092</v>
       </c>
       <c r="AF15" t="n">
-        <v>2.796423597129064e-06</v>
+        <v>4.927230756088321e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>6</v>
+        <v>5.1171875</v>
       </c>
       <c r="AH15" t="n">
-        <v>145100.9834319712</v>
+        <v>177297.3071365897</v>
       </c>
     </row>
     <row r="16">
@@ -27010,28 +27010,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>116.2701166453704</v>
+        <v>142.2839673044645</v>
       </c>
       <c r="AB16" t="n">
-        <v>159.0859030696534</v>
+        <v>194.6792011915021</v>
       </c>
       <c r="AC16" t="n">
-        <v>143.9029677591967</v>
+        <v>176.0992914638152</v>
       </c>
       <c r="AD16" t="n">
-        <v>116270.1166453704</v>
+        <v>142283.9673044645</v>
       </c>
       <c r="AE16" t="n">
-        <v>159085.9030696534</v>
+        <v>194679.2011915021</v>
       </c>
       <c r="AF16" t="n">
-        <v>2.822277560963109e-06</v>
+        <v>4.972784815173178e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>6</v>
+        <v>5.065104166666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>143902.9677591967</v>
+        <v>176099.2914638152</v>
       </c>
     </row>
     <row r="17">
@@ -27116,28 +27116,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>115.6637163766431</v>
+        <v>141.6775670357372</v>
       </c>
       <c r="AB17" t="n">
-        <v>158.2561994694893</v>
+        <v>193.8494975913381</v>
       </c>
       <c r="AC17" t="n">
-        <v>143.1524499061357</v>
+        <v>175.3487736107542</v>
       </c>
       <c r="AD17" t="n">
-        <v>115663.7163766431</v>
+        <v>141677.5670357372</v>
       </c>
       <c r="AE17" t="n">
-        <v>158256.1994694893</v>
+        <v>193849.4975913381</v>
       </c>
       <c r="AF17" t="n">
-        <v>2.827527431274356e-06</v>
+        <v>4.982034959711226e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>6</v>
+        <v>5.05859375</v>
       </c>
       <c r="AH17" t="n">
-        <v>143152.4499061357</v>
+        <v>175348.7736107542</v>
       </c>
     </row>
     <row r="18">
@@ -27222,28 +27222,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>114.6093552170262</v>
+        <v>140.6232058761203</v>
       </c>
       <c r="AB18" t="n">
-        <v>156.8135760157707</v>
+        <v>192.4068741376194</v>
       </c>
       <c r="AC18" t="n">
-        <v>141.8475084101048</v>
+        <v>174.0438321147233</v>
       </c>
       <c r="AD18" t="n">
-        <v>114609.3552170262</v>
+        <v>140623.2058761203</v>
       </c>
       <c r="AE18" t="n">
-        <v>156813.5760157707</v>
+        <v>192406.8741376195</v>
       </c>
       <c r="AF18" t="n">
-        <v>2.857884421944409e-06</v>
+        <v>5.035523243190642e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>6</v>
+        <v>5.006510416666667</v>
       </c>
       <c r="AH18" t="n">
-        <v>141847.5084101048</v>
+        <v>174043.8321147233</v>
       </c>
     </row>
     <row r="19">
@@ -27328,28 +27328,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>100.7665346822506</v>
+        <v>139.7018355534936</v>
       </c>
       <c r="AB19" t="n">
-        <v>137.8732182579594</v>
+        <v>191.1462146142123</v>
       </c>
       <c r="AC19" t="n">
-        <v>124.7147918137339</v>
+        <v>172.903488166883</v>
       </c>
       <c r="AD19" t="n">
-        <v>100766.5346822506</v>
+        <v>139701.8355534936</v>
       </c>
       <c r="AE19" t="n">
-        <v>137873.2182579594</v>
+        <v>191146.2146142123</v>
       </c>
       <c r="AF19" t="n">
-        <v>2.876072257164961e-06</v>
+        <v>5.067569769037933e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>5</v>
+        <v>4.973958333333333</v>
       </c>
       <c r="AH19" t="n">
-        <v>124714.7918137339</v>
+        <v>172903.488166883</v>
       </c>
     </row>
     <row r="20">
@@ -27434,28 +27434,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>100.7951266728555</v>
+        <v>139.7304275440985</v>
       </c>
       <c r="AB20" t="n">
-        <v>137.9123390808947</v>
+        <v>191.1853354371476</v>
       </c>
       <c r="AC20" t="n">
-        <v>124.7501790002347</v>
+        <v>172.9388753533838</v>
       </c>
       <c r="AD20" t="n">
-        <v>100795.1266728555</v>
+        <v>139730.4275440985</v>
       </c>
       <c r="AE20" t="n">
-        <v>137912.3390808947</v>
+        <v>191185.3354371476</v>
       </c>
       <c r="AF20" t="n">
-        <v>2.875237549751457e-06</v>
+        <v>5.066099034759917e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>5</v>
+        <v>4.973958333333333</v>
       </c>
       <c r="AH20" t="n">
-        <v>124750.1790002347</v>
+        <v>172938.8753533838</v>
       </c>
     </row>
     <row r="21">
@@ -27540,28 +27540,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>100.1699513590861</v>
+        <v>139.1052522303292</v>
       </c>
       <c r="AB21" t="n">
-        <v>137.0569466358076</v>
+        <v>190.3299429920605</v>
       </c>
       <c r="AC21" t="n">
-        <v>123.9764240095556</v>
+        <v>172.1651203627047</v>
       </c>
       <c r="AD21" t="n">
-        <v>100169.9513590861</v>
+        <v>139105.2522303292</v>
       </c>
       <c r="AE21" t="n">
-        <v>137056.9466358076</v>
+        <v>190329.9429920605</v>
       </c>
       <c r="AF21" t="n">
-        <v>2.874293012415124e-06</v>
+        <v>5.064434782813742e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>5</v>
+        <v>4.973958333333333</v>
       </c>
       <c r="AH21" t="n">
-        <v>123976.4240095556</v>
+        <v>172165.1203627047</v>
       </c>
     </row>
     <row r="22">
@@ -27646,28 +27646,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>99.43816684018719</v>
+        <v>138.3734677114302</v>
       </c>
       <c r="AB22" t="n">
-        <v>136.055686772996</v>
+        <v>189.328683129249</v>
       </c>
       <c r="AC22" t="n">
-        <v>123.0707229827734</v>
+        <v>171.2594193359225</v>
       </c>
       <c r="AD22" t="n">
-        <v>99438.16684018719</v>
+        <v>138373.4677114302</v>
       </c>
       <c r="AE22" t="n">
-        <v>136055.686772996</v>
+        <v>189328.683129249</v>
       </c>
       <c r="AF22" t="n">
-        <v>2.903310078026658e-06</v>
+        <v>5.115562150741607e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>5</v>
+        <v>4.928385416666667</v>
       </c>
       <c r="AH22" t="n">
-        <v>123070.7229827734</v>
+        <v>171259.4193359225</v>
       </c>
     </row>
     <row r="23">
@@ -27752,28 +27752,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>99.5107748992103</v>
+        <v>138.4460757704533</v>
       </c>
       <c r="AB23" t="n">
-        <v>136.1550323225929</v>
+        <v>189.4280286788458</v>
       </c>
       <c r="AC23" t="n">
-        <v>123.1605871325491</v>
+        <v>171.3492834856982</v>
       </c>
       <c r="AD23" t="n">
-        <v>99510.7748992103</v>
+        <v>138446.0757704533</v>
       </c>
       <c r="AE23" t="n">
-        <v>136155.0323225929</v>
+        <v>189428.0286788458</v>
       </c>
       <c r="AF23" t="n">
-        <v>2.902343574705759e-06</v>
+        <v>5.113859195261798e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>5</v>
+        <v>4.928385416666667</v>
       </c>
       <c r="AH23" t="n">
-        <v>123160.5871325491</v>
+        <v>171349.2834856982</v>
       </c>
     </row>
   </sheetData>
@@ -28049,28 +28049,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>97.63234706621076</v>
+        <v>120.4230179080755</v>
       </c>
       <c r="AB2" t="n">
-        <v>133.5848844910969</v>
+        <v>164.7680857903568</v>
       </c>
       <c r="AC2" t="n">
-        <v>120.8357306028652</v>
+        <v>149.0428509360315</v>
       </c>
       <c r="AD2" t="n">
-        <v>97632.34706621076</v>
+        <v>120423.0179080755</v>
       </c>
       <c r="AE2" t="n">
-        <v>133584.8844910969</v>
+        <v>164768.0857903568</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.184303142276062e-06</v>
+        <v>6.241190152001242e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.084635416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>120835.7306028652</v>
+        <v>149042.8509360315</v>
       </c>
     </row>
     <row r="3">
@@ -28155,28 +28155,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>82.85777230627808</v>
+        <v>116.958303451677</v>
       </c>
       <c r="AB3" t="n">
-        <v>113.3696594963311</v>
+        <v>160.0275106187007</v>
       </c>
       <c r="AC3" t="n">
-        <v>102.5498183093469</v>
+        <v>144.7547096053177</v>
       </c>
       <c r="AD3" t="n">
-        <v>82857.77230627809</v>
+        <v>116958.303451677</v>
       </c>
       <c r="AE3" t="n">
-        <v>113369.6594963311</v>
+        <v>160027.5106187007</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.367109185398406e-06</v>
+        <v>6.599487470153553e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.811197916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>102549.8183093469</v>
+        <v>144754.7096053177</v>
       </c>
     </row>
     <row r="4">
@@ -28261,28 +28261,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>79.76597840021195</v>
+        <v>102.6419005880973</v>
       </c>
       <c r="AB4" t="n">
-        <v>109.139330673733</v>
+        <v>140.4391766256421</v>
       </c>
       <c r="AC4" t="n">
-        <v>98.72322613227246</v>
+        <v>127.035858716151</v>
       </c>
       <c r="AD4" t="n">
-        <v>79765.97840021196</v>
+        <v>102641.9005880973</v>
       </c>
       <c r="AE4" t="n">
-        <v>109139.330673733</v>
+        <v>140439.1766256421</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.534963346115126e-06</v>
+        <v>6.928479305424871e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>98723.22613227245</v>
+        <v>127035.858716151</v>
       </c>
     </row>
     <row r="5">
@@ -28367,28 +28367,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>79.34910627566619</v>
+        <v>102.2250284635515</v>
       </c>
       <c r="AB5" t="n">
-        <v>108.5689478418297</v>
+        <v>139.8687937937388</v>
       </c>
       <c r="AC5" t="n">
-        <v>98.20727983730842</v>
+        <v>126.519912421187</v>
       </c>
       <c r="AD5" t="n">
-        <v>79349.10627566618</v>
+        <v>102225.0284635515</v>
       </c>
       <c r="AE5" t="n">
-        <v>108568.9478418296</v>
+        <v>139868.7937937388</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.542103429726465e-06</v>
+        <v>6.942473770627609e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.5703125</v>
       </c>
       <c r="AH5" t="n">
-        <v>98207.27983730842</v>
+        <v>126519.912421187</v>
       </c>
     </row>
     <row r="6">
@@ -28473,28 +28473,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>78.9973434260544</v>
+        <v>101.8732656139397</v>
       </c>
       <c r="AB6" t="n">
-        <v>108.0876503923094</v>
+        <v>139.3874963442185</v>
       </c>
       <c r="AC6" t="n">
-        <v>97.77191674086498</v>
+        <v>126.0845493247436</v>
       </c>
       <c r="AD6" t="n">
-        <v>78997.3434260544</v>
+        <v>101873.2656139397</v>
       </c>
       <c r="AE6" t="n">
-        <v>108087.6503923094</v>
+        <v>139387.4963442185</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.571061817613565e-06</v>
+        <v>6.999231810683311e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.537760416666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>97771.91674086498</v>
+        <v>126084.5493247436</v>
       </c>
     </row>
   </sheetData>
@@ -28770,28 +28770,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>172.3257994766972</v>
+        <v>210.5930225362286</v>
       </c>
       <c r="AB2" t="n">
-        <v>235.7837613216271</v>
+        <v>288.1426641423838</v>
       </c>
       <c r="AC2" t="n">
-        <v>213.2808900657465</v>
+        <v>260.6427326874885</v>
       </c>
       <c r="AD2" t="n">
-        <v>172325.7994766972</v>
+        <v>210593.0225362286</v>
       </c>
       <c r="AE2" t="n">
-        <v>235783.7613216271</v>
+        <v>288142.6641423837</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.007994374216292e-06</v>
+        <v>3.588856893368892e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.252604166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>213280.8900657466</v>
+        <v>260642.7326874885</v>
       </c>
     </row>
     <row r="3">
@@ -28876,28 +28876,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>148.1179959023546</v>
+        <v>186.4704703079065</v>
       </c>
       <c r="AB3" t="n">
-        <v>202.6615764983081</v>
+        <v>255.137123971714</v>
       </c>
       <c r="AC3" t="n">
-        <v>183.3198400746762</v>
+        <v>230.7871949471304</v>
       </c>
       <c r="AD3" t="n">
-        <v>148117.9959023546</v>
+        <v>186470.4703079065</v>
       </c>
       <c r="AE3" t="n">
-        <v>202661.5764983081</v>
+        <v>255137.123971714</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.233392000025296e-06</v>
+        <v>3.991706539523575e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.5234375</v>
       </c>
       <c r="AH3" t="n">
-        <v>183319.8400746762</v>
+        <v>230787.1949471304</v>
       </c>
     </row>
     <row r="4">
@@ -28982,28 +28982,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>142.2974340826191</v>
+        <v>180.4793162875789</v>
       </c>
       <c r="AB4" t="n">
-        <v>194.6976270314855</v>
+        <v>246.9397627300445</v>
       </c>
       <c r="AC4" t="n">
-        <v>176.1159587674914</v>
+        <v>223.3721783572946</v>
       </c>
       <c r="AD4" t="n">
-        <v>142297.4340826191</v>
+        <v>180479.3162875789</v>
       </c>
       <c r="AE4" t="n">
-        <v>194697.6270314855</v>
+        <v>246939.7627300445</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.379875845188245e-06</v>
+        <v>4.253514821573874e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.119791666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>176115.9587674914</v>
+        <v>223372.1783572946</v>
       </c>
     </row>
     <row r="5">
@@ -29088,28 +29088,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>124.6685989182437</v>
+        <v>162.9357324692241</v>
       </c>
       <c r="AB5" t="n">
-        <v>170.5770770302811</v>
+        <v>222.9358573814894</v>
       </c>
       <c r="AC5" t="n">
-        <v>154.2974402049897</v>
+        <v>201.6591720455051</v>
       </c>
       <c r="AD5" t="n">
-        <v>124668.5989182437</v>
+        <v>162935.7324692241</v>
       </c>
       <c r="AE5" t="n">
-        <v>170577.0770302811</v>
+        <v>222935.8573814894</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.513718270996213e-06</v>
+        <v>4.492729292816412e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.794270833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>154297.4402049897</v>
+        <v>201659.1720455051</v>
       </c>
     </row>
     <row r="6">
@@ -29194,28 +29194,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>121.9392805673422</v>
+        <v>160.2064141183226</v>
       </c>
       <c r="AB6" t="n">
-        <v>166.8427032535519</v>
+        <v>219.2014836047602</v>
       </c>
       <c r="AC6" t="n">
-        <v>150.9194698202839</v>
+        <v>198.2812016607992</v>
       </c>
       <c r="AD6" t="n">
-        <v>121939.2805673422</v>
+        <v>160206.4141183225</v>
       </c>
       <c r="AE6" t="n">
-        <v>166842.7032535519</v>
+        <v>219201.4836047602</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.595853935513273e-06</v>
+        <v>4.63952907949835e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.611979166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>150919.4698202839</v>
+        <v>198281.2016607992</v>
       </c>
     </row>
     <row r="7">
@@ -29300,28 +29300,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>119.8676537181598</v>
+        <v>157.964195068548</v>
       </c>
       <c r="AB7" t="n">
-        <v>164.0082120047757</v>
+        <v>216.1335805811371</v>
       </c>
       <c r="AC7" t="n">
-        <v>148.3554984380565</v>
+        <v>195.5060949959208</v>
       </c>
       <c r="AD7" t="n">
-        <v>119867.6537181598</v>
+        <v>157964.195068548</v>
       </c>
       <c r="AE7" t="n">
-        <v>164008.2120047757</v>
+        <v>216133.5805811371</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.661208954868851e-06</v>
+        <v>4.756337081922196e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.475260416666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>148355.4984380565</v>
+        <v>195506.0949959208</v>
       </c>
     </row>
     <row r="8">
@@ -29406,28 +29406,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>117.2066898473122</v>
+        <v>155.3032311977004</v>
       </c>
       <c r="AB8" t="n">
-        <v>160.3673638432431</v>
+        <v>212.4927324196045</v>
       </c>
       <c r="AC8" t="n">
-        <v>145.0621277150969</v>
+        <v>192.2127242729613</v>
       </c>
       <c r="AD8" t="n">
-        <v>117206.6898473122</v>
+        <v>155303.2311977004</v>
       </c>
       <c r="AE8" t="n">
-        <v>160367.3638432431</v>
+        <v>212492.7324196045</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.743814477450432e-06</v>
+        <v>4.90397663856336e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.305989583333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>145062.1277150969</v>
+        <v>192212.7242729613</v>
       </c>
     </row>
     <row r="9">
@@ -29512,28 +29512,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>117.0770117405906</v>
+        <v>142.588523616462</v>
       </c>
       <c r="AB9" t="n">
-        <v>160.1899325366324</v>
+        <v>195.095908573653</v>
       </c>
       <c r="AC9" t="n">
-        <v>144.9016302033627</v>
+        <v>176.4762288782662</v>
       </c>
       <c r="AD9" t="n">
-        <v>117077.0117405906</v>
+        <v>142588.523616462</v>
       </c>
       <c r="AE9" t="n">
-        <v>160189.9325366324</v>
+        <v>195095.908573653</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.759789651644161e-06</v>
+        <v>4.932528817177063e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.279947916666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>144901.6302033627</v>
+        <v>176476.2288782662</v>
       </c>
     </row>
     <row r="10">
@@ -29618,28 +29618,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>115.1724350010977</v>
+        <v>140.683946876969</v>
       </c>
       <c r="AB10" t="n">
-        <v>157.5840066176639</v>
+        <v>192.4899826546845</v>
       </c>
       <c r="AC10" t="n">
-        <v>142.5444101966597</v>
+        <v>174.1190088715632</v>
       </c>
       <c r="AD10" t="n">
-        <v>115172.4350010977</v>
+        <v>140683.946876969</v>
       </c>
       <c r="AE10" t="n">
-        <v>157584.0066176639</v>
+        <v>192489.9826546845</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.819484000031934e-06</v>
+        <v>5.039219591044514e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.169270833333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>142544.4101966597</v>
+        <v>174119.0088715632</v>
       </c>
     </row>
     <row r="11">
@@ -29724,28 +29724,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>114.3377632825144</v>
+        <v>139.8492751583857</v>
       </c>
       <c r="AB11" t="n">
-        <v>156.4419719491814</v>
+        <v>191.3479479862019</v>
       </c>
       <c r="AC11" t="n">
-        <v>141.511369714081</v>
+        <v>173.0859683889846</v>
       </c>
       <c r="AD11" t="n">
-        <v>114337.7632825144</v>
+        <v>139849.2751583857</v>
       </c>
       <c r="AE11" t="n">
-        <v>156441.9719491814</v>
+        <v>191347.9479862019</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.843178270999944e-06</v>
+        <v>5.081567990416938e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.123697916666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>141511.3697140811</v>
+        <v>173085.9683889846</v>
       </c>
     </row>
     <row r="12">
@@ -29830,28 +29830,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>113.3078192124485</v>
+        <v>138.8193310883198</v>
       </c>
       <c r="AB12" t="n">
-        <v>155.0327570345924</v>
+        <v>189.9387330716129</v>
       </c>
       <c r="AC12" t="n">
-        <v>140.2366482930944</v>
+        <v>171.811246967998</v>
       </c>
       <c r="AD12" t="n">
-        <v>113307.8192124485</v>
+        <v>138819.3310883198</v>
       </c>
       <c r="AE12" t="n">
-        <v>155032.7570345924</v>
+        <v>189938.733071613</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.869400825838951e-06</v>
+        <v>5.128435151950916e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.078125</v>
       </c>
       <c r="AH12" t="n">
-        <v>140236.6482930944</v>
+        <v>171811.246967998</v>
       </c>
     </row>
     <row r="13">
@@ -29936,28 +29936,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>99.08317668780295</v>
+        <v>137.2649693842117</v>
       </c>
       <c r="AB13" t="n">
-        <v>135.5699735854439</v>
+        <v>187.8119868144546</v>
       </c>
       <c r="AC13" t="n">
-        <v>122.6313655801384</v>
+        <v>169.887474388715</v>
       </c>
       <c r="AD13" t="n">
-        <v>99083.17668780294</v>
+        <v>137264.9693842117</v>
       </c>
       <c r="AE13" t="n">
-        <v>135569.9735854439</v>
+        <v>187811.9868144546</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.921868309710514e-06</v>
+        <v>5.222209464064549e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.986979166666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>122631.3655801384</v>
+        <v>169887.474388715</v>
       </c>
     </row>
     <row r="14">
@@ -30042,28 +30042,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>98.50864218621591</v>
+        <v>136.6904348826246</v>
       </c>
       <c r="AB14" t="n">
-        <v>134.7838701336996</v>
+        <v>187.0258833627102</v>
       </c>
       <c r="AC14" t="n">
-        <v>121.9202867385252</v>
+        <v>169.1763955471017</v>
       </c>
       <c r="AD14" t="n">
-        <v>98508.6421862159</v>
+        <v>136690.4348826246</v>
       </c>
       <c r="AE14" t="n">
-        <v>134783.8701336996</v>
+        <v>187025.8833627102</v>
       </c>
       <c r="AF14" t="n">
-        <v>2.922830400033105e-06</v>
+        <v>5.223928993028679e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4.986979166666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>121920.2867385252</v>
+        <v>169176.3955471017</v>
       </c>
     </row>
     <row r="15">
@@ -30148,28 +30148,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>97.46319357126688</v>
+        <v>135.6449862676756</v>
       </c>
       <c r="AB15" t="n">
-        <v>133.3534412167893</v>
+        <v>185.5954544457999</v>
       </c>
       <c r="AC15" t="n">
-        <v>120.6263759498247</v>
+        <v>167.8824847584013</v>
       </c>
       <c r="AD15" t="n">
-        <v>97463.19357126688</v>
+        <v>135644.9862676756</v>
       </c>
       <c r="AE15" t="n">
-        <v>133353.4412167893</v>
+        <v>185595.4544457999</v>
       </c>
       <c r="AF15" t="n">
-        <v>2.955429600033474e-06</v>
+        <v>5.282193032580731e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>5</v>
+        <v>4.928385416666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>120626.3759498248</v>
+        <v>167882.4847584013</v>
       </c>
     </row>
     <row r="16">
@@ -30254,28 +30254,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>96.57928376428416</v>
+        <v>134.7610764606929</v>
       </c>
       <c r="AB16" t="n">
-        <v>132.1440368235276</v>
+        <v>184.3860500525383</v>
       </c>
       <c r="AC16" t="n">
-        <v>119.5323954144458</v>
+        <v>166.7885042230224</v>
       </c>
       <c r="AD16" t="n">
-        <v>96579.28376428416</v>
+        <v>134761.0764606929</v>
       </c>
       <c r="AE16" t="n">
-        <v>132144.0368235276</v>
+        <v>184386.0500525383</v>
       </c>
       <c r="AF16" t="n">
-        <v>2.980242580678917e-06</v>
+        <v>5.32654088423703e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>5</v>
+        <v>4.889322916666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>119532.3954144458</v>
+        <v>166788.5042230224</v>
       </c>
     </row>
     <row r="17">
@@ -30360,28 +30360,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>95.66422407454635</v>
+        <v>133.8460167709551</v>
       </c>
       <c r="AB17" t="n">
-        <v>130.8920117864446</v>
+        <v>183.1340250154552</v>
       </c>
       <c r="AC17" t="n">
-        <v>118.3998618896735</v>
+        <v>165.65597069825</v>
       </c>
       <c r="AD17" t="n">
-        <v>95664.22407454635</v>
+        <v>133846.0167709551</v>
       </c>
       <c r="AE17" t="n">
-        <v>130892.0117864446</v>
+        <v>183134.0250154552</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.004473832292094e-06</v>
+        <v>5.369849020705714e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>5</v>
+        <v>4.850260416666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>118399.8618896735</v>
+        <v>165655.97069825</v>
       </c>
     </row>
     <row r="18">
@@ -30466,28 +30466,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>95.7782218947093</v>
+        <v>133.960014591118</v>
       </c>
       <c r="AB18" t="n">
-        <v>131.0479886332203</v>
+        <v>183.290001862231</v>
       </c>
       <c r="AC18" t="n">
-        <v>118.5409525251079</v>
+        <v>165.7970613336844</v>
       </c>
       <c r="AD18" t="n">
-        <v>95778.22189470931</v>
+        <v>133960.014591118</v>
       </c>
       <c r="AE18" t="n">
-        <v>131047.9886332203</v>
+        <v>183290.001862231</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.000893961324311e-06</v>
+        <v>5.36345077339732e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>5</v>
+        <v>4.856770833333333</v>
       </c>
       <c r="AH18" t="n">
-        <v>118540.9525251079</v>
+        <v>165797.0613336844</v>
       </c>
     </row>
     <row r="19">
@@ -30572,28 +30572,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>95.71720972903142</v>
+        <v>133.8990024254402</v>
       </c>
       <c r="AB19" t="n">
-        <v>130.9645090964731</v>
+        <v>183.2065223254838</v>
       </c>
       <c r="AC19" t="n">
-        <v>118.4654401581835</v>
+        <v>165.7215489667601</v>
       </c>
       <c r="AD19" t="n">
-        <v>95717.20972903143</v>
+        <v>133899.0024254402</v>
       </c>
       <c r="AE19" t="n">
-        <v>130964.5090964731</v>
+        <v>183206.5223254838</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.002124541969487e-06</v>
+        <v>5.36565017090958e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>5</v>
+        <v>4.850260416666667</v>
       </c>
       <c r="AH19" t="n">
-        <v>118465.4401581835</v>
+        <v>165721.5489667601</v>
       </c>
     </row>
   </sheetData>
@@ -30869,28 +30869,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>104.000678845859</v>
+        <v>138.76771844328</v>
       </c>
       <c r="AB2" t="n">
-        <v>142.2983169829769</v>
+        <v>189.8681143736804</v>
       </c>
       <c r="AC2" t="n">
-        <v>128.7175653271022</v>
+        <v>171.7473680194821</v>
       </c>
       <c r="AD2" t="n">
-        <v>104000.678845859</v>
+        <v>138767.7184432801</v>
       </c>
       <c r="AE2" t="n">
-        <v>142298.3169829769</v>
+        <v>189868.1143736804</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.96051607942571e-06</v>
+        <v>5.692193387966023e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.358072916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>128717.5653271022</v>
+        <v>171747.3680194821</v>
       </c>
     </row>
     <row r="3">
@@ -30975,28 +30975,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>100.1865763911267</v>
+        <v>123.4784204316866</v>
       </c>
       <c r="AB3" t="n">
-        <v>137.0796937380901</v>
+        <v>168.9486223180054</v>
       </c>
       <c r="AC3" t="n">
-        <v>123.997000160322</v>
+        <v>152.8244029249026</v>
       </c>
       <c r="AD3" t="n">
-        <v>100186.5763911267</v>
+        <v>123478.4204316866</v>
       </c>
       <c r="AE3" t="n">
-        <v>137079.6937380901</v>
+        <v>168948.6223180054</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.139190816667198e-06</v>
+        <v>6.035731855799597e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.052083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>123997.000160322</v>
+        <v>152824.4029249026</v>
       </c>
     </row>
     <row r="4">
@@ -31081,28 +31081,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>85.9065118228629</v>
+        <v>120.7588027663046</v>
       </c>
       <c r="AB4" t="n">
-        <v>117.5410794038152</v>
+        <v>165.227521447168</v>
       </c>
       <c r="AC4" t="n">
-        <v>106.3231237554867</v>
+        <v>149.4584386985788</v>
       </c>
       <c r="AD4" t="n">
-        <v>85906.5118228629</v>
+        <v>120758.8027663046</v>
       </c>
       <c r="AE4" t="n">
-        <v>117541.0794038152</v>
+        <v>165227.521447168</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.267529492189222e-06</v>
+        <v>6.282489022667777e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.856770833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>106323.1237554867</v>
+        <v>149458.4386985788</v>
       </c>
     </row>
     <row r="5">
@@ -31187,28 +31187,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>83.50622191307659</v>
+        <v>118.3585128565182</v>
       </c>
       <c r="AB5" t="n">
-        <v>114.25689685593</v>
+        <v>161.9433388992828</v>
       </c>
       <c r="AC5" t="n">
-        <v>103.3523789805914</v>
+        <v>146.4876939236835</v>
       </c>
       <c r="AD5" t="n">
-        <v>83506.22191307659</v>
+        <v>118358.5128565182</v>
       </c>
       <c r="AE5" t="n">
-        <v>114256.89685593</v>
+        <v>161943.3388992828</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.38762914162835e-06</v>
+        <v>6.513404988699976e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.6875</v>
       </c>
       <c r="AH5" t="n">
-        <v>103352.3789805914</v>
+        <v>146487.6939236835</v>
       </c>
     </row>
     <row r="6">
@@ -31293,28 +31293,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>82.06069012481279</v>
+        <v>105.4377855113933</v>
       </c>
       <c r="AB6" t="n">
-        <v>112.2790564908668</v>
+        <v>144.2646297234313</v>
       </c>
       <c r="AC6" t="n">
-        <v>101.5633009240528</v>
+        <v>130.4962159393456</v>
       </c>
       <c r="AD6" t="n">
-        <v>82060.6901248128</v>
+        <v>105437.7855113933</v>
       </c>
       <c r="AE6" t="n">
-        <v>112279.0564908668</v>
+        <v>144264.6297234313</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.451859418931395e-06</v>
+        <v>6.636900740779301e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.596354166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>101563.3009240528</v>
+        <v>130496.2159393456</v>
       </c>
     </row>
     <row r="7">
@@ -31399,28 +31399,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>81.65494751676148</v>
+        <v>105.0320429033419</v>
       </c>
       <c r="AB7" t="n">
-        <v>111.7239015544307</v>
+        <v>143.7094747869953</v>
       </c>
       <c r="AC7" t="n">
-        <v>101.0611291955852</v>
+        <v>129.9940442108779</v>
       </c>
       <c r="AD7" t="n">
-        <v>81654.94751676149</v>
+        <v>105032.0429033419</v>
       </c>
       <c r="AE7" t="n">
-        <v>111723.9015544307</v>
+        <v>143709.4747869953</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.470555670427196e-06</v>
+        <v>6.672848081137877e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.5703125</v>
       </c>
       <c r="AH7" t="n">
-        <v>101061.1291955852</v>
+        <v>129994.044210878</v>
       </c>
     </row>
     <row r="8">
@@ -31505,28 +31505,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>81.63883823331541</v>
+        <v>105.0159336198959</v>
       </c>
       <c r="AB8" t="n">
-        <v>111.7018601221284</v>
+        <v>143.6874333546929</v>
       </c>
       <c r="AC8" t="n">
-        <v>101.0411913666464</v>
+        <v>129.9741063819392</v>
       </c>
       <c r="AD8" t="n">
-        <v>81638.83823331541</v>
+        <v>105015.9336198959</v>
       </c>
       <c r="AE8" t="n">
-        <v>111701.8601221284</v>
+        <v>143687.4333546929</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.471920716168741e-06</v>
+        <v>6.675472658791175e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.5703125</v>
       </c>
       <c r="AH8" t="n">
-        <v>101041.1913666464</v>
+        <v>129974.1063819392</v>
       </c>
     </row>
   </sheetData>
@@ -31802,28 +31802,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>117.963511092154</v>
+        <v>166.1642511404883</v>
       </c>
       <c r="AB2" t="n">
-        <v>161.402880059032</v>
+        <v>227.3532590597023</v>
       </c>
       <c r="AC2" t="n">
-        <v>145.9988157166073</v>
+        <v>205.6549831074129</v>
       </c>
       <c r="AD2" t="n">
-        <v>117963.511092154</v>
+        <v>166164.2511404883</v>
       </c>
       <c r="AE2" t="n">
-        <v>161402.8800590319</v>
+        <v>227353.2590597023</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.554398897193774e-06</v>
+        <v>4.758651403449577e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.99609375</v>
       </c>
       <c r="AH2" t="n">
-        <v>145998.8157166074</v>
+        <v>205654.9831074129</v>
       </c>
     </row>
     <row r="3">
@@ -31908,28 +31908,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>111.9649965106239</v>
+        <v>148.2435628287321</v>
       </c>
       <c r="AB3" t="n">
-        <v>153.1954477728004</v>
+        <v>202.8333827065995</v>
       </c>
       <c r="AC3" t="n">
-        <v>138.5746892485676</v>
+        <v>183.47524933958</v>
       </c>
       <c r="AD3" t="n">
-        <v>111964.996510624</v>
+        <v>148243.5628287321</v>
       </c>
       <c r="AE3" t="n">
-        <v>153195.4477728004</v>
+        <v>202833.3827065995</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.765940055589151e-06</v>
+        <v>5.152736536899721e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.540364583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>138574.6892485676</v>
+        <v>183475.24933958</v>
       </c>
     </row>
     <row r="4">
@@ -32014,28 +32014,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>108.4238856275011</v>
+        <v>132.609686014791</v>
       </c>
       <c r="AB4" t="n">
-        <v>148.3503436397277</v>
+        <v>181.4424227318088</v>
       </c>
       <c r="AC4" t="n">
-        <v>134.1919950538074</v>
+        <v>164.1258125623756</v>
       </c>
       <c r="AD4" t="n">
-        <v>108423.8856275011</v>
+        <v>132609.686014791</v>
       </c>
       <c r="AE4" t="n">
-        <v>148350.3436397277</v>
+        <v>181442.4227318089</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.906308707684225e-06</v>
+        <v>5.414232689292509e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.2734375</v>
       </c>
       <c r="AH4" t="n">
-        <v>134191.9950538074</v>
+        <v>164125.8125623756</v>
       </c>
     </row>
     <row r="5">
@@ -32120,28 +32120,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>105.8698511935856</v>
+        <v>130.0556515808754</v>
       </c>
       <c r="AB5" t="n">
-        <v>144.8558010511993</v>
+        <v>177.9478801432804</v>
       </c>
       <c r="AC5" t="n">
-        <v>131.0309667053057</v>
+        <v>160.9647842138739</v>
       </c>
       <c r="AD5" t="n">
-        <v>105869.8511935856</v>
+        <v>130055.6515808754</v>
       </c>
       <c r="AE5" t="n">
-        <v>144855.8010511993</v>
+        <v>177947.8801432804</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.013855658526764e-06</v>
+        <v>5.614584501660499e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.084635416666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>131030.9667053057</v>
+        <v>160964.7842138738</v>
       </c>
     </row>
     <row r="6">
@@ -32226,28 +32226,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>90.92963640285268</v>
+        <v>127.1228618663892</v>
       </c>
       <c r="AB6" t="n">
-        <v>124.4139400587702</v>
+        <v>173.9351078703717</v>
       </c>
       <c r="AC6" t="n">
-        <v>112.5400482356554</v>
+        <v>157.3349852947291</v>
       </c>
       <c r="AD6" t="n">
-        <v>90929.63640285267</v>
+        <v>127122.8618663892</v>
       </c>
       <c r="AE6" t="n">
-        <v>124413.9400587702</v>
+        <v>173935.1078703717</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.131284411896948e-06</v>
+        <v>5.833345362638107e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.889322916666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>112540.0482356554</v>
+        <v>157334.9852947291</v>
       </c>
     </row>
     <row r="7">
@@ -32332,28 +32332,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>90.65825595346091</v>
+        <v>126.8514814169974</v>
       </c>
       <c r="AB7" t="n">
-        <v>124.0426253554521</v>
+        <v>173.5637931670536</v>
       </c>
       <c r="AC7" t="n">
-        <v>112.2041712864785</v>
+        <v>156.9991083455521</v>
       </c>
       <c r="AD7" t="n">
-        <v>90658.2559534609</v>
+        <v>126851.4814169974</v>
       </c>
       <c r="AE7" t="n">
-        <v>124042.6253554521</v>
+        <v>173563.7931670536</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.141966169867308e-06</v>
+        <v>5.85324466756374e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.876302083333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>112204.1712864784</v>
+        <v>156999.1083455521</v>
       </c>
     </row>
     <row r="8">
@@ -32438,28 +32438,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>89.15015453951177</v>
+        <v>125.3433800030483</v>
       </c>
       <c r="AB8" t="n">
-        <v>121.9791744681492</v>
+        <v>171.5003422797507</v>
       </c>
       <c r="AC8" t="n">
-        <v>110.3376532557876</v>
+        <v>155.1325903148612</v>
       </c>
       <c r="AD8" t="n">
-        <v>89150.15453951177</v>
+        <v>125343.3800030483</v>
       </c>
       <c r="AE8" t="n">
-        <v>121979.1744681492</v>
+        <v>171500.3422797507</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.196998398705789e-06</v>
+        <v>5.955765535892054e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.791666666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>110337.6532557876</v>
+        <v>155132.5903148612</v>
       </c>
     </row>
     <row r="9">
@@ -32544,28 +32544,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>87.83905834105379</v>
+        <v>124.0322838045903</v>
       </c>
       <c r="AB9" t="n">
-        <v>120.1852748079378</v>
+        <v>169.7064426195394</v>
       </c>
       <c r="AC9" t="n">
-        <v>108.7149608613922</v>
+        <v>153.5098979204658</v>
       </c>
       <c r="AD9" t="n">
-        <v>87839.05834105378</v>
+        <v>124032.2838045903</v>
       </c>
       <c r="AE9" t="n">
-        <v>120185.2748079378</v>
+        <v>169706.4426195394</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.248124962735725e-06</v>
+        <v>6.05101044691276e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.713541666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>108714.9608613922</v>
+        <v>153509.8979204659</v>
       </c>
     </row>
     <row r="10">
@@ -32650,28 +32650,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>87.01263235566248</v>
+        <v>123.205857819199</v>
       </c>
       <c r="AB10" t="n">
-        <v>119.0545223153847</v>
+        <v>168.5756901269862</v>
       </c>
       <c r="AC10" t="n">
-        <v>107.6921257997069</v>
+        <v>152.4870628587805</v>
       </c>
       <c r="AD10" t="n">
-        <v>87012.63235566247</v>
+        <v>123205.857819199</v>
       </c>
       <c r="AE10" t="n">
-        <v>119054.5223153847</v>
+        <v>168575.6901269862</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.273229446776195e-06</v>
+        <v>6.09777819659481e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.680989583333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>107692.1257997069</v>
+        <v>152487.0628587805</v>
       </c>
     </row>
     <row r="11">
@@ -32756,28 +32756,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>86.89613301546834</v>
+        <v>123.0893584790049</v>
       </c>
       <c r="AB11" t="n">
-        <v>118.895122778543</v>
+        <v>168.4162905901446</v>
       </c>
       <c r="AC11" t="n">
-        <v>107.5479391309427</v>
+        <v>152.3428761900163</v>
       </c>
       <c r="AD11" t="n">
-        <v>86896.13301546834</v>
+        <v>123089.3584790049</v>
       </c>
       <c r="AE11" t="n">
-        <v>118895.122778543</v>
+        <v>168416.2905901446</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.272594188042274e-06</v>
+        <v>6.096594757755619e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.680989583333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>107547.9391309427</v>
+        <v>152342.8761900163</v>
       </c>
     </row>
   </sheetData>
@@ -33053,28 +33053,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>79.93917545328063</v>
+        <v>113.2152850660357</v>
       </c>
       <c r="AB2" t="n">
-        <v>109.3763065226562</v>
+        <v>154.906147733152</v>
       </c>
       <c r="AC2" t="n">
-        <v>98.93758533877214</v>
+        <v>140.1221224056862</v>
       </c>
       <c r="AD2" t="n">
-        <v>79939.17545328062</v>
+        <v>113215.2850660357</v>
       </c>
       <c r="AE2" t="n">
-        <v>109376.3065226562</v>
+        <v>154906.147733152</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.447590825999525e-06</v>
+        <v>6.910686691715439e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.8046875</v>
       </c>
       <c r="AH2" t="n">
-        <v>98937.58533877214</v>
+        <v>140122.1224056862</v>
       </c>
     </row>
     <row r="3">
@@ -33159,28 +33159,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>77.05438554134101</v>
+        <v>99.3806933741304</v>
       </c>
       <c r="AB3" t="n">
-        <v>105.4292096971936</v>
+        <v>135.9770490411868</v>
       </c>
       <c r="AC3" t="n">
-        <v>95.36719389454524</v>
+        <v>122.9995903257193</v>
       </c>
       <c r="AD3" t="n">
-        <v>77054.38554134101</v>
+        <v>99380.69337413041</v>
       </c>
       <c r="AE3" t="n">
-        <v>105429.2096971936</v>
+        <v>135977.0490411868</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.623603898182231e-06</v>
+        <v>7.263504429344825e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.5703125</v>
       </c>
       <c r="AH3" t="n">
-        <v>95367.19389454524</v>
+        <v>122999.5903257193</v>
       </c>
     </row>
     <row r="4">
@@ -33265,28 +33265,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>76.59150809622797</v>
+        <v>98.91781592901738</v>
       </c>
       <c r="AB4" t="n">
-        <v>104.7958803560786</v>
+        <v>135.3437197000718</v>
       </c>
       <c r="AC4" t="n">
-        <v>94.79430861686275</v>
+        <v>122.4267050480368</v>
       </c>
       <c r="AD4" t="n">
-        <v>76591.50809622798</v>
+        <v>98917.81592901738</v>
       </c>
       <c r="AE4" t="n">
-        <v>104795.8803560786</v>
+        <v>135343.7197000718</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.644501473346656e-06</v>
+        <v>7.305393563487085e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.544270833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>94794.30861686275</v>
+        <v>122426.7050480368</v>
       </c>
     </row>
   </sheetData>
@@ -33562,28 +33562,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>72.17008762815627</v>
+        <v>93.54592649647169</v>
       </c>
       <c r="AB2" t="n">
-        <v>98.74629781236148</v>
+        <v>127.9936635874307</v>
       </c>
       <c r="AC2" t="n">
-        <v>89.32208974047366</v>
+        <v>115.7781279749153</v>
       </c>
       <c r="AD2" t="n">
-        <v>72170.08762815627</v>
+        <v>93545.9264964717</v>
       </c>
       <c r="AE2" t="n">
-        <v>98746.29781236147</v>
+        <v>127993.6635874307</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.780878002846214e-06</v>
+        <v>7.909833230188769e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.563802083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>89322.08974047366</v>
+        <v>115778.1279749153</v>
       </c>
     </row>
   </sheetData>
@@ -58760,28 +58760,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>167.7498787469954</v>
+        <v>205.7544666216446</v>
       </c>
       <c r="AB2" t="n">
-        <v>229.5227847038772</v>
+        <v>281.5223384780316</v>
       </c>
       <c r="AC2" t="n">
-        <v>207.6174522690569</v>
+        <v>254.6542416128546</v>
       </c>
       <c r="AD2" t="n">
-        <v>167749.8787469954</v>
+        <v>205754.4666216446</v>
       </c>
       <c r="AE2" t="n">
-        <v>229522.7847038772</v>
+        <v>281522.3384780316</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.074368107637856e-06</v>
+        <v>3.726613426588876e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.0703125</v>
       </c>
       <c r="AH2" t="n">
-        <v>207617.4522690569</v>
+        <v>254654.2416128546</v>
       </c>
     </row>
     <row r="3">
@@ -58866,28 +58866,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>144.8891764510673</v>
+        <v>182.8084234711449</v>
       </c>
       <c r="AB3" t="n">
-        <v>198.2437632795981</v>
+        <v>250.1265499315549</v>
       </c>
       <c r="AC3" t="n">
-        <v>179.3236567491187</v>
+        <v>226.2548230609777</v>
       </c>
       <c r="AD3" t="n">
-        <v>144889.1764510673</v>
+        <v>182808.4234711449</v>
       </c>
       <c r="AE3" t="n">
-        <v>198243.7632795981</v>
+        <v>250126.5499315549</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.290628279359741e-06</v>
+        <v>4.115125984513283e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.399739583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>179323.6567491187</v>
+        <v>226254.8230609777</v>
       </c>
     </row>
     <row r="4">
@@ -58972,28 +58972,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>125.405293083451</v>
+        <v>175.9072758624387</v>
       </c>
       <c r="AB4" t="n">
-        <v>171.58505448777</v>
+        <v>240.6840953161828</v>
       </c>
       <c r="AC4" t="n">
-        <v>155.2092177086415</v>
+        <v>217.7135430615254</v>
       </c>
       <c r="AD4" t="n">
-        <v>125405.293083451</v>
+        <v>175907.2758624387</v>
       </c>
       <c r="AE4" t="n">
-        <v>171585.05448777</v>
+        <v>240684.0953161828</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.466757697566225e-06</v>
+        <v>4.431543428596047e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.944010416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>155209.2177086415</v>
+        <v>217713.5430615254</v>
       </c>
     </row>
     <row r="5">
@@ -59078,28 +59078,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>121.8066686175648</v>
+        <v>159.8111669836629</v>
       </c>
       <c r="AB5" t="n">
-        <v>166.6612577334402</v>
+        <v>218.6606890380462</v>
       </c>
       <c r="AC5" t="n">
-        <v>150.7553412059512</v>
+        <v>197.7920197685224</v>
       </c>
       <c r="AD5" t="n">
-        <v>121806.6686175648</v>
+        <v>159811.1669836629</v>
       </c>
       <c r="AE5" t="n">
-        <v>166661.2577334402</v>
+        <v>218660.6890380462</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.578952654925221e-06</v>
+        <v>4.633102270997318e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.68359375</v>
       </c>
       <c r="AH5" t="n">
-        <v>150755.3412059512</v>
+        <v>197792.0197685224</v>
       </c>
     </row>
     <row r="6">
@@ -59184,28 +59184,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>119.34709981875</v>
+        <v>157.3515981848481</v>
       </c>
       <c r="AB6" t="n">
-        <v>163.2959671943862</v>
+        <v>215.2953984989923</v>
       </c>
       <c r="AC6" t="n">
-        <v>147.7112292727285</v>
+        <v>194.7479078352997</v>
       </c>
       <c r="AD6" t="n">
-        <v>119347.0998187499</v>
+        <v>157351.5981848481</v>
       </c>
       <c r="AE6" t="n">
-        <v>163295.9671943862</v>
+        <v>215295.3984989923</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.659844723739655e-06</v>
+        <v>4.778425306305499e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.514322916666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>147711.2292727285</v>
+        <v>194747.9078352997</v>
       </c>
     </row>
     <row r="7">
@@ -59290,28 +59290,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>117.2393489930529</v>
+        <v>155.0732551585588</v>
       </c>
       <c r="AB7" t="n">
-        <v>160.4120495272652</v>
+        <v>212.1780690570243</v>
       </c>
       <c r="AC7" t="n">
-        <v>145.1025486601527</v>
+        <v>191.9280919400728</v>
       </c>
       <c r="AD7" t="n">
-        <v>117239.3489930529</v>
+        <v>155073.2551585588</v>
       </c>
       <c r="AE7" t="n">
-        <v>160412.0495272652</v>
+        <v>212178.0690570243</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.728868718983598e-06</v>
+        <v>4.902427283816518e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.37109375</v>
       </c>
       <c r="AH7" t="n">
-        <v>145102.5486601527</v>
+        <v>191928.0919400729</v>
       </c>
     </row>
     <row r="8">
@@ -59396,28 +59396,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>114.2917213857549</v>
+        <v>139.6281431383714</v>
       </c>
       <c r="AB8" t="n">
-        <v>156.37897539481</v>
+        <v>191.0453854007624</v>
       </c>
       <c r="AC8" t="n">
-        <v>141.4543854624426</v>
+        <v>172.81228195205</v>
       </c>
       <c r="AD8" t="n">
-        <v>114291.7213857549</v>
+        <v>139628.1431383714</v>
       </c>
       <c r="AE8" t="n">
-        <v>156378.97539481</v>
+        <v>191045.3854007624</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.821966662324041e-06</v>
+        <v>5.069678238149486e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.1953125</v>
       </c>
       <c r="AH8" t="n">
-        <v>141454.3854624426</v>
+        <v>172812.28195205</v>
       </c>
     </row>
     <row r="9">
@@ -59502,28 +59502,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>114.0603372235909</v>
+        <v>139.3967589762074</v>
       </c>
       <c r="AB9" t="n">
-        <v>156.0623853761885</v>
+        <v>190.7287953821409</v>
       </c>
       <c r="AC9" t="n">
-        <v>141.1680103508614</v>
+        <v>172.5259068404687</v>
       </c>
       <c r="AD9" t="n">
-        <v>114060.3372235909</v>
+        <v>139396.7589762074</v>
       </c>
       <c r="AE9" t="n">
-        <v>156062.3853761885</v>
+        <v>190728.7953821409</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.838969310418389e-06</v>
+        <v>5.100223586606524e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.162760416666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>141168.0103508614</v>
+        <v>172525.9068404687</v>
       </c>
     </row>
     <row r="10">
@@ -59608,28 +59608,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>113.2927703204243</v>
+        <v>138.6291920730408</v>
       </c>
       <c r="AB10" t="n">
-        <v>155.0121664766147</v>
+        <v>189.6785764825671</v>
       </c>
       <c r="AC10" t="n">
-        <v>140.2180228690711</v>
+        <v>171.5759193586784</v>
       </c>
       <c r="AD10" t="n">
-        <v>113292.7703204243</v>
+        <v>138629.1920730408</v>
       </c>
       <c r="AE10" t="n">
-        <v>155012.1664766147</v>
+        <v>189678.5764825671</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.860701171889973e-06</v>
+        <v>5.139264992250287e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.123697916666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>140218.0228690711</v>
+        <v>171575.9193586785</v>
       </c>
     </row>
     <row r="11">
@@ -59714,28 +59714,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>111.7887901867301</v>
+        <v>137.1252119393466</v>
       </c>
       <c r="AB11" t="n">
-        <v>152.9543545067745</v>
+        <v>187.6207645127269</v>
       </c>
       <c r="AC11" t="n">
-        <v>138.3566055854746</v>
+        <v>169.7145020750819</v>
       </c>
       <c r="AD11" t="n">
-        <v>111788.7901867301</v>
+        <v>137125.2119393466</v>
       </c>
       <c r="AE11" t="n">
-        <v>152954.3545067745</v>
+        <v>187620.7645127269</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.91438900375345e-06</v>
+        <v>5.235715470027209e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.032552083333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>138356.6055854746</v>
+        <v>169714.5020750819</v>
       </c>
     </row>
     <row r="12">
@@ -59820,28 +59820,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>98.15255015705276</v>
+        <v>136.0717076685793</v>
       </c>
       <c r="AB12" t="n">
-        <v>134.2966493097272</v>
+        <v>186.1793134921356</v>
       </c>
       <c r="AC12" t="n">
-        <v>121.4795655861738</v>
+        <v>168.4106211168062</v>
       </c>
       <c r="AD12" t="n">
-        <v>98152.55015705276</v>
+        <v>136071.7076685793</v>
       </c>
       <c r="AE12" t="n">
-        <v>134296.6493097272</v>
+        <v>186179.3134921356</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.940287077009742e-06</v>
+        <v>5.282241497478325e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.986979166666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>121479.5655861738</v>
+        <v>168410.6211168062</v>
       </c>
     </row>
     <row r="13">
@@ -59926,28 +59926,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>97.16620174573706</v>
+        <v>135.0853592572636</v>
       </c>
       <c r="AB13" t="n">
-        <v>132.9470838987449</v>
+        <v>184.8297480811534</v>
       </c>
       <c r="AC13" t="n">
-        <v>120.2588008038884</v>
+        <v>167.1898563345207</v>
       </c>
       <c r="AD13" t="n">
-        <v>97166.20174573705</v>
+        <v>135085.3592572636</v>
       </c>
       <c r="AE13" t="n">
-        <v>132947.083898745</v>
+        <v>184829.7480811533</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.968707397400559e-06</v>
+        <v>5.333298755429027e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.94140625</v>
       </c>
       <c r="AH13" t="n">
-        <v>120258.8008038884</v>
+        <v>167189.8563345207</v>
       </c>
     </row>
     <row r="14">
@@ -60032,28 +60032,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>96.09480599537639</v>
+        <v>134.0139635069029</v>
       </c>
       <c r="AB14" t="n">
-        <v>131.4811529664576</v>
+        <v>183.363817148866</v>
       </c>
       <c r="AC14" t="n">
-        <v>118.9327762623311</v>
+        <v>165.8638317929634</v>
       </c>
       <c r="AD14" t="n">
-        <v>96094.80599537639</v>
+        <v>134013.9635069029</v>
       </c>
       <c r="AE14" t="n">
-        <v>131481.1529664577</v>
+        <v>183363.817148866</v>
       </c>
       <c r="AF14" t="n">
-        <v>2.997352918428388e-06</v>
+        <v>5.384760587531479e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4.889322916666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>118932.7762623311</v>
+        <v>165863.8317929634</v>
       </c>
     </row>
     <row r="15">
@@ -60138,28 +60138,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>94.67629174234128</v>
+        <v>132.5954492538678</v>
       </c>
       <c r="AB15" t="n">
-        <v>129.5402791850238</v>
+        <v>181.4229433674323</v>
       </c>
       <c r="AC15" t="n">
-        <v>117.1771367505632</v>
+        <v>164.1081922811956</v>
       </c>
       <c r="AD15" t="n">
-        <v>94676.29174234127</v>
+        <v>132595.4492538678</v>
       </c>
       <c r="AE15" t="n">
-        <v>129540.2791850239</v>
+        <v>181422.9433674322</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.036875630223859e-06</v>
+        <v>5.4557633511634e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>5</v>
+        <v>4.830729166666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>117177.1367505633</v>
+        <v>164108.1922811956</v>
       </c>
     </row>
     <row r="16">
@@ -60244,28 +60244,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>94.0222748142654</v>
+        <v>131.9414323257919</v>
       </c>
       <c r="AB16" t="n">
-        <v>128.6454243708404</v>
+        <v>180.5280885532487</v>
       </c>
       <c r="AC16" t="n">
-        <v>116.3676856239085</v>
+        <v>163.2987411545409</v>
       </c>
       <c r="AD16" t="n">
-        <v>94022.2748142654</v>
+        <v>131941.4323257919</v>
       </c>
       <c r="AE16" t="n">
-        <v>128645.4243708404</v>
+        <v>180528.0885532487</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.04932922545058e-06</v>
+        <v>5.478136301755111e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>5</v>
+        <v>4.811197916666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>116367.6856239085</v>
+        <v>163298.7411545409</v>
       </c>
     </row>
     <row r="17">
@@ -60350,28 +60350,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>94.00361132808091</v>
+        <v>131.9227688396074</v>
       </c>
       <c r="AB17" t="n">
-        <v>128.6198881656678</v>
+        <v>180.5025523480763</v>
       </c>
       <c r="AC17" t="n">
-        <v>116.3445865583174</v>
+        <v>163.2756420889498</v>
       </c>
       <c r="AD17" t="n">
-        <v>94003.61132808091</v>
+        <v>131922.7688396075</v>
       </c>
       <c r="AE17" t="n">
-        <v>128619.8881656679</v>
+        <v>180502.5523480762</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.050455228635637e-06</v>
+        <v>5.480159172513856e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>5</v>
+        <v>4.8046875</v>
       </c>
       <c r="AH17" t="n">
-        <v>116344.5865583174</v>
+        <v>163275.6420889497</v>
       </c>
     </row>
   </sheetData>
@@ -60647,28 +60647,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>69.08934898012416</v>
+        <v>99.80016373423412</v>
       </c>
       <c r="AB2" t="n">
-        <v>94.53109528152913</v>
+        <v>136.5509868936066</v>
       </c>
       <c r="AC2" t="n">
-        <v>85.5091802231087</v>
+        <v>123.5187523550312</v>
       </c>
       <c r="AD2" t="n">
-        <v>69089.34898012415</v>
+        <v>99800.16373423411</v>
       </c>
       <c r="AE2" t="n">
-        <v>94531.09528152914</v>
+        <v>136550.9868936066</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.847730784889042e-06</v>
+        <v>8.364411767586768e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.641927083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>85509.18022310871</v>
+        <v>123518.7523550312</v>
       </c>
     </row>
   </sheetData>
@@ -60944,28 +60944,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>73.35942097200744</v>
+        <v>92.38426516263938</v>
       </c>
       <c r="AB2" t="n">
-        <v>100.3735961631018</v>
+        <v>126.4042273016011</v>
       </c>
       <c r="AC2" t="n">
-        <v>90.79408102054747</v>
+        <v>114.3403852574169</v>
       </c>
       <c r="AD2" t="n">
-        <v>73359.42097200744</v>
+        <v>92384.26516263938</v>
       </c>
       <c r="AE2" t="n">
-        <v>100373.5961631018</v>
+        <v>126404.2273016011</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.737843853775417e-06</v>
+        <v>8.8905623916438e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.130208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>90794.08102054747</v>
+        <v>114340.3852574169</v>
       </c>
     </row>
   </sheetData>
@@ -61241,28 +61241,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>100.7362269369606</v>
+        <v>123.7828290478185</v>
       </c>
       <c r="AB2" t="n">
-        <v>137.8317498637703</v>
+        <v>169.3651276161572</v>
       </c>
       <c r="AC2" t="n">
-        <v>124.677281104885</v>
+        <v>153.2011575419677</v>
       </c>
       <c r="AD2" t="n">
-        <v>100736.2269369606</v>
+        <v>123782.8290478185</v>
       </c>
       <c r="AE2" t="n">
-        <v>137831.7498637703</v>
+        <v>169365.1276161572</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.071535338100818e-06</v>
+        <v>5.960554502254678e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.221354166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>124677.281104885</v>
+        <v>153201.1575419677</v>
       </c>
     </row>
     <row r="3">
@@ -61347,28 +61347,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>85.59999642236795</v>
+        <v>120.0844244712566</v>
       </c>
       <c r="AB3" t="n">
-        <v>117.1216915103531</v>
+        <v>164.3048073124132</v>
       </c>
       <c r="AC3" t="n">
-        <v>105.9437616539619</v>
+        <v>148.6237871058073</v>
       </c>
       <c r="AD3" t="n">
-        <v>85599.99642236796</v>
+        <v>120084.4244712566</v>
       </c>
       <c r="AE3" t="n">
-        <v>117121.6915103532</v>
+        <v>164304.8073124132</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.252092239798702e-06</v>
+        <v>6.310939288644249e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.928385416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>105943.7616539619</v>
+        <v>148623.7871058073</v>
       </c>
     </row>
     <row r="4">
@@ -61453,28 +61453,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>82.95272326399522</v>
+        <v>117.4371513128839</v>
       </c>
       <c r="AB4" t="n">
-        <v>113.4995755856202</v>
+        <v>160.6826913876803</v>
       </c>
       <c r="AC4" t="n">
-        <v>102.6673353894127</v>
+        <v>145.3473608412581</v>
       </c>
       <c r="AD4" t="n">
-        <v>82952.72326399523</v>
+        <v>117437.1513128839</v>
       </c>
       <c r="AE4" t="n">
-        <v>113499.5755856202</v>
+        <v>160682.6913876803</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.392101388960942e-06</v>
+        <v>6.582637990607365e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.7265625</v>
       </c>
       <c r="AH4" t="n">
-        <v>102667.3353894127</v>
+        <v>145347.3608412581</v>
       </c>
     </row>
     <row r="5">
@@ -61559,28 +61559,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>81.30606171059819</v>
+        <v>115.7904897594868</v>
       </c>
       <c r="AB5" t="n">
-        <v>111.2465406026829</v>
+        <v>158.429656404743</v>
       </c>
       <c r="AC5" t="n">
-        <v>100.6293269030917</v>
+        <v>143.3093523549371</v>
       </c>
       <c r="AD5" t="n">
-        <v>81306.06171059818</v>
+        <v>115790.4897594868</v>
       </c>
       <c r="AE5" t="n">
-        <v>111246.5406026829</v>
+        <v>158429.656404743</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.467362153685571e-06</v>
+        <v>6.728687389570131e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.622395833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>100629.3269030917</v>
+        <v>143309.3523549371</v>
       </c>
     </row>
     <row r="6">
@@ -61665,28 +61665,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>80.3520755885758</v>
+        <v>103.4839290454543</v>
       </c>
       <c r="AB6" t="n">
-        <v>109.9412547036351</v>
+        <v>141.5912771086712</v>
       </c>
       <c r="AC6" t="n">
-        <v>99.44861565826841</v>
+        <v>128.0780043460634</v>
       </c>
       <c r="AD6" t="n">
-        <v>80352.0755885758</v>
+        <v>103483.9290454543</v>
       </c>
       <c r="AE6" t="n">
-        <v>109941.2547036351</v>
+        <v>141591.2771086712</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.518422286508234e-06</v>
+        <v>6.827773569959001e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.557291666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>99448.61565826841</v>
+        <v>128078.0043460634</v>
       </c>
     </row>
     <row r="7">
@@ -61771,28 +61771,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>80.3377532425223</v>
+        <v>103.4696066994008</v>
       </c>
       <c r="AB7" t="n">
-        <v>109.9216582379074</v>
+        <v>141.5716806429435</v>
       </c>
       <c r="AC7" t="n">
-        <v>99.43088945172593</v>
+        <v>128.0602781395209</v>
       </c>
       <c r="AD7" t="n">
-        <v>80337.7532425223</v>
+        <v>103469.6066994008</v>
       </c>
       <c r="AE7" t="n">
-        <v>109921.6582379074</v>
+        <v>141571.6806429435</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.518840812187109e-06</v>
+        <v>6.828585751765468e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.557291666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>99430.88945172593</v>
+        <v>128060.2781395209</v>
       </c>
     </row>
   </sheetData>
@@ -62068,28 +62068,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>114.479666630028</v>
+        <v>150.440158742401</v>
       </c>
       <c r="AB2" t="n">
-        <v>156.6361303695833</v>
+        <v>205.8388621426521</v>
       </c>
       <c r="AC2" t="n">
-        <v>141.686997927343</v>
+        <v>186.1938900364735</v>
       </c>
       <c r="AD2" t="n">
-        <v>114479.666630028</v>
+        <v>150440.158742401</v>
       </c>
       <c r="AE2" t="n">
-        <v>156636.1303695833</v>
+        <v>205838.8621426522</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.644634737679186e-06</v>
+        <v>4.96237207097073e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.83984375</v>
       </c>
       <c r="AH2" t="n">
-        <v>141686.9979273429</v>
+        <v>186193.8900364735</v>
       </c>
     </row>
     <row r="3">
@@ -62174,28 +62174,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>109.3018908397573</v>
+        <v>145.091790751538</v>
       </c>
       <c r="AB3" t="n">
-        <v>149.5516691059921</v>
+        <v>198.5209891042141</v>
       </c>
       <c r="AC3" t="n">
-        <v>135.2786677036429</v>
+        <v>179.5744245301224</v>
       </c>
       <c r="AD3" t="n">
-        <v>109301.8908397573</v>
+        <v>145091.790751538</v>
       </c>
       <c r="AE3" t="n">
-        <v>149551.6691059921</v>
+        <v>198520.9891042141</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.840806870208781e-06</v>
+        <v>5.330467936043544e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.436197916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>135278.6677036429</v>
+        <v>179574.4245301224</v>
       </c>
     </row>
     <row r="4">
@@ -62280,28 +62280,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>105.7670743782771</v>
+        <v>129.7408252950768</v>
       </c>
       <c r="AB4" t="n">
-        <v>144.7151772783012</v>
+        <v>177.5171209298955</v>
       </c>
       <c r="AC4" t="n">
-        <v>130.9037638679262</v>
+        <v>160.5751360552399</v>
       </c>
       <c r="AD4" t="n">
-        <v>105767.0743782771</v>
+        <v>129740.8252950768</v>
       </c>
       <c r="AE4" t="n">
-        <v>144715.1772783012</v>
+        <v>177517.1209298955</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.987040396017516e-06</v>
+        <v>5.604859387526047e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.169270833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>130903.7638679262</v>
+        <v>160575.1360552399</v>
       </c>
     </row>
     <row r="5">
@@ -62386,28 +62386,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>91.25670291423539</v>
+        <v>127.1318541720367</v>
       </c>
       <c r="AB5" t="n">
-        <v>124.8614468887999</v>
+        <v>173.9474115396712</v>
       </c>
       <c r="AC5" t="n">
-        <v>112.944845641907</v>
+        <v>157.3461147190989</v>
       </c>
       <c r="AD5" t="n">
-        <v>91256.70291423539</v>
+        <v>127131.8541720367</v>
       </c>
       <c r="AE5" t="n">
-        <v>124861.4468887999</v>
+        <v>173947.4115396712</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.096549473748392e-06</v>
+        <v>5.810341370011971e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.986979166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>112944.845641907</v>
+        <v>157346.1147190989</v>
       </c>
     </row>
     <row r="6">
@@ -62492,28 +62492,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>88.85216210400736</v>
+        <v>124.7273133618087</v>
       </c>
       <c r="AB6" t="n">
-        <v>121.5714480713938</v>
+        <v>170.6574127222651</v>
       </c>
       <c r="AC6" t="n">
-        <v>109.9688396940908</v>
+        <v>154.3701087712826</v>
       </c>
       <c r="AD6" t="n">
-        <v>88852.16210400737</v>
+        <v>124727.3133618087</v>
       </c>
       <c r="AE6" t="n">
-        <v>121571.4480713938</v>
+        <v>170657.4127222651</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.20147985737137e-06</v>
+        <v>6.007231926453749e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.82421875</v>
       </c>
       <c r="AH6" t="n">
-        <v>109968.8396940908</v>
+        <v>154370.1087712826</v>
       </c>
     </row>
     <row r="7">
@@ -62598,28 +62598,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>88.07555948180186</v>
+        <v>123.9507107396032</v>
       </c>
       <c r="AB7" t="n">
-        <v>120.5088661024031</v>
+        <v>169.5948307532744</v>
       </c>
       <c r="AC7" t="n">
-        <v>109.0076690568771</v>
+        <v>153.4089381340689</v>
       </c>
       <c r="AD7" t="n">
-        <v>88075.55948180186</v>
+        <v>123950.7107396031</v>
       </c>
       <c r="AE7" t="n">
-        <v>120508.8661024031</v>
+        <v>169594.8307532744</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.230778754901185e-06</v>
+        <v>6.06220815010412e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.778645833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>109007.6690568771</v>
+        <v>153408.9381340689</v>
       </c>
     </row>
     <row r="8">
@@ -62704,28 +62704,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>86.73710735867861</v>
+        <v>122.6122586164799</v>
       </c>
       <c r="AB8" t="n">
-        <v>118.6775368592066</v>
+        <v>167.7635015100778</v>
       </c>
       <c r="AC8" t="n">
-        <v>107.3511193063639</v>
+        <v>151.7523883835557</v>
       </c>
       <c r="AD8" t="n">
-        <v>86737.10735867861</v>
+        <v>122612.2586164799</v>
       </c>
       <c r="AE8" t="n">
-        <v>118677.5368592066</v>
+        <v>167763.5015100779</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.281429075732082e-06</v>
+        <v>6.157248018519945e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.70703125</v>
       </c>
       <c r="AH8" t="n">
-        <v>107351.1193063639</v>
+        <v>151752.3883835557</v>
       </c>
     </row>
     <row r="9">
@@ -62810,28 +62810,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>85.86836548245419</v>
+        <v>121.7435167402555</v>
       </c>
       <c r="AB9" t="n">
-        <v>117.4888858979703</v>
+        <v>166.5748505488415</v>
       </c>
       <c r="AC9" t="n">
-        <v>106.2759115245855</v>
+        <v>150.6771806017773</v>
       </c>
       <c r="AD9" t="n">
-        <v>85868.36548245419</v>
+        <v>121743.5167402555</v>
       </c>
       <c r="AE9" t="n">
-        <v>117488.8858979703</v>
+        <v>166574.8505488415</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.304654679522925e-06</v>
+        <v>6.200828360992588e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.674479166666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>106275.9115245855</v>
+        <v>150677.1806017773</v>
       </c>
     </row>
     <row r="10">
@@ -62916,28 +62916,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>85.50803642160152</v>
+        <v>121.3831876794028</v>
       </c>
       <c r="AB10" t="n">
-        <v>116.9958677803156</v>
+        <v>166.0818324311869</v>
       </c>
       <c r="AC10" t="n">
-        <v>105.8299463641244</v>
+        <v>150.2312154413162</v>
       </c>
       <c r="AD10" t="n">
-        <v>85508.03642160152</v>
+        <v>121383.1876794028</v>
       </c>
       <c r="AE10" t="n">
-        <v>116995.8677803156</v>
+        <v>166081.8324311869</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.329256263926503e-06</v>
+        <v>6.246990582794561e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.641927083333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>105829.9463641244</v>
+        <v>150231.2154413162</v>
       </c>
     </row>
   </sheetData>
@@ -63213,28 +63213,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>141.5037393858091</v>
+        <v>178.5952483197773</v>
       </c>
       <c r="AB2" t="n">
-        <v>193.6116589319719</v>
+        <v>244.3618978172872</v>
       </c>
       <c r="AC2" t="n">
-        <v>175.1336339392292</v>
+        <v>221.0403412537538</v>
       </c>
       <c r="AD2" t="n">
-        <v>141503.7393858091</v>
+        <v>178595.2483197773</v>
       </c>
       <c r="AE2" t="n">
-        <v>193611.6589319719</v>
+        <v>244361.8978172872</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.308171314547464e-06</v>
+        <v>4.2171080623983e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.484375</v>
       </c>
       <c r="AH2" t="n">
-        <v>175133.6339392292</v>
+        <v>221040.3412537538</v>
       </c>
     </row>
     <row r="3">
@@ -63319,28 +63319,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>121.5938819785183</v>
+        <v>170.9922139760267</v>
       </c>
       <c r="AB3" t="n">
-        <v>166.3701136664131</v>
+        <v>233.9590908059706</v>
       </c>
       <c r="AC3" t="n">
-        <v>150.4919835200577</v>
+        <v>211.6303635431626</v>
       </c>
       <c r="AD3" t="n">
-        <v>121593.8819785183</v>
+        <v>170992.2139760267</v>
       </c>
       <c r="AE3" t="n">
-        <v>166370.1136664131</v>
+        <v>233959.0908059706</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.514896902158495e-06</v>
+        <v>4.594802792734825e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.950520833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>150491.9835200577</v>
+        <v>211630.3635431626</v>
       </c>
     </row>
     <row r="4">
@@ -63425,28 +63425,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>116.9797428210206</v>
+        <v>154.1565031010093</v>
       </c>
       <c r="AB4" t="n">
-        <v>160.0568449096749</v>
+        <v>210.9237284476394</v>
       </c>
       <c r="AC4" t="n">
-        <v>144.7812442727323</v>
+        <v>190.7934638379692</v>
       </c>
       <c r="AD4" t="n">
-        <v>116979.7428210206</v>
+        <v>154156.5031010094</v>
       </c>
       <c r="AE4" t="n">
-        <v>160056.8449096749</v>
+        <v>210923.7284476394</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.663727369137275e-06</v>
+        <v>4.866721154370721e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.618489583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>144781.2442727323</v>
+        <v>190793.4638379692</v>
       </c>
     </row>
     <row r="5">
@@ -63531,28 +63531,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>113.6853441171062</v>
+        <v>150.6915121965027</v>
       </c>
       <c r="AB5" t="n">
-        <v>155.5493032643681</v>
+        <v>206.1827750274858</v>
       </c>
       <c r="AC5" t="n">
-        <v>140.7038960756777</v>
+        <v>186.5049803582635</v>
       </c>
       <c r="AD5" t="n">
-        <v>113685.3441171062</v>
+        <v>150691.5121965027</v>
       </c>
       <c r="AE5" t="n">
-        <v>155549.3032643681</v>
+        <v>206182.7750274858</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.783679253306639e-06</v>
+        <v>5.085877355924012e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.377604166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>140703.8960756777</v>
+        <v>186504.9803582635</v>
       </c>
     </row>
     <row r="6">
@@ -63637,28 +63637,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>111.3144088662227</v>
+        <v>136.0990052280995</v>
       </c>
       <c r="AB6" t="n">
-        <v>152.3052850558298</v>
+        <v>186.2166632173546</v>
       </c>
       <c r="AC6" t="n">
-        <v>137.7694824119531</v>
+        <v>168.4444062366709</v>
       </c>
       <c r="AD6" t="n">
-        <v>111314.4088662227</v>
+        <v>136099.0052280995</v>
       </c>
       <c r="AE6" t="n">
-        <v>152305.2850558298</v>
+        <v>186216.6632173545</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.875258389715797e-06</v>
+        <v>5.253195575357933e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.208333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>137769.4824119531</v>
+        <v>168444.4062366709</v>
       </c>
     </row>
     <row r="7">
@@ -63743,28 +63743,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>108.777717714198</v>
+        <v>133.5623140760749</v>
       </c>
       <c r="AB7" t="n">
-        <v>148.8344723107161</v>
+        <v>182.7458504722408</v>
       </c>
       <c r="AC7" t="n">
-        <v>134.6299191639156</v>
+        <v>165.3048429886335</v>
       </c>
       <c r="AD7" t="n">
-        <v>108777.717714198</v>
+        <v>133562.3140760749</v>
       </c>
       <c r="AE7" t="n">
-        <v>148834.4723107161</v>
+        <v>182745.8504722408</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.966147751057851e-06</v>
+        <v>5.419253552114721e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.045572916666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>134629.9191639156</v>
+        <v>165304.8429886335</v>
       </c>
     </row>
     <row r="8">
@@ -63849,28 +63849,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>108.3470267663733</v>
+        <v>133.1316231282502</v>
       </c>
       <c r="AB8" t="n">
-        <v>148.245181955159</v>
+        <v>182.1565601166838</v>
       </c>
       <c r="AC8" t="n">
-        <v>134.0968698528186</v>
+        <v>164.7717936775364</v>
       </c>
       <c r="AD8" t="n">
-        <v>108347.0267663733</v>
+        <v>133131.6231282502</v>
       </c>
       <c r="AE8" t="n">
-        <v>148245.181955159</v>
+        <v>182156.5601166838</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.984863647878603e-06</v>
+        <v>5.453448136754242e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.013020833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>134096.8698528186</v>
+        <v>164771.7936775364</v>
       </c>
     </row>
     <row r="9">
@@ -63955,28 +63955,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>94.49923226458537</v>
+        <v>131.5906516900025</v>
       </c>
       <c r="AB9" t="n">
-        <v>129.2980185962455</v>
+        <v>180.0481350120124</v>
       </c>
       <c r="AC9" t="n">
-        <v>116.9579971723629</v>
+        <v>162.864593705661</v>
       </c>
       <c r="AD9" t="n">
-        <v>94499.23226458537</v>
+        <v>131590.6516900025</v>
       </c>
       <c r="AE9" t="n">
-        <v>129298.0185962455</v>
+        <v>180048.1350120124</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.037217575471787e-06</v>
+        <v>5.549100555948577e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.928385416666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>116957.9971723629</v>
+        <v>162864.593705661</v>
       </c>
     </row>
     <row r="10">
@@ -64061,28 +64061,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>93.59323964940192</v>
+        <v>130.6846590748191</v>
       </c>
       <c r="AB10" t="n">
-        <v>128.0583995305788</v>
+        <v>178.8085159463458</v>
       </c>
       <c r="AC10" t="n">
-        <v>115.8366856105068</v>
+        <v>161.7432821438049</v>
       </c>
       <c r="AD10" t="n">
-        <v>93593.23964940192</v>
+        <v>130684.6590748191</v>
       </c>
       <c r="AE10" t="n">
-        <v>128058.3995305788</v>
+        <v>178808.5159463458</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.060348032722004e-06</v>
+        <v>5.591360693721745e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.889322916666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>115836.6856105068</v>
+        <v>161743.2821438049</v>
       </c>
     </row>
     <row r="11">
@@ -64167,28 +64167,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>92.10010061082849</v>
+        <v>129.1915200362456</v>
       </c>
       <c r="AB11" t="n">
-        <v>126.0154208253584</v>
+        <v>176.7655372411253</v>
       </c>
       <c r="AC11" t="n">
-        <v>113.9886859255733</v>
+        <v>159.8952824588714</v>
       </c>
       <c r="AD11" t="n">
-        <v>92100.10061082849</v>
+        <v>129191.5200362456</v>
       </c>
       <c r="AE11" t="n">
-        <v>126015.4208253584</v>
+        <v>176765.5372411253</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.11727746826031e-06</v>
+        <v>5.69537272267439e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.8046875</v>
       </c>
       <c r="AH11" t="n">
-        <v>113988.6859255733</v>
+        <v>159895.2824588714</v>
       </c>
     </row>
     <row r="12">
@@ -64273,28 +64273,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>91.1627587944259</v>
+        <v>128.2541782198431</v>
       </c>
       <c r="AB12" t="n">
-        <v>124.7329083995546</v>
+        <v>175.4830248153216</v>
       </c>
       <c r="AC12" t="n">
-        <v>112.8285746856703</v>
+        <v>158.7351712189684</v>
       </c>
       <c r="AD12" t="n">
-        <v>91162.7587944259</v>
+        <v>128254.178219843</v>
       </c>
       <c r="AE12" t="n">
-        <v>124732.9083995546</v>
+        <v>175483.0248153216</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.144638545922098e-06</v>
+        <v>5.745362348867302e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.759114583333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>112828.5746856703</v>
+        <v>158735.1712189684</v>
       </c>
     </row>
     <row r="13">
@@ -64379,28 +64379,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>90.33689652429074</v>
+        <v>127.4283159497079</v>
       </c>
       <c r="AB13" t="n">
-        <v>123.6029272070842</v>
+        <v>174.3530436228512</v>
       </c>
       <c r="AC13" t="n">
-        <v>111.8064373122705</v>
+        <v>157.7130338455686</v>
       </c>
       <c r="AD13" t="n">
-        <v>90336.89652429074</v>
+        <v>127428.3159497079</v>
       </c>
       <c r="AE13" t="n">
-        <v>123602.9272070843</v>
+        <v>174353.0436228512</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.167608055656656e-06</v>
+        <v>5.787328430015804e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.7265625</v>
       </c>
       <c r="AH13" t="n">
-        <v>111806.4373122705</v>
+        <v>157713.0338455686</v>
       </c>
     </row>
     <row r="14">
@@ -64485,28 +64485,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>90.58132518429456</v>
+        <v>127.6727446097117</v>
       </c>
       <c r="AB14" t="n">
-        <v>123.9373652831327</v>
+        <v>174.6874816988997</v>
       </c>
       <c r="AC14" t="n">
-        <v>112.1089570877278</v>
+        <v>158.0155536210259</v>
       </c>
       <c r="AD14" t="n">
-        <v>90581.32518429456</v>
+        <v>127672.7446097117</v>
       </c>
       <c r="AE14" t="n">
-        <v>123937.3652831327</v>
+        <v>174687.4816988997</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.160112499927461e-06</v>
+        <v>5.773633792924302e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4.739583333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>112108.9570877278</v>
+        <v>158015.5536210259</v>
       </c>
     </row>
   </sheetData>
